--- a/docs/dataset_preprocessing.xlsx
+++ b/docs/dataset_preprocessing.xlsx
@@ -3187,7 +3187,7 @@
     <t xml:space="preserve"> Syamsuri Jaya</t>
   </si>
   <si>
-    <t>Perancangan Model Supply Chain Management (Scm) Dengan Analisis Balanced Scorecard (Bsc) Pada Pa Dhanar</t>
+    <t>Perancangan Model Supply Chain Management Scm Dengan Analisis Balanced Scorecard Bsc Pada Pa Dhanar</t>
   </si>
   <si>
     <t>Media Pembelajaran Penjadwalan Proses Berbasis Multimedia Untuk Memudahkan Pemahaman Mahasiswa Pada Mata Kuliah Sistem Operasi</t>
@@ -3196,7 +3196,7 @@
     <t>Website Update Skor Pertandingan Sepak Bola Liga Indonesia</t>
   </si>
   <si>
-    <t>Web Service Backend Manajemen Perpustakaan Desa Berbasis Konsep Software As A Service (Saas)</t>
+    <t>Web Service Backend Manajemen Perpustakaan Desa Berbasis Konsep Software As A Service Saas</t>
   </si>
   <si>
     <t>Visualisasi Teknik Pengobatan Akupuntur Dengan Animasi 3D</t>
@@ -3211,7 +3211,7 @@
     <t>Visualisasi Materi Kuliah Kimia Perancangan Menara Distilasi Multikomponen</t>
   </si>
   <si>
-    <t>Visualisasi Erupsi Gunung Berapi Non -Explosive Berbasis 3 D</t>
+    <t>Visualisasi Erupsi Gunung Berapi Non Explosive Berbasis 3 D</t>
   </si>
   <si>
     <t>Visualisasi Body Building Berbasis Multimedia</t>
@@ -3229,10 +3229,10 @@
     <t>Visualisasi Pembelajaran Algoritma Dijkstra Untuk Mencari Lintasan Terpendek</t>
   </si>
   <si>
-    <t>Visualisasi Pembangkit Listrik Tenaga Surya (Solar Sel)</t>
-  </si>
-  <si>
-    <t>Visualisasi Peletakan Buku Di Perpustakaan Menggunakan Java [Studi Kasus Di Perpustakaan Daerah Yogyakarta]</t>
+    <t>Visualisasi Pembangkit Listrik Tenaga Surya Solar Sel</t>
+  </si>
+  <si>
+    <t>Visualisasi Peletakan Buku Di Perpustakaan Menggunakan Java Studi Kasus Di Perpustakaan Daerah Yogyakarta</t>
   </si>
   <si>
     <t>Visualisasi Maxinari Residence Dan Penentu Harga Rumah Berdasarkan Satuan Bahan Pada Maxinari Residence Sebagai Media Pemasaran</t>
@@ -3244,7 +3244,7 @@
     <t>Visualisasi Algoritma Cipher Block Chaining Sebagai Media Pembelajaran Berbasis Mobile Android</t>
   </si>
   <si>
-    <t>Visualisasi 3D Dalam Pembelajaran Yoga Berbasis Multimedia Interaktif {Studi Kasus Ashtangha Yoga Nature Club}</t>
+    <t>Visualisasi 3D Dalam Pembelajaran Yoga Berbasis Multimedia Interaktif Studi Kasus Ashtangha Yoga Nature Club</t>
   </si>
   <si>
     <t>Virtual Museum Kekayon Menggunakan Aplikasi Multimedia Interaktif Sebagai Sarana Informasi</t>
@@ -3253,13 +3253,13 @@
     <t>Verifikasi Wajah Untuk Sistem Presensi Mahasiswa</t>
   </si>
   <si>
-    <t>Visualisasi Gerakan Jurus Dasar Seni Beladiri Tapak Suci Sebagai Media Bantu Pembelajaran Berbasis Multimedia Tiga Dimensi(Studi Kasus : Ortom Tapak Suci Putera Muhammadiyah Universitas Ahmad Dahlan Yogyakarta)</t>
+    <t>Visualisasi Gerakan Jurus Dasar Seni Beladiri Tapak Suci Sebagai Media Bantu Pembelajaran Berbasis Multimedia Tiga DimensiStudi Kasus  Ortom Tapak Suci Putera Muhammadiyah Universitas Ahmad Dahlan Yogyakarta</t>
   </si>
   <si>
     <t>Translator Bahasa Mandarin Indonesia Berbasis Wap</t>
   </si>
   <si>
-    <t>Theme Generator Cms Wordpress Menggunakan Teknologi Html 5 Untuk Mempermudah Pembuatan Theme Sebagai Media Promosi (Studi Kasus Synchronous, Yogyakarta)</t>
+    <t>Theme Generator Cms Wordpress Menggunakan Teknologi Html 5 Untuk Mempermudah Pembuatan Theme Sebagai Media Promosi Studi Kasus Synchronous Yogyakarta</t>
   </si>
   <si>
     <t>Test Interest Of Multiple Intelligences Berbasis Web Studi Kasus Sd Juara Yogyakarta</t>
@@ -3268,22 +3268,22 @@
     <t>Teknologi Augmented Reality Untuk Pengembangan Aplikasi Pengenalan Motif Songket Palembang</t>
   </si>
   <si>
-    <t>The Measuring Of Technology Reception In The Use Ofinformation System Of Regional Library By Using Modeltechnology Acceptence Model (Tam)</t>
-  </si>
-  <si>
-    <t>Survei E-Readiness Infrastruktur Perguruan Tinggi Di Yogyakarta Dalam Perkuliahan Berbasis E-Learning</t>
-  </si>
-  <si>
-    <t>Solusi Pengobatan Produk K-Link Dengan Sistem Pakar</t>
-  </si>
-  <si>
-    <t>Sistem Penggajian Kantor Balai Konservasi Borobudur Berbasis Client-Server</t>
+    <t>The Measuring Of Technology Reception In The Use Ofinformation System Of Regional Library By Using Modeltechnology Acceptence Model Tam</t>
+  </si>
+  <si>
+    <t>Survei EReadiness Infrastruktur Perguruan Tinggi Di Yogyakarta Dalam Perkuliahan Berbasis ELearning</t>
+  </si>
+  <si>
+    <t>Solusi Pengobatan Produk KLink Dengan Sistem Pakar</t>
+  </si>
+  <si>
+    <t>Sistem Penggajian Kantor Balai Konservasi Borobudur Berbasis ClientServer</t>
   </si>
   <si>
     <t>Sistem Pengenalan Jenis Kayu Menggunakan Principal Components Analysis</t>
   </si>
   <si>
-    <t>Sistem Pengelolaan Promosi Barang Berbasis Website Menggunakan Metode Analytical Hierarchy Prosess (Studi Kasus Di Magaswalayan Yoyakarta)</t>
+    <t>Sistem Pengelolaan Promosi Barang Berbasis Website Menggunakan Metode Analytical Hierarchy Prosess Studi Kasus Di Magaswalayan Yoyakarta</t>
   </si>
   <si>
     <t>Sistem Pengamanan Distribusi Software Dengan Sms Gateway</t>
@@ -3292,10 +3292,10 @@
     <t>Sistem Penerimaan Siswa Baru Studi Kasus Di Smkn 1 Pringgabaya Lombok Timur Ntb</t>
   </si>
   <si>
-    <t>Sistem Penentuan Keterkaitan Antar Skripsi Berdasarkan Keyword Seeking (Studi Kasus : Perpustakaan Universitas Ahmad Dahlan)</t>
-  </si>
-  <si>
-    <t>Sistem Pendukung Keputusan Untuk Pemilihan Lokasi Pembukaan Cabang Usaha Variasi Mobil Dengan Metode Promethee (Tudi Kasus Pada Usaha Variasi Mobil Anfa)</t>
+    <t>Sistem Penentuan Keterkaitan Antar Skripsi Berdasarkan Keyword Seeking Studi Kasus  Perpustakaan Universitas Ahmad Dahlan</t>
+  </si>
+  <si>
+    <t>Sistem Pendukung Keputusan Untuk Pemilihan Lokasi Pembukaan Cabang Usaha Variasi Mobil Dengan Metode Promethee Tudi Kasus Pada Usaha Variasi Mobil Anfa</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Untuk Meningkatkan Akurasi Pemberian Kredit Nasabah Dengan Metode Logika Fuzzy Tsukamoto Studi Kasus Bmt Ash Shof Kutoarjo</t>
@@ -3304,7 +3304,7 @@
     <t>Sistem Pendukung Keputusan Untuk Menentukan Supplier Terbaik Menggunakan Metode Weighted Product</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Untuk Menentukan Peringkat Sekolah (Sma Kota Yogyakarta) Berbasis Web</t>
+    <t>Sistem Pendukung Keputusan Untuk Menentukan Peringkat Sekolah Sma Kota Yogyakarta Berbasis Web</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Untuk Menentukan Kualitas Jamur</t>
@@ -3313,7 +3313,7 @@
     <t>Sistem Pendukung Keputusan Untuk Menentukan Hama Dan Penyakit Pada Tanaman Holtikultura Komoditas Sayuran Dengan Metode Case Base Reasoning Berbasis Web</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Seleksi Calon Karyawan Dengan Metode Promethee ( Studi Kasus Pamella Group Yogyakarta)</t>
+    <t>Sistem Pendukung Keputusan Seleksi Calon Karyawan Dengan Metode Promethee  Studi Kasus Pamella Group Yogyakarta</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Penilaian Kualitas Jenis Kayu Untuk Dijadikan Ukiran Dan Furniture Menggunakan Kriteria Bayea</t>
@@ -3325,19 +3325,19 @@
     <t>Sistem Pendukung Keputusan Penentuan Lokasi Budidaya Jamur Tiram Dengan Metode Kriteria Bayes</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Penentuan Kesesuaian Jenis Lahan Untuk Budidaya Tanaman Buah-Buahan Menggunakan Metode Similarity Berbasis Web</t>
+    <t>Sistem Pendukung Keputusan Penentuan Kesesuaian Jenis Lahan Untuk Budidaya Tanaman BuahBuahan Menggunakan Metode Similarity Berbasis Web</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Penentuan Daerah Pencemaran Limbah Home Industri Berbasis Sig</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Penentuan Daerah Demam Berdarah Dengue (Dbd) Di Provinsi Daerah Istimewa Yogyakarta Menggunakan Kriteria Bayes</t>
+    <t>Sistem Pendukung Keputusan Penentuan Daerah Demam Berdarah Dengue Dbd Di Provinsi Daerah Istimewa Yogyakarta Menggunakan Kriteria Bayes</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Penentuan Calon Petugas Haji Dengan Metode Simple Additive Weighthing</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Pemilihan Lokasi Warnet Dengan Metode Ahp (Studi Kasus : Green Net)</t>
+    <t>Sistem Pendukung Keputusan Pemilihan Lokasi Warnet Dengan Metode Ahp Studi Kasus  Green Net</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Menentukan Pekerjaan Berdasarkan Tes Kepribadian Berbasis Web</t>
@@ -3346,7 +3346,7 @@
     <t>Sistem Pendukung Keputusan Klinis Untuk Mengefisienkan Diagnosa Penyakit Kejiwaan Menggunakan Case Based Reasonning</t>
   </si>
   <si>
-    <t>Sistem Pencarian Lokasi Lampu Lalu Lintas Pt.Qumicom Indonesia Berbasis Web</t>
+    <t>Sistem Pencarian Lokasi Lampu Lalu Lintas PtQumicom Indonesia Berbasis Web</t>
   </si>
   <si>
     <t>Sistem Penalaran Berbasis Kasus Untuk Mendiagnosa Penyakit Gigi Dan Mulut</t>
@@ -3361,13 +3361,13 @@
     <t>Sistem Pakar Untuk Mendiagnosis Secara Medis Pada Penyakit Paru Menggunakan Logika Fuzzy</t>
   </si>
   <si>
-    <t>Sistem Pakar Untuk Mendiagnosis Penyakit Pada Kasus Bedah Umum Dengan Menggunakan Metode Dempster-Shafer</t>
+    <t>Sistem Pakar Untuk Mendiagnosis Penyakit Pada Kasus Bedah Umum Dengan Menggunakan Metode DempsterShafer</t>
   </si>
   <si>
     <t>Sistem Pakar Untuk Mendiagnosa Penyakit Pada Tanaman Pangan Menggunakan Certainty Factor</t>
   </si>
   <si>
-    <t>Sistem Pakar Untuk Mendiagnosa Penyakit Menular Dari Hewan Ke Manusia (Zoonosis) Menggunakan Metode Demste Shafer</t>
+    <t>Sistem Pakar Untuk Mendiagnosa Penyakit Menular Dari Hewan Ke Manusia Zoonosis Menggunakan Metode Demste Shafer</t>
   </si>
   <si>
     <t>Sistem Pakar Untuk Mendiagnosa Penyakit Kulit Manusia Berbasis Fuzzy Dengan Metode Tsukamoto</t>
@@ -3400,7 +3400,7 @@
     <t>Sistem Otentikasi User Dalam Jaringan Wireles Berbasis Web Pada Server Linux</t>
   </si>
   <si>
-    <t>Sistem Konsultasi Keuangan Dalam Menentukan Penerimaan Pinjaman Di Lkm (Lembaga Keuangan Mikro) Menggunakan Metode K-Neares Neighbor</t>
+    <t>Sistem Konsultasi Keuangan Dalam Menentukan Penerimaan Pinjaman Di Lkm Lembaga Keuangan Mikro Menggunakan Metode KNeares Neighbor</t>
   </si>
   <si>
     <t>Sistem Integrasi Data Untuk Mempermudah Pertukaran Informasi Obat Antar Klinik Kesehatan Berbasis Web Service</t>
@@ -3412,7 +3412,7 @@
     <t>Sistem Informasi Rute Terpendek Tour Travelling Daerah Istimewa Yogyakarta Dengan Algoritma Genetika</t>
   </si>
   <si>
-    <t>Sistem Informasi Rekam Medis Berbasis Client-Server Dan Web Service (Studi Kasus Dinas Kesehatan Kota Yogyakarta)</t>
+    <t>Sistem Informasi Rekam Medis Berbasis ClientServer Dan Web Service Studi Kasus Dinas Kesehatan Kota Yogyakarta</t>
   </si>
   <si>
     <t>Sistem Informasi Persediaan Barang Menggunakan Model Economic Order Quantity Eoq Klasik Di Cv Gradasi Indonesia Kotagede Yogyakarta</t>
@@ -3433,7 +3433,7 @@
     <t>Sistem Informasi Manajemen Taman Pendidikan Al Quran Kota Yogyakarta Berbasis Web</t>
   </si>
   <si>
-    <t>Sistem Informasi Keanggotaan Muhammadiyah Online Berbasis Wap 2.0</t>
+    <t>Sistem Informasi Keanggotaan Muhammadiyah Online Berbasis Wap 20</t>
   </si>
   <si>
     <t>Sistem Informasi Hotel Di Yogyakarta Berbasis Web Dengan Dukungan Posisi Geografis</t>
@@ -3442,7 +3442,7 @@
     <t>Sistem Informasi Geografis Untuk Mengetahui Penyebaran Guru Dieilayah Kerja Departemen Agama Kabupaten Kulon Progo Berbasis Web</t>
   </si>
   <si>
-    <t>Sistem Informasi Geografis Tempat Praktik Dokter Spesialis Di Provinsi D.I.Yogyakarta Berbasis Web</t>
+    <t>Sistem Informasi Geografis Tempat Praktik Dokter Spesialis Di Provinsi DIYogyakarta Berbasis Web</t>
   </si>
   <si>
     <t>Sistem Informasi Geografis Sarana Kesehatan Berbasis Web Dinas Kesehatan Kabupaten Bantul</t>
@@ -3457,7 +3457,7 @@
     <t>Sistem Informasi Geografis Pemetaan Potensi Dan Pemberdayaan Penghijauan Wilayah Kota Yogyakarta Berbasis Website</t>
   </si>
   <si>
-    <t>Sistem Informasi Geografis Pemetaan Dan Pencarian Lokasi Fasilitas Kesehatan Rumah Sakit, Klinik, Dan Puskesmas Di Kabupaten Sleman Berbasis Web</t>
+    <t>Sistem Informasi Geografis Pemetaan Dan Pencarian Lokasi Fasilitas Kesehatan Rumah Sakit Klinik Dan Puskesmas Di Kabupaten Sleman Berbasis Web</t>
   </si>
   <si>
     <t>Sistem Informasi Geografis Pariwisata Kotagede Berbasis Web</t>
@@ -3496,19 +3496,19 @@
     <t>Sistem Informasi Geografi Lokasi Sentra Industri Dan Pemasaran Industri Kerajinan Batik Di Pekalongan</t>
   </si>
   <si>
-    <t>Sistem Identifikasi Citra Rimpang Pada Tanaman Famili Zingiberaceae (Temu-Temuan) Menggunakan Metode Fungsi Jarak One Minus Correlation Coefficient</t>
+    <t>Sistem Identifikasi Citra Rimpang Pada Tanaman Famili Zingiberaceae TemuTemuan Menggunakan Metode Fungsi Jarak One Minus Correlation Coefficient</t>
   </si>
   <si>
     <t>Sistem Diagnosa Tumbuh Kembang Anak Dengan Representasi Pengetahuan Jaringan Semantik</t>
   </si>
   <si>
-    <t>Sistem Riwayat Kompetensi Mahasiswa Berbasis Web Service (Studi Kasus Program Studi Teknik Informatika)</t>
-  </si>
-  <si>
-    <t>Sistem Pengolahan Transaksi Maintenance/Perawatan Mesin Berbasis Client-Server (Studi Kasus Pt. Astra Otoparts Divisi Adiwira Plastik)</t>
-  </si>
-  <si>
-    <t>Sistem Penentuan Perencanaan Pelaksanaan Program Imunisasi Yang Disertai Peta Geografisnya (Sudi Kasus Dinas Kesehatan Kab. Wonosobo)</t>
+    <t>Sistem Riwayat Kompetensi Mahasiswa Berbasis Web Service Studi Kasus Program Studi Teknik Informatika</t>
+  </si>
+  <si>
+    <t>Sistem Pengolahan Transaksi MaintenancePerawatan Mesin Berbasis ClientServer Studi Kasus Pt Astra Otoparts Divisi Adiwira Plastik</t>
+  </si>
+  <si>
+    <t>Sistem Penentuan Perencanaan Pelaksanaan Program Imunisasi Yang Disertai Peta Geografisnya Sudi Kasus Dinas Kesehatan Kab Wonosobo</t>
   </si>
   <si>
     <t>Sistem Penentuan Mahasiswa Berprestasi Pada Lingkungan Kopertis V Dengan Metode Kriteria Bayes Berbasis Multi User</t>
@@ -3517,7 +3517,7 @@
     <t>Sistem Pendukung Keputusan Seleksi Penerimaan Beras Untuk Keluarga Miskin Menggunakan Metode Simple Additive Weighting</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Penentu Sanksi Terhadap Siswa Yang Melanggar Peraturan Akademik Sekolah Metode Fuzzy Logic (Studi Kasus Smk Piri I Yogyakarta)</t>
+    <t>Sistem Pendukung Keputusan Penentu Sanksi Terhadap Siswa Yang Melanggar Peraturan Akademik Sekolah Metode Fuzzy Logic Studi Kasus Smk Piri I Yogyakarta</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Untuk Menentukan Diagnosis Penyakit Hewan Ternak Menggunakan Metode Case Base Reasoning</t>
@@ -3529,7 +3529,7 @@
     <t>Sistem Pendukung Keputusan Peramalan Permintaan Geplak Menggunakan Metode Exponential Smoothing Studi Kasus Pabrik Geplak Cinta Rasa Dusun Tirto Triharjo Pandak</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Penyeleksian Posisi Pemain Dalam Sepak Bola (Studi Kasus Klub Bola Ps Kalasan)</t>
+    <t>Sistem Pendukung Keputusan Penyeleksian Posisi Pemain Dalam Sepak Bola Studi Kasus Klub Bola Ps Kalasan</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Penentuan Status Gizi Balita</t>
@@ -3538,16 +3538,16 @@
     <t>Sistem Pendukung Keputusan Penentuan Posisi Pemain Pada Olahraga Bola Voli</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Penentuan Penerima Jaminan Kesehatan Masyarakat Untuk Masyarakat Miskin Menggunakan Kriteria Bayes (Studi Kasus Dinas Kesehatan Kabupaten Kulon Progo)</t>
-  </si>
-  <si>
-    <t>Sistem Pendukung Keputusan Penentuan Penerima Beasiswa Di Sekolah Menengah Pertama (Smp) Menggunakan Kriteria Bayes (Studi Kasus Smp Negeri 2 Pandak Bantul)</t>
+    <t>Sistem Pendukung Keputusan Penentuan Penerima Jaminan Kesehatan Masyarakat Untuk Masyarakat Miskin Menggunakan Kriteria Bayes Studi Kasus Dinas Kesehatan Kabupaten Kulon Progo</t>
+  </si>
+  <si>
+    <t>Sistem Pendukung Keputusan Penentuan Penerima Beasiswa Di Sekolah Menengah Pertama Smp Menggunakan Kriteria Bayes Studi Kasus Smp Negeri 2 Pandak Bantul</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Penentuan Lokasi Bts Menggunakan Metode Bayes</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Penentuan Kualitas Sdm Karyawan Pt. Madu Baru Yogyakarta</t>
+    <t>Sistem Pendukung Keputusan Penentuan Kualitas Sdm Karyawan Pt Madu Baru Yogyakarta</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Penentuan Kualitas Kayu Untuk Kerajinan Meubel</t>
@@ -3577,7 +3577,7 @@
     <t>Sistem Pendukung Keputusan Klinis Untuk Diagnosa Penyakit Kandungan Berbasis Case Base Reasoning Dengan Pendekatan Sistem Pakar</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Kesehatan Untuk Penderita Penyalit Diabetes Mellitus Dan Komplikasinya Berbasis Wap (Wireless Application Protocol)</t>
+    <t>Sistem Pendukung Keputusan Kesehatan Untuk Penderita Penyalit Diabetes Mellitus Dan Komplikasinya Berbasis Wap Wireless Application Protocol</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Dengan Pemetaan Untuk Meningkatkan Ekonomi Berbasis Industri Kecil</t>
@@ -3589,7 +3589,7 @@
     <t>Sistem Pendukung Keputusan Dalam Pemilihan Lokasi Bengkel Dengan Metode Promethee</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Barang Layak Promosi Pada Minimarket (Studi Kasus Pamella Swalayan Yogyakarta)</t>
+    <t>Sistem Pendukung Keputusan Barang Layak Promosi Pada Minimarket Studi Kasus Pamella Swalayan Yogyakarta</t>
   </si>
   <si>
     <t>Sistem Pendeteksi Penyakit Pada Ikan Gurame Menggunakan Jaringan Syaraf Tiruan Dengan Metode Backpropagation</t>
@@ -3610,16 +3610,16 @@
     <t>Sistem Pemesanan Taksi Menggunakan Layanan Berbasis Lokasi</t>
   </si>
   <si>
-    <t>Sistem Pemantauan Ditribusi Persediaan Barang Berbasis Intraweb Di Cv. Citra Putra Mandiri Lampung</t>
-  </si>
-  <si>
-    <t>Sistem Pelacak Kendaraan Berbasis Opengts Di Pt. Panji Sekar Yogyakarta</t>
-  </si>
-  <si>
-    <t>Sistem Pakar Untuk Mendiagnosa Penyakit Lambung Dengan Implementasi Metode Cbr (Case-Based Reasoning) Berbasis Web</t>
-  </si>
-  <si>
-    <t>Sistem Pakar Dalam Menentukan Jenis Perawatan Wajah(Studi Kasus Rs Pku Muh Yogyakarta)</t>
+    <t>Sistem Pemantauan Ditribusi Persediaan Barang Berbasis Intraweb Di Cv Citra Putra Mandiri Lampung</t>
+  </si>
+  <si>
+    <t>Sistem Pelacak Kendaraan Berbasis Opengts Di Pt Panji Sekar Yogyakarta</t>
+  </si>
+  <si>
+    <t>Sistem Pakar Untuk Mendiagnosa Penyakit Lambung Dengan Implementasi Metode Cbr CaseBased Reasoning Berbasis Web</t>
+  </si>
+  <si>
+    <t>Sistem Pakar Dalam Menentukan Jenis Perawatan WajahStudi Kasus Rs Pku Muh Yogyakarta</t>
   </si>
   <si>
     <t>Sistem Pakar Untuk Mengidentifikasi Penyakit Udang Galah Dengan Metode Theorema Bayes</t>
@@ -3682,7 +3682,7 @@
     <t>Sistem Pakar Penentuan Obat Antihipertensi Bagi Penderita Penyakit Komplikasi Dengan Metode Dempster Shafer</t>
   </si>
   <si>
-    <t>Sistem Pakar Penentuan Kesesuaian Lahan Pertanian Untuk Pembudidayaan Tanaman Buah-Buahan</t>
+    <t>Sistem Pakar Penentuan Kesesuaian Lahan Pertanian Untuk Pembudidayaan Tanaman BuahBuahan</t>
   </si>
   <si>
     <t>Sistem Pakar Penentuan Jenis Penyakit Hati Dengan Metode Inferensi Fuzzy Tsukamoto</t>
@@ -3694,7 +3694,7 @@
     <t>Sistem Pakar Mendiagnosa Penyakit Pada Ikan Air Tawar Berbasis Website</t>
   </si>
   <si>
-    <t>Sistem Pakar Mendiagnosa Penyakit Pada Buah-Buahan Pasca Panen</t>
+    <t>Sistem Pakar Mendiagnosa Penyakit Pada BuahBuahan Pasca Panen</t>
   </si>
   <si>
     <t>Sistem Pakar Mendiagnosa Penyakit Kanker Pada Wanita Dengan Solusi Herbal Sebagai Obat Menggunakan Inferensi Fuzzy Tsukomoto</t>
@@ -3703,13 +3703,13 @@
     <t>Sistem Pakar Mendiagnosa Jenis Penyakit Stroke Menggunakan Metode Certainty Factor</t>
   </si>
   <si>
-    <t>Sistem Pakar Diagnosa Penyakit Skizofrenia Menggunakan Metode Demspter-Shafer Berbasis Web</t>
+    <t>Sistem Pakar Diagnosa Penyakit Skizofrenia Menggunakan Metode DemspterShafer Berbasis Web</t>
   </si>
   <si>
     <t>Sistem Pakar Diagnosa Penyakit Pernapasan Pada Manusia Berbasis Web Dengan Metode Tsukamoto</t>
   </si>
   <si>
-    <t>Sistem Pakar Diagnosa Penyakit Kanker Dengan Penerapan Dempster-Shafer Teori</t>
+    <t>Sistem Pakar Diagnosa Penyakit Kanker Dengan Penerapan DempsterShafer Teori</t>
   </si>
   <si>
     <t>Sistem Pakar Diagnosa Kelainan Pertumbuhan Pada Bayi Semasa Dalam Kandungan</t>
@@ -3733,25 +3733,25 @@
     <t>Sistem Konsultasi Diagnosa Kerusakan Dan Modifikasi Sepeda Motor Matic</t>
   </si>
   <si>
-    <t>Sistem Informasi Geografis Pemetaan Potensi Sekolah Menengah Atas / Kejuruan Berbasis Web</t>
-  </si>
-  <si>
-    <t>Sistem Informasi Untuk Penebusan Resep Di Apotek Rumah Sakit Berbasis Gateway Over Gprs Menggunakan Analisis Zachman Framework {Studi Kasus Rumah Sakit Pku Mohamadiyah Jl. Kh. Ahmad Dahlan Nomor 20 Yogyakarta)</t>
+    <t>Sistem Informasi Geografis Pemetaan Potensi Sekolah Menengah Atas  Kejuruan Berbasis Web</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Untuk Penebusan Resep Di Apotek Rumah Sakit Berbasis Gateway Over Gprs Menggunakan Analisis Zachman Framework Studi Kasus Rumah Sakit Pku Mohamadiyah Jl Kh Ahmad Dahlan Nomor 20 Yogyakarta</t>
   </si>
   <si>
     <t>Sistem Informasi Ujian Mandiri Online Berbasis Web Di Smp N 1 Srandakan</t>
   </si>
   <si>
-    <t>Sistem Informasi Reservasi Travel Berbasis Web [Studi Kasus Garuda Wisata Tour Dan Travel Sleman]</t>
-  </si>
-  <si>
-    <t>Sistem Informasi Perwalian Akademik Berbasis Web (Studi Kasus Sekolah Tinggi Ilmu Pertanian Unggulan Swarnadwipa, Kuansing)</t>
+    <t>Sistem Informasi Reservasi Travel Berbasis Web Studi Kasus Garuda Wisata Tour Dan Travel Sleman</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Perwalian Akademik Berbasis Web Studi Kasus Sekolah Tinggi Ilmu Pertanian Unggulan Swarnadwipa Kuansing</t>
   </si>
   <si>
     <t>Sistem Informasi Perbandingan Harga Handphone Sebantul Berbasis Web</t>
   </si>
   <si>
-    <t>Sistem Informasi Perangkat Akreditasi Sekolah Menengah Atas Berbasis Web (Studi Kasus Di Sma Muhammadiyah Mlati, Sleman)</t>
+    <t>Sistem Informasi Perangkat Akreditasi Sekolah Menengah Atas Berbasis Web Studi Kasus Di Sma Muhammadiyah Mlati Sleman</t>
   </si>
   <si>
     <t>Sistem Informasi Penjualan Roti Pada Home Industri Pitaloka Yogyakarta</t>
@@ -3760,19 +3760,19 @@
     <t>Sistem Informasi Penjualan Perhiasan Besi Putih Berbasis Website Pada Toko Elang Besi Putih</t>
   </si>
   <si>
-    <t>Sistem Informasi Penilaian Angka Kredit Jabatan Fungsional Penghulu (Studi Kasus Kantor Departemen Agama Kabupaten Bantul)</t>
-  </si>
-  <si>
-    <t>Sistem Informasi Pengelolaan Simposium Berbasis Client Server (Studi Kasus Seminar Nasional Jogja Oncology Summit)</t>
+    <t>Sistem Informasi Penilaian Angka Kredit Jabatan Fungsional Penghulu Studi Kasus Kantor Departemen Agama Kabupaten Bantul</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Pengelolaan Simposium Berbasis Client Server Studi Kasus Seminar Nasional Jogja Oncology Summit</t>
   </si>
   <si>
     <t>Sistem Informasi Pendokumentasian Keuangan Pada Jasa Pelayanan Rsud Wates Berbasis Web Service</t>
   </si>
   <si>
-    <t>Sistem Informasi Pemesanan Kue Online Berbasis Web Pada U.D. Maya Brownies</t>
-  </si>
-  <si>
-    <t>Sistem Informasi Notaris Berbasis Sms Gateway (Studi Kasus: Kantor Wilayah Kementerian Hukum Dan Hak Asasi Manusia Daerah Istimewa Yogyakarta)</t>
+    <t>Sistem Informasi Pemesanan Kue Online Berbasis Web Pada UD Maya Brownies</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Notaris Berbasis Sms Gateway Studi Kasus Kantor Wilayah Kementerian Hukum Dan Hak Asasi Manusia Daerah Istimewa Yogyakarta</t>
   </si>
   <si>
     <t>Sistem Informasi Monitoring Kkn Reguler Sekolah Di Lmp Uad Berbasis Website</t>
@@ -3781,19 +3781,19 @@
     <t>Sistem Informasi Manajemen Produksi Dan Penjualan Perusahaan Keramik</t>
   </si>
   <si>
-    <t>Sistem Informasi Manajemen Pelaporan Sentra Industri Kecil Dan Menengah (Ikm)Sandang Dan Kulit Kota Yogyakarta Berbasis Web</t>
-  </si>
-  <si>
-    <t>Sistem Informasi Manajemen Budidaya Perikanan (Studi Kasus: Perikanan Udang Galah Engking Sholikin)</t>
-  </si>
-  <si>
-    <t>Sistem Informasi Manajemen Aset Fakultas Ekonomi Universitas Sains Al-Quran Wonosobo</t>
+    <t>Sistem Informasi Manajemen Pelaporan Sentra Industri Kecil Dan Menengah IkmSandang Dan Kulit Kota Yogyakarta Berbasis Web</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Manajemen Budidaya Perikanan Studi Kasus Perikanan Udang Galah Engking Sholikin</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Manajemen Aset Fakultas Ekonomi Universitas Sains AlQuran Wonosobo</t>
   </si>
   <si>
     <t>Sistem Informasi Lokasi Dan Program Kerja Kkn Di Lembaga Pengabdian Kepada Masyarakat Universitas Ahmad Dahlan Berbasis Web</t>
   </si>
   <si>
-    <t>Sistem Informasi Layanan Jasa Perpanjangan Stnk Berbasis Teknologi Web Dan Sms Gateway (Studi Kasus: Biro Jasa Agus Popo)</t>
+    <t>Sistem Informasi Layanan Jasa Perpanjangan Stnk Berbasis Teknologi Web Dan Sms Gateway Studi Kasus Biro Jasa Agus Popo</t>
   </si>
   <si>
     <t>Sistem Informasi Kepustakaan Menggunakan Barcode</t>
@@ -3802,7 +3802,7 @@
     <t>Sistem Informasi Kependudukan Berbasis Web Dan Sms Di Dinas Kependudukan Dan Pencatatan Sipil Kota Tanjungpinang</t>
   </si>
   <si>
-    <t>Sistem Informasi Himpunan Mahasiswa Dan Pelajar Lampung-Forum Keluarga Besar Lampung Hipmala_Fkbl Berbasis Web</t>
+    <t>Sistem Informasi Himpunan Mahasiswa Dan Pelajar LampungForum Keluarga Besar Lampung Hipmala_Fkbl Berbasis Web</t>
   </si>
   <si>
     <t>Sistem Informasi Hasil Survei Lokasi Kkn Di Lembaga Pengabdian Masyarakat Universitas Ahmad Dahlan Berbasis Web</t>
@@ -3820,10 +3820,10 @@
     <t>Sistem Informasi Geografis Rumah Rusak Dan Kondisi Penyintas Pasca Gempa Tektonik 27 Mei 2006 Di Kabupaten Bantul Berbasis Destop</t>
   </si>
   <si>
-    <t>Sistem Informasi Geografis Prioritas Ketersediaan Tanah (Studi Kasus Di Kantor Badan Pertanahan Nasional Kabupaten Katingan Kalimantan Tengah)</t>
-  </si>
-  <si>
-    <t>Sistem Informasi Geografis Perkebunan Kelapa Sawit, Karet Dan Tempat Pendistribusian Di Pekanbaru</t>
+    <t>Sistem Informasi Geografis Prioritas Ketersediaan Tanah Studi Kasus Di Kantor Badan Pertanahan Nasional Kabupaten Katingan Kalimantan Tengah</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Geografis Perkebunan Kelapa Sawit Karet Dan Tempat Pendistribusian Di Pekanbaru</t>
   </si>
   <si>
     <t>Sistem Informasi Geografis Perkebunan Di Provinsi Riau Berbasis Web</t>
@@ -3844,7 +3844,7 @@
     <t>Sistem Informasi Geografis Bengkel Resmi Ahass Dan Monitoring Pelanggan Wilayah Kota Yogyakarta Berbasis Google Maps Api</t>
   </si>
   <si>
-    <t>Sistem Informasi Geografis (Sig) Penyebaran Virus Flu Burung Di Kabupaten Bantul Berbasis Web</t>
+    <t>Sistem Informasi Geografis Sig Penyebaran Virus Flu Burung Di Kabupaten Bantul Berbasis Web</t>
   </si>
   <si>
     <t>Sistem Informasi Event Di Yogyakarta Berbasis Google Map Api</t>
@@ -3853,34 +3853,34 @@
     <t>Sistem Informasi Database Hasil Penelitian Di Lembaga Penelitian Ugm Yogyakarta Menggunakan Oracle Developer</t>
   </si>
   <si>
-    <t>Sistem Informasi Angka Kredit Guru Berbasis Multiuser (Studi Kasus: Dinas Pendidikan Dan Pengajaran Kota Yogyakarta)</t>
-  </si>
-  <si>
-    <t>Sistem Informasi Akademik Universitas Samaa (Unsa) Berbasis Web</t>
+    <t>Sistem Informasi Angka Kredit Guru Berbasis Multiuser Studi Kasus Dinas Pendidikan Dan Pengajaran Kota Yogyakarta</t>
+  </si>
+  <si>
+    <t>Sistem Informasi Akademik Universitas Samaa Unsa Berbasis Web</t>
   </si>
   <si>
     <t>Sistem Informasi Akademik Stain Padang Berbasis Sms Gateway</t>
   </si>
   <si>
-    <t>Sistem Identifikasi Jenis Tomat (Lycopersicum Esculentum Mill) Berdasarkan Bentuk Menggunakan Metode Klasifikasi Squared Family</t>
-  </si>
-  <si>
-    <t>Sistem Identifikasi Citra Jenis Kunyit (Curcuma Domestica Val.) Menggunakan Metode Klasifikasi Minkowski Distance Family</t>
-  </si>
-  <si>
-    <t>Sistem Identifikasi Citra Jenis Cabai (Capsicum Annum L) Menggunakan Metode Klasifikasi City Block Distance</t>
-  </si>
-  <si>
-    <t>Sistem Identifikasi Citra Jahe (Zingiber Officinale) Menggunakan Metode Jarak Czekanowski</t>
+    <t>Sistem Identifikasi Jenis Tomat Lycopersicum Esculentum Mill Berdasarkan Bentuk Menggunakan Metode Klasifikasi Squared Family</t>
+  </si>
+  <si>
+    <t>Sistem Identifikasi Citra Jenis Kunyit Curcuma Domestica Val Menggunakan Metode Klasifikasi Minkowski Distance Family</t>
+  </si>
+  <si>
+    <t>Sistem Identifikasi Citra Jenis Cabai Capsicum Annum L Menggunakan Metode Klasifikasi City Block Distance</t>
+  </si>
+  <si>
+    <t>Sistem Identifikasi Citra Jahe Zingiber Officinale Menggunakan Metode Jarak Czekanowski</t>
   </si>
   <si>
     <t>Sistem Broadcase Proses Belajar Mengajar Dengan Synchronous Dan Asynchronous</t>
   </si>
   <si>
-    <t>Sistem Administrasi Penghunian Kost Di Wilayah (Studi Kasus Rw 04 Janturan, Umbulharjo, Yogyakarta</t>
-  </si>
-  <si>
-    <t>Siste Pakar Untuk Mendiagnosa Penyakit Mata Menggunakan Logika Fuzzy (Tsukamoto)</t>
+    <t>Sistem Administrasi Penghunian Kost Di Wilayah Studi Kasus Rw 04 Janturan Umbulharjo Yogyakarta</t>
+  </si>
+  <si>
+    <t>Siste Pakar Untuk Mendiagnosa Penyakit Mata Menggunakan Logika Fuzzy Tsukamoto</t>
   </si>
   <si>
     <t>Simulasi Pemilihan Rute Terpendek Dengan Algoritma Djikstra Menggunakan Macromedia Flash Mx</t>
@@ -3892,13 +3892,13 @@
     <t>Simulasi Pembayaran Tiket Pertandingan Sepak Bola Berbasis Wap</t>
   </si>
   <si>
-    <t>Segmentasi Citra Medik Mri (Magnetic Resonance Imaging) Menggunakan Metode Region Threshold</t>
-  </si>
-  <si>
-    <t>Segmentasi Citra Kanker Serviks Menggunakan Metode K-Means Clustering Dan Region Growing</t>
-  </si>
-  <si>
-    <t>Spk Pemilihan Lokasi Pabrik Dengan Metode Brown-Gibson</t>
+    <t>Segmentasi Citra Medik Mri Magnetic Resonance Imaging Menggunakan Metode Region Threshold</t>
+  </si>
+  <si>
+    <t>Segmentasi Citra Kanker Serviks Menggunakan Metode KMeans Clustering Dan Region Growing</t>
+  </si>
+  <si>
+    <t>Spk Pemilihan Lokasi Pabrik Dengan Metode BrownGibson</t>
   </si>
   <si>
     <t>Sistem Resevasi Hotel Berbasisi Mobile Aplication Dengan Menggunakan Java Midlet Dan Mysql</t>
@@ -3907,13 +3907,13 @@
     <t>Sistem Pengolahan Aset Desa Dan Administrasi Desa Berbasis Web</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Penentuan Lokasipembangunan Tower Base Transceiver Station (Bts)Menggunakan Kriteria Bayes Yang Disertai Dengan Letakgeografisnya</t>
+    <t>Sistem Pendukung Keputusan Penentuan Lokasipembangunan Tower Base Transceiver Station BtsMenggunakan Kriteria Bayes Yang Disertai Dengan Letakgeografisnya</t>
   </si>
   <si>
     <t>Sistem Pendukung Keputusan Pemilihan Program Studi Bagi Mahasiswa Baru Universitas Ahmad Dahlan Yogyakarta Menggunakan Metode Topsis</t>
   </si>
   <si>
-    <t>Sistem Pendukung Keputusan Dalam Menentukan Pemenang Jasa Pemborong Proyek Dengan Metode Kriteria Bayes(Studi Kasus: Dinas Pekerjaan Umum Kabupaten Temanggung)</t>
+    <t>Sistem Pendukung Keputusan Dalam Menentukan Pemenang Jasa Pemborong Proyek Dengan Metode Kriteria BayesStudi Kasus Dinas Pekerjaan Umum Kabupaten Temanggung</t>
   </si>
   <si>
     <t>Sistem Pakar Untuk Diagnosa Komplikasi Pada Ibu Dan Janindimasa Kehamilan Berbasis Mobile</t>
@@ -3934,7 +3934,7 @@
     <t>Rekayasa Aplikasi Pengolahan Data Barang Berbasiska Basis Data Di Pt Indomarco Adi Prima Tasikmalaya</t>
   </si>
   <si>
-    <t>Rekayasa Cms Open Source Untuk Pembuatan Sistem Informasi Penelitian (Studi Kasus Pada Program Studi Teknik Informatika Universitas Ahmad Dahlan)</t>
+    <t>Rekayasa Cms Open Source Untuk Pembuatan Sistem Informasi Penelitian Studi Kasus Pada Program Studi Teknik Informatika Universitas Ahmad Dahlan</t>
   </si>
   <si>
     <t>Rancangn Bangun Sig Pemantauan Penyebaran Penyakit Dbd Kabupaten Siak Berbasis Web</t>
@@ -3946,7 +3946,7 @@
     <t>Rancang Bangun Sistem Pakar Untuk Mendiagnosa Kerusakan Mesin Kapal Laut</t>
   </si>
   <si>
-    <t>Rancang Bangun Sistem Monitoring Terapi Arv (Antiretroviral) Dengan Metode Client Server Berbasis Smartphone Pada Rsup Dr. Sardjito</t>
+    <t>Rancang Bangun Sistem Monitoring Terapi Arv Antiretroviral Dengan Metode Client Server Berbasis Smartphone Pada Rsup Dr Sardjito</t>
   </si>
   <si>
     <t>Rancang Bangun Sistem Informasi Manajemen Bantuan Operasional Sekolah Bos</t>
@@ -3958,22 +3958,22 @@
     <t>Rancang Bangun Aplikasi Marketplace Restoran Di Yogyakarta Berbasis Web Online</t>
   </si>
   <si>
-    <t>Rancang Bangun Aplikasi Enkripsi Dan Dekripsi Sms(Short Message Service) Pada Mobile Dengan Algoritma Adfgvx Aproduct Cipher Berbasis J2Me)</t>
-  </si>
-  <si>
-    <t>Rancang Bangun Sistem Pendukung Keputusan Penentuan Urutan Personil Haji/Umroh Dengan Biaya Dinas (Studi Kasus: Universitas Ahmad Dahlan (Uad))</t>
+    <t>Rancang Bangun Aplikasi Enkripsi Dan Dekripsi SmsShort Message Service Pada Mobile Dengan Algoritma Adfgvx Aproduct Cipher Berbasis J2Me</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Sistem Pendukung Keputusan Penentuan Urutan Personil HajiUmroh Dengan Biaya Dinas Studi Kasus Universitas Ahmad Dahlan Uad</t>
   </si>
   <si>
     <t>Rancang Bangun Web Sistem Pengelolaan Zakat Berbasis Rich Internet Application</t>
   </si>
   <si>
-    <t>Rancang Bangun Web Service Aplikasi Management Event (Acara)</t>
-  </si>
-  <si>
-    <t>Rancang Bangun Visualisasi Model Tiga-Dimensi Tata Surya Berbasis Teknologi Augmented Reality</t>
-  </si>
-  <si>
-    <t>Rancang Bangun Ui (User Interface) /Ux (User Experience ) Aplikasi Manajemenâ  Skripsi Pada Program Studi Teknik Informatika Uad</t>
+    <t>Rancang Bangun Web Service Aplikasi Management Event Acara</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Visualisasi Model TigaDimensi Tata Surya Berbasis Teknologi Augmented Reality</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Ui User Interface Ux User Experience  Aplikasi Manajemen Skripsi Pada Program Studi Teknik Informatika Uad</t>
   </si>
   <si>
     <t>Rancang Bangun Sistem Pendukung Keputusan Dalam Penempatan Guru Wali Kelas Berbasis Kasus</t>
@@ -3982,16 +3982,16 @@
     <t>Rancang Bangun Sistem Manajemen Studio Rekaman Berbasis Web</t>
   </si>
   <si>
-    <t>Rancang Bangun Sistem Layanan Berbasis Lokasi Untuk Mobile Marketing Produk Usaha Mikro Kecil Dan Menengah (Umkm) Dengan Pemanfaatan Konsep Intelligent Resource Monitor (Irm)</t>
+    <t>Rancang Bangun Sistem Layanan Berbasis Lokasi Untuk Mobile Marketing Produk Usaha Mikro Kecil Dan Menengah Umkm Dengan Pemanfaatan Konsep Intelligent Resource Monitor Irm</t>
   </si>
   <si>
     <t>Rancang Bangun Sistem Informasi Manajemen Rental Mobil Di Yogyakarta Berbasis Web</t>
   </si>
   <si>
-    <t>Rancang Bangun Sistem Informasi Manajemen (Sim) Dan Transaction Processing System (Tps) Pengelolaan Barang Pada Minimarket Multi Outlet Berbasis Web</t>
-  </si>
-  <si>
-    <t>Rancang Bangun Sistem Informasi Estimasi Kedatangan Bus Trans-Jogja Berdasarkan Lokasi Bus Dengan Gps Berbasis Web</t>
+    <t>Rancang Bangun Sistem Informasi Manajemen Sim Dan Transaction Processing System Tps Pengelolaan Barang Pada Minimarket Multi Outlet Berbasis Web</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Sistem Informasi Estimasi Kedatangan Bus TransJogja Berdasarkan Lokasi Bus Dengan Gps Berbasis Web</t>
   </si>
   <si>
     <t>Rancang Bangun Sistem Hotspot Menggunakan Captive Portal</t>
@@ -4003,19 +4003,19 @@
     <t>Rancang Bangun Digital Library Multiserver Dengan Teknologi Web Service</t>
   </si>
   <si>
-    <t>Rancang Bangun Broadcast Management System (Bms) Sms Berbasis Web Dalam Sistem Informasi Managemen Sumber Daya Manusia Perguruan Tinggi (Study Kasus Di Sdm Universitas Ahmad Dahlan)</t>
+    <t>Rancang Bangun Broadcast Management System Bms Sms Berbasis Web Dalam Sistem Informasi Managemen Sumber Daya Manusia Perguruan Tinggi Study Kasus Di Sdm Universitas Ahmad Dahlan</t>
   </si>
   <si>
     <t>Rancang Bangun Bahan Ajar Berbasis Website Multimedia Dengan Teknik Motion Graphics</t>
   </si>
   <si>
-    <t>Rancang Bangun Aplikasi Website E-Commerce Desain Interior Dan Eksterior Pada Cv. Graha Anggun Abadi</t>
+    <t>Rancang Bangun Aplikasi Website ECommerce Desain Interior Dan Eksterior Pada Cv Graha Anggun Abadi</t>
   </si>
   <si>
     <t>Rancang Bangun Aplikasi Web Untuk Membantu Proses Belajar Mahasiswa Teknik Informatika Uad Pada Matakuliah Matematika Diskret Materi Kombinatorik</t>
   </si>
   <si>
-    <t>Rancang Bangun Aplikasi Traffic Counter Memanfaatkan Radio Frequency Identification(Rfid)</t>
+    <t>Rancang Bangun Aplikasi Traffic Counter Memanfaatkan Radio Frequency IdentificationRfid</t>
   </si>
   <si>
     <t>Rancang Bangun Aplikasi Simulasi Penggunaan Kamera Dslr Berbasis Multimedia</t>
@@ -4030,16 +4030,16 @@
     <t>Rancang Bangun Aplikasi Game Dam Daman Guna Melestarikan Permainan Tradisional</t>
   </si>
   <si>
-    <t>Rancang Bangun Aplikasi Business Intelligence Uji Kinerja Unit Menggunakan Metode Balanced Scorecard (Studi Kasus: Bagian Antaran Mail Processing Center Pt. Pos Indonesia Semarang)</t>
-  </si>
-  <si>
-    <t>Rancang Bangun Aplikasi Android Specialist Interest Group (Sig) Di Teknik Informatika Universitas Ahmad Dahlan Yogyakarta Dengan Menggunakan Metode Google Google Cloud Messaging</t>
-  </si>
-  <si>
-    <t>Rancang Bangun Sistem Informasi Persuratan Danpengarsipan Berbasis Web Pada Pg. Gondang Baruklaten</t>
-  </si>
-  <si>
-    <t>Rancang Bangun Sistem Informasi Kegiatan Santri Smk MaArif Pondok Pesantren Al-Munawwir Krapyak Berbasis Web Dengan Dukungan Sms Gateway</t>
+    <t>Rancang Bangun Aplikasi Business Intelligence Uji Kinerja Unit Menggunakan Metode Balanced Scorecard Studi Kasus Bagian Antaran Mail Processing Center Pt Pos Indonesia Semarang</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Aplikasi Android Specialist Interest Group Sig Di Teknik Informatika Universitas Ahmad Dahlan Yogyakarta Dengan Menggunakan Metode Google Google Cloud Messaging</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Sistem Informasi Persuratan Danpengarsipan Berbasis Web Pada Pg Gondang Baruklaten</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Sistem Informasi Kegiatan Santri Smk MaArif Pondok Pesantren AlMunawwir Krapyak Berbasis Web Dengan Dukungan Sms Gateway</t>
   </si>
   <si>
     <t>Rancang Bangun Metode Kriptografi Hybrid Untuk Pengamanan Dokumen Digital</t>
@@ -4048,10 +4048,10 @@
     <t>Prototype Internet Radio Broadcasting</t>
   </si>
   <si>
-    <t>Proses Dan Dampak Keberhasilan Seo Onpage Offpage Terhadap Pagerank, Index Dan Visitor Untuk Fresh Website</t>
-  </si>
-  <si>
-    <t>Program Bantu Belajar Bangun-Bangun Geomatri Pada Siswa Sd</t>
+    <t>Proses Dan Dampak Keberhasilan Seo Onpage Offpage Terhadap Pagerank Index Dan Visitor Untuk Fresh Website</t>
+  </si>
+  <si>
+    <t>Program Bantu Belajar BangunBangun Geomatri Pada Siswa Sd</t>
   </si>
   <si>
     <t>Profil Objek Wisata Serulingmas Banjarnegara Berbasis Multimedia</t>
@@ -4060,7 +4060,7 @@
     <t>Profil Pariwisata Dan Budaya Kota Pontianak Dengan 2 Bahasa Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Prencanaan Arsitektur Enterprise Untuk Pengembangan Sistem Informasi Di Lpm Menggunakan Kerangka Zachman (Studi Kasus: Universitas Xyz)</t>
+    <t>Prencanaan Arsitektur Enterprise Untuk Pengembangan Sistem Informasi Di Lpm Menggunakan Kerangka Zachman Studi Kasus Universitas Xyz</t>
   </si>
   <si>
     <t>Prediksi Nilai Tukar Rupiah Terhadap Kurs Dollar Usa Pada Pasar Spot Dengan Menggunakan Logika Fuzzy Berbasis Sms</t>
@@ -4072,7 +4072,7 @@
     <t>Prediksi Lama Studi Mahasiswa S1 Teknik Informatika Universitas Ahmad Dahlan Berdasarkan Prestasi Akademik Menggunakan Metode Native Bayes</t>
   </si>
   <si>
-    <t>Perencanaan Strategis Sistem Informasi Dan Teknologi Informasi Menggunakan Konsep Supply Chain Management Di Pt. Madubaru</t>
+    <t>Perencanaan Strategis Sistem Informasi Dan Teknologi Informasi Menggunakan Konsep Supply Chain Management Di Pt Madubaru</t>
   </si>
   <si>
     <t>Perencanaan Sistem Informasi Fakultas Teknologi Industri Universitas Ahmad Dahlan Berbasis Enterprise Architecture Planning</t>
@@ -4084,7 +4084,7 @@
     <t>Perbedaan Sikap Pemecahan Masalah Antara Mahasiswa Prodi Psikologi Dengan Mahasiswa Prodi Teknik Informatika Universitas Ahmad Dahlan Yogyakarta</t>
   </si>
   <si>
-    <t>Perbandingan Metodologi Web Application Frame Work (Cake Php,Codeigniter Dan Yii)</t>
+    <t>Perbandingan Metodologi Web Application Frame Work Cake PhpCodeigniter Dan Yii</t>
   </si>
   <si>
     <t>Perbandingan Metode Inner Product Dan Cosine Similarity Dalam Pembuatan Sistem Identifikasi Citra Jenis Rosella</t>
@@ -4102,10 +4102,10 @@
     <t>Perancangan Prototipe Aplikasi Sistem Pakar Mendiagnosa Penyakit Pada Tanaman Pertanian Organik Berbasis Web Dengan Metode Bayes</t>
   </si>
   <si>
-    <t>Perancangan Program Pembelajaran Daar-Dasar Fotografi Menggunakan E-Learning</t>
-  </si>
-  <si>
-    <t>Perancangan Perangkat Lunak Pembelajaran Struktur Data Pohon Ekspresi (Expression Tree) (Studi Kasus Di Universitas Ahmad Dahlan Yogyakarta)</t>
+    <t>Perancangan Program Pembelajaran DaarDasar Fotografi Menggunakan ELearning</t>
+  </si>
+  <si>
+    <t>Perancangan Perangkat Lunak Pembelajaran Struktur Data Pohon Ekspresi Expression Tree Studi Kasus Di Universitas Ahmad Dahlan Yogyakarta</t>
   </si>
   <si>
     <t>Perancangan Enterprise Architecture Dengan Kerangka Kerja Zachman Di Kantor Wilayah Kementerian Agama Diy</t>
@@ -4114,19 +4114,19 @@
     <t>Perancangan Dan Implementasi Sistem Informasi Administrasi Sekolah Berbasis Sms Gateway</t>
   </si>
   <si>
-    <t>Perancangan Dan Implementasi Sisitem Informasi Administrasi Masjid (Studi Kasus Masjid Jogokariyan)</t>
+    <t>Perancangan Dan Implementasi Sisitem Informasi Administrasi Masjid Studi Kasus Masjid Jogokariyan</t>
   </si>
   <si>
     <t>Perancangan Dan Implementasi Film Animasi 3D Sholihuun Berbasis Software Open Source</t>
   </si>
   <si>
-    <t>Perancangan Dan Implementasi Dengan Topik Latihan Penyusunan Paraagraf Bahasa Indonesia Untuk Sdkelas V (Studi Kasus Sdit Lukman Alhakim)</t>
+    <t>Perancangan Dan Implementasi Dengan Topik Latihan Penyusunan Paraagraf Bahasa Indonesia Untuk Sdkelas V Studi Kasus Sdit Lukman Alhakim</t>
   </si>
   <si>
     <t>Perancangan Dan Implementasi Bahasa Pemrograman Algoena Menggunakan Notasi Algoritma</t>
   </si>
   <si>
-    <t>Perancangan Dan Implementasi Sistem Pembelajaran Dengan Topik Struktur Kalimat Bahasa Indonesia Untuk Sd Kelas Iv (Studi Kasus Sdit Lukman Al Hakim Yogyakarta)</t>
+    <t>Perancangan Dan Implementasi Sistem Pembelajaran Dengan Topik Struktur Kalimat Bahasa Indonesia Untuk Sd Kelas Iv Studi Kasus Sdit Lukman Al Hakim Yogyakarta</t>
   </si>
   <si>
     <t>Perancangan Sistem Pakar Untuk Mendeteksi Hama Dan Penyakit Pada Tanaman Cengkeh Berbasis Website</t>
@@ -4135,28 +4135,28 @@
     <t>Perancangan Sistem Monitoring Bandwidth Internet Berbasis Sms</t>
   </si>
   <si>
-    <t>Perancangan Model Tata Kelola Teknologi Informasi Xyz Indonesia Berbasis Cobit 4.1</t>
-  </si>
-  <si>
-    <t>Perancangan Model Tata Kelola Teknologi Informasi Berbasis Cobit 4.1 Pada Proses Pengelolaan Sumber Daya Manusia It (Studi Kasus Bagian Pengelolaan Data Kab. Kendal)</t>
-  </si>
-  <si>
-    <t>Perancangan Model Enterprise Resource Planning (Erp)Studi Kasus Pt. Madubaru</t>
-  </si>
-  <si>
-    <t>Perancangan Kamus Istilah Informatika Dan Komputer Dilengkapi Fungsi Auto-Suggest</t>
-  </si>
-  <si>
-    <t>Perancangan Enterprise Resource Planning Badan Keuangan Dan Akuntansi Pt. Xyz</t>
-  </si>
-  <si>
-    <t>Perancangan Enterprise Architecture Planning (Eap) Pada Proses Manajemen Aset Dengan Zachman Framework (Studi Kasus Divisi Manajemen Fasilitas Pt. Xyz)</t>
-  </si>
-  <si>
-    <t>Perancangan E-Mall Sebagai Media Informasi Dan Pembelian Buku Berbasis Wap</t>
-  </si>
-  <si>
-    <t>Perancangan E-Library Pada Perpustakaan Di Sekolah Dasar Untuk Menyediakan Referensi Belajar Siswa Menggunakan Web Service</t>
+    <t>Perancangan Model Tata Kelola Teknologi Informasi Xyz Indonesia Berbasis Cobit 41</t>
+  </si>
+  <si>
+    <t>Perancangan Model Tata Kelola Teknologi Informasi Berbasis Cobit 41 Pada Proses Pengelolaan Sumber Daya Manusia It Studi Kasus Bagian Pengelolaan Data Kab Kendal</t>
+  </si>
+  <si>
+    <t>Perancangan Model Enterprise Resource Planning ErpStudi Kasus Pt Madubaru</t>
+  </si>
+  <si>
+    <t>Perancangan Kamus Istilah Informatika Dan Komputer Dilengkapi Fungsi AutoSuggest</t>
+  </si>
+  <si>
+    <t>Perancangan Enterprise Resource Planning Badan Keuangan Dan Akuntansi Pt Xyz</t>
+  </si>
+  <si>
+    <t>Perancangan Enterprise Architecture Planning Eap Pada Proses Manajemen Aset Dengan Zachman Framework Studi Kasus Divisi Manajemen Fasilitas Pt Xyz</t>
+  </si>
+  <si>
+    <t>Perancangan EMall Sebagai Media Informasi Dan Pembelian Buku Berbasis Wap</t>
+  </si>
+  <si>
+    <t>Perancangan ELibrary Pada Perpustakaan Di Sekolah Dasar Untuk Menyediakan Referensi Belajar Siswa Menggunakan Web Service</t>
   </si>
   <si>
     <t>Perancangan Dan Pembuatan Sistem Aplikasi Media Penyuluhan Pengolahan Dan Informasi Batu Permata Berbasis Multimedia</t>
@@ -4165,73 +4165,73 @@
     <t>Perancangan Dan Pembuatan Aplikasi Parama Sastra Kamus Bahasa Jawa</t>
   </si>
   <si>
-    <t>Perancangan Dan Pembuatan Aplikasi Multimedia Tuntunan Manasik &amp; Doa Haji Berbasis Mobile</t>
-  </si>
-  <si>
-    <t>Perancangan Dan Implementassi Metode Pembelajaran Kriptografi Md5 [Message Digest 5]</t>
-  </si>
-  <si>
-    <t>Perancangan Dan Implementasi Web E-Commerce Pemesanan Dan Penjualan Fashion Pada Bali Island</t>
-  </si>
-  <si>
-    <t>Perancangan Dan Implementasi Sistem Pembelajaran Bahasa Indonesia Dengan Topik Kata Imbuhan Untuk Sd Kelas V (Studi Kasus Sdit Lukman Al Hakim Yogyakarta</t>
+    <t>Perancangan Dan Pembuatan Aplikasi Multimedia Tuntunan Manasik  Doa Haji Berbasis Mobile</t>
+  </si>
+  <si>
+    <t>Perancangan Dan Implementassi Metode Pembelajaran Kriptografi Md5 Message Digest 5</t>
+  </si>
+  <si>
+    <t>Perancangan Dan Implementasi Web ECommerce Pemesanan Dan Penjualan Fashion Pada Bali Island</t>
+  </si>
+  <si>
+    <t>Perancangan Dan Implementasi Sistem Pembelajaran Bahasa Indonesia Dengan Topik Kata Imbuhan Untuk Sd Kelas V Studi Kasus Sdit Lukman Al Hakim Yogyakarta</t>
   </si>
   <si>
     <t>Perancangan Dan Implementasi Perangkat Lunak Belajar Dasar Bahasa Mandarin</t>
   </si>
   <si>
-    <t>Perancangan Dan Implementasi Pembelajaran Perkalian Dan Pembagian Bilangan Untuk Sekolah Dasar Kelas 2 (Studi Kasus Sd It Lukman Al Hakim Yogyakarta)</t>
+    <t>Perancangan Dan Implementasi Pembelajaran Perkalian Dan Pembagian Bilangan Untuk Sekolah Dasar Kelas 2 Studi Kasus Sd It Lukman Al Hakim Yogyakarta</t>
   </si>
   <si>
     <t>Perancangan Dan Implementasi Media Informasi Buku Berbasis Multimedia Studi Kasus Toko Buku Gramedia Yogyakarta</t>
   </si>
   <si>
-    <t>Perancangan Dan Implementasi M-Sev (Manager System Electronic Voucher) Software Aplikasi Pengisian Pulsa Elektrik Dengan Object Oriented Development</t>
-  </si>
-  <si>
-    <t>Perancangan Aplikasi Sistem Inventory Spare Part Elektronik Berbasis Web Php (Studi Kasus Di Cv. Human Global Service Yogyakarta)</t>
+    <t>Perancangan Dan Implementasi MSev Manager System Electronic Voucher Software Aplikasi Pengisian Pulsa Elektrik Dengan Object Oriented Development</t>
+  </si>
+  <si>
+    <t>Perancangan Aplikasi Sistem Inventory Spare Part Elektronik Berbasis Web Php Studi Kasus Di Cv Human Global Service Yogyakarta</t>
   </si>
   <si>
     <t>Perancangan Aplikasi Kontruksi Dinding Penahan Tanah Jenis Dinding Grafitasi Atau Gravity Wall</t>
   </si>
   <si>
-    <t>Perancang Dan Implementasi Sekuriti Sistem E-Mpney Pada Infrastruktur Sms Over Gprs</t>
-  </si>
-  <si>
-    <t>Peningkatan Mutu Kontras (Intensitas) Citra Digital Menggunakan Gabungan Teknik Pergeseran Dan Teknik Pelebaran Histogram</t>
+    <t>Perancang Dan Implementasi Sekuriti Sistem EMpney Pada Infrastruktur Sms Over Gprs</t>
+  </si>
+  <si>
+    <t>Peningkatan Mutu Kontras Intensitas Citra Digital Menggunakan Gabungan Teknik Pergeseran Dan Teknik Pelebaran Histogram</t>
   </si>
   <si>
     <t>Pengukuran Tingkat Kesuksesan Sistem Informasi Akademik Portal Uad Dengan Model Delone Dan Mclean</t>
   </si>
   <si>
-    <t>Pengukuran Kinerja Penyelesaian Sistem Persamaan Linier Menggunakan Metode Eliminasi Gauss,Gauss-Jordan,Matriks Invens Dan Dekomposisi Lu)</t>
-  </si>
-  <si>
-    <t>Pengukuran E-Readiness Dosen Universitas Ahmad Dahlan Dalam Perkuliahan Berbasis E-Learning</t>
-  </si>
-  <si>
-    <t>Pengukuran E-Readiness Mahasiswa Pada Penerapan E-Learning Uad Yogyakarta</t>
-  </si>
-  <si>
-    <t>Pengukuran E-Readiness Mahasiswa Yogyakarta Dalam Perkuliahan Berbasis E-Learning</t>
-  </si>
-  <si>
-    <t>Pengukuran E-Readiness Dosen Yokyakarta Dalam Perkuliahan Berbasis E-Learning</t>
-  </si>
-  <si>
-    <t>Pengingat Otomatis (Aotomatic Reminder) Berbasis Sms Untuk Nasabah Pada Perusahaan Pegasaian</t>
+    <t>Pengukuran Kinerja Penyelesaian Sistem Persamaan Linier Menggunakan Metode Eliminasi GaussGaussJordanMatriks Invens Dan Dekomposisi Lu</t>
+  </si>
+  <si>
+    <t>Pengukuran EReadiness Dosen Universitas Ahmad Dahlan Dalam Perkuliahan Berbasis ELearning</t>
+  </si>
+  <si>
+    <t>Pengukuran EReadiness Mahasiswa Pada Penerapan ELearning Uad Yogyakarta</t>
+  </si>
+  <si>
+    <t>Pengukuran EReadiness Mahasiswa Yogyakarta Dalam Perkuliahan Berbasis ELearning</t>
+  </si>
+  <si>
+    <t>Pengukuran EReadiness Dosen Yokyakarta Dalam Perkuliahan Berbasis ELearning</t>
+  </si>
+  <si>
+    <t>Pengingat Otomatis Aotomatic Reminder Berbasis Sms Untuk Nasabah Pada Perusahaan Pegasaian</t>
   </si>
   <si>
     <t>Penggunaan Aplikasi Sms Untuk Manajemen Inventory Perusahaanstudi Kasus Cv Gunung Jati Distributor Keramik Wilayah Jawa Tengah</t>
   </si>
   <si>
-    <t>Penggunaan Algoritma Asosiasi Apriori Untuk Mencari Hubungan Keaktifan, Kelulusan, Dan Karir Mahasiswa</t>
-  </si>
-  <si>
-    <t>Pengenalan Perkembangan Teknologi Informasi &amp; Komunikasi (Ti&amp;K) Pada Sekolah Dasar Kelas Ii Dalam Bentuk Media Pembelajaran Interaktif Berbasis Multimedia (Studi Kasus Sd Negeri Ngoto, Sewon Bantul Yogyakata)</t>
-  </si>
-  <si>
-    <t>Pengembangan Web Service Dan Oauth 2.0 Pada Web Portal (Studi Kasus Modul Kerja Praktik Pada Portal Program Studi Teknik Informatika Universitas Ahmad Dahlan)</t>
+    <t>Penggunaan Algoritma Asosiasi Apriori Untuk Mencari Hubungan Keaktifan Kelulusan Dan Karir Mahasiswa</t>
+  </si>
+  <si>
+    <t>Pengenalan Perkembangan Teknologi Informasi  Komunikasi TiK Pada Sekolah Dasar Kelas Ii Dalam Bentuk Media Pembelajaran Interaktif Berbasis Multimedia Studi Kasus Sd Negeri Ngoto Sewon Bantul Yogyakata</t>
+  </si>
+  <si>
+    <t>Pengembangan Web Service Dan Oauth 20 Pada Web Portal Studi Kasus Modul Kerja Praktik Pada Portal Program Studi Teknik Informatika Universitas Ahmad Dahlan</t>
   </si>
   <si>
     <t>Pengembangan User Experience Website Design Menggunakan Kansei Engineering Dengan Teknologi Flat And Adaptive Pada Clothing Store Untuk Meningkatkan Kemudahan Dan Kenyamanan Pengguna</t>
@@ -4264,13 +4264,13 @@
     <t>Pengembangan Media Konsultasi Diagnosa Penyakit Ginjal Dan Saluran Kemih Dengan Memanfaatkan Metode Teorema Bayes Berbasis Web</t>
   </si>
   <si>
-    <t>Pengembangan Komponen Ocx Untuk Pembuatan Label Barcode Menggunakan Metode Code -39 Pada Suatu Aplikasi</t>
+    <t>Pengembangan Komponen Ocx Untuk Pembuatan Label Barcode Menggunakan Metode Code 39 Pada Suatu Aplikasi</t>
   </si>
   <si>
     <t>Pengembangan Aplikasi Sistem Pakar Mendiagnosa Penyakit Pada Hewan Peliharaan Berbasis Mobile</t>
   </si>
   <si>
-    <t>Pengembangan Aplikasi Pemeriksa Ejaan Bahasa Indonesia Dengan Konsep Fsa (Finite State Automata)</t>
+    <t>Pengembangan Aplikasi Pemeriksa Ejaan Bahasa Indonesia Dengan Konsep Fsa Finite State Automata</t>
   </si>
   <si>
     <t>Pengembangan Aplikasi Jaringan Saraf Tiruan Dalam Mendiagnosa Penyakit Epilepsi Dengan Metode Hebb Rule Dan Delta Rule</t>
@@ -4288,7 +4288,7 @@
     <t>Pengembangan Sistem Perpustakaan Online Sekolah Muhammadiyah Di Yogyakarta Berbasis Web Service</t>
   </si>
   <si>
-    <t>Pengembangan Sistem Pendukung Keputusan Untuk Kelanjutan Kontrak Kerja Karyawan Percetakan (Studi Kasus Percetakan Muhammadiyah Surya Sarana Grafika)</t>
+    <t>Pengembangan Sistem Pendukung Keputusan Untuk Kelanjutan Kontrak Kerja Karyawan Percetakan Studi Kasus Percetakan Muhammadiyah Surya Sarana Grafika</t>
   </si>
   <si>
     <t>Pengembangan Sistem Pakar Troubleshooting Komputer Berbasis Web</t>
@@ -4300,28 +4300,28 @@
     <t>Pengembangan Sistem Inventarisasi Seni Dan Budaya Pada Pengurus Pusat Muhammadiyah</t>
   </si>
   <si>
-    <t>Pengembangan Sistem Informasi Tracer Study Alumni Fti Universitas Ahmad Dahlan Yogyakarta Berbasis Web (Studi Kasus Fti)</t>
-  </si>
-  <si>
-    <t>Pengembangan Sistem Informasi Geografis Wisata Kuliner Berbasis Web (Studi Kasus Di Kabupaten Klaten)</t>
-  </si>
-  <si>
-    <t>Pengembangan Sistem Informasi Dan Administrasi Kependudukan Multiuser (Studi Kasus Pemerintah Desa Melung Kec. Kedungbanteng Kab. Banyumas Jawa Tengah)</t>
-  </si>
-  <si>
-    <t>Pengembangan Sistem Administrasi Sekolah Berbasis Web Studi Kasus: Sma Taman Madya Ibu Pawiyatan Tamansiswa Yogyakarta</t>
+    <t>Pengembangan Sistem Informasi Tracer Study Alumni Fti Universitas Ahmad Dahlan Yogyakarta Berbasis Web Studi Kasus Fti</t>
+  </si>
+  <si>
+    <t>Pengembangan Sistem Informasi Geografis Wisata Kuliner Berbasis Web Studi Kasus Di Kabupaten Klaten</t>
+  </si>
+  <si>
+    <t>Pengembangan Sistem Informasi Dan Administrasi Kependudukan Multiuser Studi Kasus Pemerintah Desa Melung Kec Kedungbanteng Kab Banyumas Jawa Tengah</t>
+  </si>
+  <si>
+    <t>Pengembangan Sistem Administrasi Sekolah Berbasis Web Studi Kasus Sma Taman Madya Ibu Pawiyatan Tamansiswa Yogyakarta</t>
   </si>
   <si>
     <t>Pengembangan Modul Php Barcode Generator</t>
   </si>
   <si>
-    <t>Pengembangan Modul Enkripsi Dan Dekripsi Pada Php Dengan Modifikasi Metode Kriptografi Cipher Block Chaining Dengan Vigenere Cipher (Implementasi Kasus Pada Geekybyte.Com</t>
+    <t>Pengembangan Modul Enkripsi Dan Dekripsi Pada Php Dengan Modifikasi Metode Kriptografi Cipher Block Chaining Dengan Vigenere Cipher Implementasi Kasus Pada GeekybyteCom</t>
   </si>
   <si>
     <t>Pengembangan Media Pembelajaran Penggunaan Tanda Baca Pada Siswa Kelas V Sd It Luqman Al Hakim</t>
   </si>
   <si>
-    <t>Pengembangan Kualitas Layanan Website Dengan Menggunakan Metode Analisis Webqual 4.0</t>
+    <t>Pengembangan Kualitas Layanan Website Dengan Menggunakan Metode Analisis Webqual 40</t>
   </si>
   <si>
     <t>Pengembangan Game Susun Angka Untuk Menjembatani Anak Usia Dini Belajar Berhitung Di Tk Tat Twam Asi</t>
@@ -4336,7 +4336,7 @@
     <t>Pengembangan Aplikasi Test Personality Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Pengembangan Aplikasi Sistem Pengukuran Compeency Level Index Berbasis Web (Studi Kasus: Perum Perhutani Kantor Unit Iii)</t>
+    <t>Pengembangan Aplikasi Sistem Pengukuran Compeency Level Index Berbasis Web Studi Kasus Perum Perhutani Kantor Unit Iii</t>
   </si>
   <si>
     <t>Pengembangan Aplikasi Sistem Pakar Untuk Diagnosa Penyakit Anak Menggunakan Metode Dempster Shafer Berbasis Web</t>
@@ -4354,7 +4354,7 @@
     <t>Pengembangan Aplikasi Lagidimana Berbasis Android</t>
   </si>
   <si>
-    <t>Pengembangan Antivirus Berbasis Local Area Network (Lan) Server</t>
+    <t>Pengembangan Antivirus Berbasis Local Area Network Lan Server</t>
   </si>
   <si>
     <t>Pengembangan Alat Bantu Pembelajaran Materi Kurva Pada Mata Kuliah Grafika Komputer Berbasis Multimedia</t>
@@ -4369,19 +4369,19 @@
     <t>Pengamanan Database Mysql Pada Web Dari Serangan Sql Injection</t>
   </si>
   <si>
-    <t>Penerjemah Bahasa Indonesia -Melayu Rokan Dan Sebaliknya Dilengkapi Dengan Pemeriksa Kalimat Ambigu Berbasis Web</t>
+    <t>Penerjemah Bahasa Indonesia Melayu Rokan Dan Sebaliknya Dilengkapi Dengan Pemeriksa Kalimat Ambigu Berbasis Web</t>
   </si>
   <si>
     <t>Penerapan Web Service Untuk Sistem Penilaian Kuliah Kerja Nyata Universitas Ahmad Dahlan</t>
   </si>
   <si>
-    <t>Penerapan Sistem Keamanan Honeypot Dan Ids Pada Jaringan Nirkabel (Hotspot)</t>
-  </si>
-  <si>
-    <t>Penerapan Olap( Online Analytical Process) Pada Pasien Rawat Jalan Rumah Sakit (Tudi Kasus Rskaia Pku Muhamadiyah Kotagede Yogyakarta</t>
-  </si>
-  <si>
-    <t>Penambahan Fitur Pengolahan Nilai Pada Sistem Akademik Sekolah Jibas Opensource (Studi Kasus Di Smk Salafiyah Pati)</t>
+    <t>Penerapan Sistem Keamanan Honeypot Dan Ids Pada Jaringan Nirkabel Hotspot</t>
+  </si>
+  <si>
+    <t>Penerapan Olap Online Analytical Process Pada Pasien Rawat Jalan Rumah Sakit Tudi Kasus Rskaia Pku Muhamadiyah Kotagede Yogyakarta</t>
+  </si>
+  <si>
+    <t>Penambahan Fitur Pengolahan Nilai Pada Sistem Akademik Sekolah Jibas Opensource Studi Kasus Di Smk Salafiyah Pati</t>
   </si>
   <si>
     <t>Pemodelan Sistem Berorientasi Objek Dengan Uml Studi Kasus Sistem Informasi Kesiswaan Sd Muh Sapen Nitikan Yogyakarta</t>
@@ -4390,55 +4390,55 @@
     <t>Pemetaan Fasilitas Umum Sarana Kesehatan Kota Yogyakarta Menggunakan Google Maps Api</t>
   </si>
   <si>
-    <t>Pembutan Model Crm (Customer Relationship Management) Pada Xt Square Yogyakarta</t>
+    <t>Pembutan Model Crm Customer Relationship Management Pada Xt Square Yogyakarta</t>
   </si>
   <si>
     <t>Pembuatan Template Sistem Informasi Front Office Hotel</t>
   </si>
   <si>
-    <t>Pembuatan Perencanaan Arsitektur Enterprise Pada Badan Kerjasama Dan Penanaman Modal (Bkpm) Propinsi Diy Berbasis Soa (Service Oriented Architecture)</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Tata Kelola Ti Bidang Layanan Haji Pada Kantor Kementerian Agama Kota Yogyakarta Berbasis Cobit 4.1</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Supply Shain Management Pada Cv. Artha Wibisono</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Sistem Informasi E-Government Menggunakan Kerangka Kerja Togaf Adm Berbasis Soa Di Dinas Kelautan Dan Perikanan Prov Diy</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Rencana Strategis Pengembangan E-Coverment(Studi Kasus : Dinas Kelautan Dan Perikanan Diy)</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Rencana Strategis Si/Ti Bidang Penyelenggaraan Haji Dan Umrah Kantor Wilayah Kementerian Agama Daerah Istimewa Yogyakarta</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Rencana Strategi Pengembangan Si/Ti Rumah Sakit Dengan Zachman Framework (Studi Kasus : Rumah Sakit Umum Daerah Wonosari)</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Pelayanan (Service) Akademik Pada Mahasiswa Menggunakan Kerangka Manajemen Layanan Itil V.3 Di Universitas Ahmad Dahlan</t>
+    <t>Pembuatan Perencanaan Arsitektur Enterprise Pada Badan Kerjasama Dan Penanaman Modal Bkpm Propinsi Diy Berbasis Soa Service Oriented Architecture</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Tata Kelola Ti Bidang Layanan Haji Pada Kantor Kementerian Agama Kota Yogyakarta Berbasis Cobit 41</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Supply Shain Management Pada Cv Artha Wibisono</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Sistem Informasi EGovernment Menggunakan Kerangka Kerja Togaf Adm Berbasis Soa Di Dinas Kelautan Dan Perikanan Prov Diy</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Rencana Strategis Pengembangan ECovermentStudi Kasus  Dinas Kelautan Dan Perikanan Diy</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Rencana Strategis SiTi Bidang Penyelenggaraan Haji Dan Umrah Kantor Wilayah Kementerian Agama Daerah Istimewa Yogyakarta</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Rencana Strategi Pengembangan SiTi Rumah Sakit Dengan Zachman Framework Studi Kasus  Rumah Sakit Umum Daerah Wonosari</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Pelayanan Service Akademik Pada Mahasiswa Menggunakan Kerangka Manajemen Layanan Itil V3 Di Universitas Ahmad Dahlan</t>
   </si>
   <si>
     <t>Pembuatan Model Enterprise Resource Planning Pada Kantor Dinas Ketahanan Pangan Kabupaten Klaten</t>
   </si>
   <si>
-    <t>Pembuatan Model Customer Relatioship Management (Crm) E- Government Di Kominfo Diy</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Customer Relationship Management (Crm) Pada Donq Donuts</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Customer Relation Management (Crm) Pada Pt Naturindo Fresh</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Si/Ti Pada Penerbit Buku Amara Books Menggunakan Kerangka Kerja Zachman</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Crm(Customer Relationship Management) Pada Bagian Perhubungan Di Dishubkominfo Diy</t>
-  </si>
-  <si>
-    <t>Pembuatan Enterprise Architecture Planning Dengan Menggunakan Kerangka Kerja Zachman(Studi Kkasus : Impinan Pusat Muhammadiyah</t>
+    <t>Pembuatan Model Customer Relatioship Management Crm E Government Di Kominfo Diy</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Customer Relationship Management Crm Pada Donq Donuts</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Customer Relation Management Crm Pada Pt Naturindo Fresh</t>
+  </si>
+  <si>
+    <t>Pembuatan Model SiTi Pada Penerbit Buku Amara Books Menggunakan Kerangka Kerja Zachman</t>
+  </si>
+  <si>
+    <t>Pembuatan Model CrmCustomer Relationship Management Pada Bagian Perhubungan Di Dishubkominfo Diy</t>
+  </si>
+  <si>
+    <t>Pembuatan Enterprise Architecture Planning Dengan Menggunakan Kerangka Kerja ZachmanStudi Kkasus  Impinan Pusat Muhammadiyah</t>
   </si>
   <si>
     <t>Pembuatan Enterprise Architecture Planning Dengan Kerangka Kerja Zachman Di Koperasi Mahasiswa Uad Yogyakarta</t>
@@ -4447,70 +4447,70 @@
     <t>Pembuatan Enterprise Architecture Planning Dinas Kebudayaan Provinsi Diy Dengan Menggunakan Kerangka Zachman</t>
   </si>
   <si>
-    <t>Pembuatan Action Plan Pengembangan E-Government Dishubkominfo</t>
+    <t>Pembuatan Action Plan Pengembangan EGovernment Dishubkominfo</t>
   </si>
   <si>
     <t>Pembuatan Transliterator Aksara Jawa Menggunakan Ibus Input Framework Dan Ekspresi Reguler</t>
   </si>
   <si>
-    <t>Pembuatan Sistem Informasi Akuntansi Simpan Pinjam Koperasi Dengan Menggunakan Kerangka Kerja Zachman (Studi Kasus Pada Kjks Asta Mandiri Gondang Watumalang Wonosobo)</t>
-  </si>
-  <si>
-    <t>Pembuatan Program Aplikasi Transliterator Teks Berbahasa Jepang Dari Huruf Latin Menjadi Japanese Kana (Hiragana Dan Katakana)</t>
-  </si>
-  <si>
-    <t>Pembuatan Perencanaan Arsitektur Enterprise Teknologi Informasi Pada Lembaga Pelatihan Dan Pengembangan Softskill Dengan Metode Zachman Framework (Studi Kasus: Universitas Xyz)</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Tata Kelola It Untuk Proses Akademik Menggunakan Cobit 4.1 Studi Kasus : Universitas Xyz</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Sistem M-Government (Studi Kasus : Pemerintah Kota Yogyakarta)</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Sistem Informasi Di Dishubkominfo Provinsi Diy Menggunakan Kerangka Kerja Togaf Berbasis Soa (Service Oriented Architecture)</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Sistem Informasi Pada Dinas Pertanian Provinsi Diy Menggunakan Soa (Service Oriented Architecture)</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Sistem Informasi Pada Dinas Kesehatan Provinsi Diy Berbasis Soa (Service Oriented Architecture)</t>
+    <t>Pembuatan Sistem Informasi Akuntansi Simpan Pinjam Koperasi Dengan Menggunakan Kerangka Kerja Zachman Studi Kasus Pada Kjks Asta Mandiri Gondang Watumalang Wonosobo</t>
+  </si>
+  <si>
+    <t>Pembuatan Program Aplikasi Transliterator Teks Berbahasa Jepang Dari Huruf Latin Menjadi Japanese Kana Hiragana Dan Katakana</t>
+  </si>
+  <si>
+    <t>Pembuatan Perencanaan Arsitektur Enterprise Teknologi Informasi Pada Lembaga Pelatihan Dan Pengembangan Softskill Dengan Metode Zachman Framework Studi Kasus Universitas Xyz</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Tata Kelola It Untuk Proses Akademik Menggunakan Cobit 41 Studi Kasus  Universitas Xyz</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Sistem MGovernment Studi Kasus  Pemerintah Kota Yogyakarta</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Sistem Informasi Di Dishubkominfo Provinsi Diy Menggunakan Kerangka Kerja Togaf Berbasis Soa Service Oriented Architecture</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Sistem Informasi Pada Dinas Pertanian Provinsi Diy Menggunakan Soa Service Oriented Architecture</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Sistem Informasi Pada Dinas Kesehatan Provinsi Diy Berbasis Soa Service Oriented Architecture</t>
   </si>
   <si>
     <t>Pembuatan Model Sistem Enterprise Resource Planning Pada Panti Sosial Pamardi Putra Provinsi Diy</t>
   </si>
   <si>
-    <t>Pembuatan Model Si/Ti Dengan Cobit 4,1 Dan Kerangka Kerja Zachman Di Kantor Ketahanan Pangan Kab.Klaten</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Rencana Strategis Si/Ti Di Homestay Venezia</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Rencana Strategis Si/Ti (Studi Kasus: Departemen Akademik Universitas Xyz)</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Manajemen Perubahan Pada Pengembangan E-Government Menggunakan Teori Technology Acceptance Model (Tam) (Studi Kasus Dinas Perindagkop Provinsi Diy)</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Manajemen Perubahan Pada Pengembangan E-Government Dinas Pertanian Provinsi Diy</t>
+    <t>Pembuatan Model SiTi Dengan Cobit 41 Dan Kerangka Kerja Zachman Di Kantor Ketahanan Pangan KabKlaten</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Rencana Strategis SiTi Di Homestay Venezia</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Rencana Strategis SiTi Studi Kasus Departemen Akademik Universitas Xyz</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Manajemen Perubahan Pada Pengembangan EGovernment Menggunakan Teori Technology Acceptance Model Tam Studi Kasus Dinas Perindagkop Provinsi Diy</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Manajemen Perubahan Pada Pengembangan EGovernment Dinas Pertanian Provinsi Diy</t>
   </si>
   <si>
     <t>Pembuatan Model Enterprise Resource Planning Pada Dinas Kesehatan Provinsi Diy</t>
   </si>
   <si>
-    <t>Pembuatan Model Enterprise Architecture Planning Btn Surya Umbulharjo Dengan Togaf Architecture Development Method (Bagian Penghimpunan Dan Pembiayaan</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Customer Relationship Management [Crm] E-Government Di Dinas Kelautan Dan Perikanan Diy</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Customer Relationship Management (Crm) Di Dinas Perindustrian Perdagangan Koperasi Dan Usaha Kecil Menengah (Studi Kasus Dinas Perindakop Provinsi Diy)</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Customer Relationship Management (Crm) Dinas Kesehatan Kota Yogyakarta</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Customer Relationship Management (Crm) Dinas Kesehatan Diy Menggunakan Delivery And Support (Ds)</t>
+    <t>Pembuatan Model Enterprise Architecture Planning Btn Surya Umbulharjo Dengan Togaf Architecture Development Method Bagian Penghimpunan Dan Pembiayaan</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Customer Relationship Management Crm EGovernment Di Dinas Kelautan Dan Perikanan Diy</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Customer Relationship Management Crm Di Dinas Perindustrian Perdagangan Koperasi Dan Usaha Kecil Menengah Studi Kasus Dinas Perindakop Provinsi Diy</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Customer Relationship Management Crm Dinas Kesehatan Kota Yogyakarta</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Customer Relationship Management Crm Dinas Kesehatan Diy Menggunakan Delivery And Support Ds</t>
   </si>
   <si>
     <t>Pembuatan Media Pembelajaran Untuk Proses Konversi Pada Finate Automata Berbasis Multimedia</t>
@@ -4528,7 +4528,7 @@
     <t>Pembuatan Enterprise Architecture Planning Dengan Kerangka Kerja Zachman Di Majelis Pendidikan Tinggi Pp Muhammadiyah Yogyakarta</t>
   </si>
   <si>
-    <t>Pembuatan Enterprise Architecture Planning (Eap) Di Lembaga Penanggulangan Bencana Pimpinan Pusat Muhammadiyah Yogyakarta Dengan Menggunakan Kerangka Kerja Zachman</t>
+    <t>Pembuatan Enterprise Architecture Planning Eap Di Lembaga Penanggulangan Bencana Pimpinan Pusat Muhammadiyah Yogyakarta Dengan Menggunakan Kerangka Kerja Zachman</t>
   </si>
   <si>
     <t>Pembuatan Enterprise Architectur Planning Di Kantor Universitas Dan Urusan Internasional Dengan Kerangka Kerja Zachman</t>
@@ -4546,7 +4546,7 @@
     <t>Pembuatan Aplikasi Supply Chain Management Berbasis Web Service Untuk Membantu Distribusi Batik Menggunakan Php Dan Mysql</t>
   </si>
   <si>
-    <t>Pembuatan Aplikasi Multimedia Pembelajaran Bahasa Daerah Daya Sampit Tentang Percakapan Sehari Hari Untuk Sekolah Dasar (Sd)</t>
+    <t>Pembuatan Aplikasi Multimedia Pembelajaran Bahasa Daerah Daya Sampit Tentang Percakapan Sehari Hari Untuk Sekolah Dasar Sd</t>
   </si>
   <si>
     <t>Pembuatan Aplikasi Bacaan Shalat Wajib Dan Doa Setelah Shalat Dengan Teknik On Over Mouse</t>
@@ -4570,7 +4570,7 @@
     <t>Pembangunan Sistem Informasi Pada Agenda Majelis Ilmu Pada Masjid Di Yogyakarta Menggunakan Gmap Geolocation Dan Twitter Api Berbasis Web Mobile</t>
   </si>
   <si>
-    <t>Pembangunan Sistem Informasi Kecelakaan Lalu Lintas Berbasis Web (Studi Kasus Satlantas Polres Magelang)</t>
+    <t>Pembangunan Sistem Informasi Kecelakaan Lalu Lintas Berbasis Web Studi Kasus Satlantas Polres Magelang</t>
   </si>
   <si>
     <t>Pembangunan Pusat Informasi Obat Untuk Mempermudah Pencarian Data Obat Bagi Masyarakat Berbasis Information Retrieval</t>
@@ -4579,25 +4579,25 @@
     <t>Pembangunan Web Proxy Dengan Mikrotik Untuk Mendukung Internet Sehat Di Smk Muhammadiyah 1 Patuk Gunungkidul</t>
   </si>
   <si>
-    <t>Pembangunan Web Monitoring Cbt Dengan Menggunakan Sistem Basis Data Terdistribusi Pada Sistem Computer Based Test Ukdgi (Ujian Kompetensi Dokter Gigi Indonesia)</t>
-  </si>
-  <si>
-    <t>Pembangunan Sistem Pencarian Lokasi Dengan Geolocation Berdasarkan Gps Berbasis Mobile Web (Studi Kasus Pencarian Lokasi Hotel Di Yogyakarta)</t>
+    <t>Pembangunan Web Monitoring Cbt Dengan Menggunakan Sistem Basis Data Terdistribusi Pada Sistem Computer Based Test Ukdgi Ujian Kompetensi Dokter Gigi Indonesia</t>
+  </si>
+  <si>
+    <t>Pembangunan Sistem Pencarian Lokasi Dengan Geolocation Berdasarkan Gps Berbasis Mobile Web Studi Kasus Pencarian Lokasi Hotel Di Yogyakarta</t>
   </si>
   <si>
     <t>Pembangunan Sistem Pencarian Lokasi Kuliner Di Yogyakarta Dengan Geolocation Berdasarkan Gps Berbasis Mobile Web</t>
   </si>
   <si>
-    <t>Pembangunan Sistem Informasi Katalog Aksesoris Motor Berbasis Web E-Commerce</t>
-  </si>
-  <si>
-    <t>Pembangunan Online Shop Menggunakan J2Ee (Studi Kasus : Pada Toko Karya Cipta Furniture Jepara)</t>
-  </si>
-  <si>
-    <t>Pemanfaatan Sistem Informasi Geografis Pada Pelayanan Penyambungan Baru Aliran Listrik Pln(Studi Kasus Di Dusun Sanggrahan Maguwoharjo Depok Sleman</t>
-  </si>
-  <si>
-    <t>Pemanfaatan Webcam Sebagai Sistem Pemantauan Ruangan Kuliah Berbasis Web (Studi Kasus Di Uad Yogyakarta)</t>
+    <t>Pembangunan Sistem Informasi Katalog Aksesoris Motor Berbasis Web ECommerce</t>
+  </si>
+  <si>
+    <t>Pembangunan Online Shop Menggunakan J2Ee Studi Kasus  Pada Toko Karya Cipta Furniture Jepara</t>
+  </si>
+  <si>
+    <t>Pemanfaatan Sistem Informasi Geografis Pada Pelayanan Penyambungan Baru Aliran Listrik PlnStudi Kasus Di Dusun Sanggrahan Maguwoharjo Depok Sleman</t>
+  </si>
+  <si>
+    <t>Pemanfaatan Webcam Sebagai Sistem Pemantauan Ruangan Kuliah Berbasis Web Studi Kasus Di Uad Yogyakarta</t>
   </si>
   <si>
     <t>Pemanfaatan Teknik Tweening Dan Character Library Pada Pembuatan Film Animasi Pendek Indahnya Perbedaan Dalam Berteman</t>
@@ -4609,7 +4609,7 @@
     <t>Pemanfaatan Sistem Informasi Geografis Berbasis Web Untuk Pemetaan Sebaran Sumber Benih Tanaman Hutan Di Jawa Dan Madura</t>
   </si>
   <si>
-    <t>Pemanfaatan Sistem Informasi Geografis (Sig) Untuk Pemetaan Lokasi Pemasaran Produk (Studi Kasus: Pt. Heinz Abc Indonesia Cabang Yogyakarta)</t>
+    <t>Pemanfaatan Sistem Informasi Geografis Sig Untuk Pemetaan Lokasi Pemasaran Produk Studi Kasus Pt Heinz Abc Indonesia Cabang Yogyakarta</t>
   </si>
   <si>
     <t>Pemanfaatan Multimedia Sebagai Media Pembelajaran Motion And Optical Flow Pada Mata Kuliah Computer Vision</t>
@@ -4633,37 +4633,37 @@
     <t>Perbedaan Motivasi Menyelesaikan Skripsi Antara Mahasiswa Yang Bekerja Dengan Mahasiswa Yang Tidak Bekerja Pada Mahasiswa Jurusan Teknik Informatika Universitas Ahmad Dahlan</t>
   </si>
   <si>
-    <t>Perancangan Model Si/Ti Dengan Pendekatan Supply Chain Management Pada Cv Alas Djogja</t>
-  </si>
-  <si>
-    <t>Perancangan Dan Analisis Vpn (Virtual Private Network) Menggunakan L2Tp (Layer 2 Tunneling Protocol) / Ipsec (Ip Security) Pada Kantor Pemasaran Bpjs Kesehatan Yogyakarta</t>
+    <t>Perancangan Model SiTi Dengan Pendekatan Supply Chain Management Pada Cv Alas Djogja</t>
+  </si>
+  <si>
+    <t>Perancangan Dan Analisis Vpn Virtual Private Network Menggunakan L2Tp Layer 2 Tunneling Protocol  Ipsec Ip Security Pada Kantor Pemasaran Bpjs Kesehatan Yogyakarta</t>
   </si>
   <si>
     <t>Peranan Fotografi Dalam Penyajian Informasi Pariwisata Di Provinsi Yogyakarta Melalui Sistem Berbasis Lokasi</t>
   </si>
   <si>
-    <t>Pengembangan Web Profil Cv.Baitusoft Menggunakan Framework Ci</t>
+    <t>Pengembangan Web Profil CvBaitusoft Menggunakan Framework Ci</t>
   </si>
   <si>
     <t>Pemetaan Pariwisata Di Yogyakarta Menggunakan Google Map Dengan Sistem Android Mobile Sebagai Panduan Wisata</t>
   </si>
   <si>
-    <t>Pembuatan Model Enterprise Resource Planning (Erp)Pada Xt Square Yogyakarta</t>
-  </si>
-  <si>
-    <t>Pembuatan Model Enterprise Architecture Planning (Eap)Unit Sinyal Telekomunikasi Dan Kelistrikan (Sintelis)Pt. Kereta Api Indonesia (Persero) Daop 6 Yogyakartaberbasis Zachman Framework</t>
-  </si>
-  <si>
-    <t>Otomatisasi Pemisahan Bandwith Iix (Indoneia Internet Exchange) Dan Ix (Intternet Exchange) Menggunakan Mikrotik Routeros</t>
+    <t>Pembuatan Model Enterprise Resource Planning ErpPada Xt Square Yogyakarta</t>
+  </si>
+  <si>
+    <t>Pembuatan Model Enterprise Architecture Planning EapUnit Sinyal Telekomunikasi Dan Kelistrikan SintelisPt Kereta Api Indonesia Persero Daop 6 Yogyakartaberbasis Zachman Framework</t>
+  </si>
+  <si>
+    <t>Otomatisasi Pemisahan Bandwith Iix Indoneia Internet Exchange Dan Ix Intternet Exchange Menggunakan Mikrotik Routeros</t>
   </si>
   <si>
     <t>Optimasi Frame Rate Pada Game Yang Dikembangkan Dengan Fps Creator</t>
   </si>
   <si>
-    <t>Optimasi Raw Material Untuk Menekan Biaya Pembuatan Beton Siap Pakai (Ready Mix) (Studi Kasus Di Pt. Patsean Sumber Rejeki)</t>
-  </si>
-  <si>
-    <t>Optimasi Penyimpanan Cache Menggunakan Coss (Cyclic Object Storage System) Studi Kasus Pada Smp Muhammadiyah 7 Yogyakarta</t>
+    <t>Optimasi Raw Material Untuk Menekan Biaya Pembuatan Beton Siap Pakai Ready Mix Studi Kasus Di Pt Patsean Sumber Rejeki</t>
+  </si>
+  <si>
+    <t>Optimasi Penyimpanan Cache Menggunakan Coss Cyclic Object Storage System Studi Kasus Pada Smp Muhammadiyah 7 Yogyakarta</t>
   </si>
   <si>
     <t>Optimalisasi Penyimpanan Video Menggunakan Viseocache Pada Proxy Server</t>
@@ -4672,16 +4672,16 @@
     <t>Optimalisasi Website Fakultas Teknologi Industri Universitas Ahmad Dahlan Sesuai Algoritma Google Panda Dan Penguin</t>
   </si>
   <si>
-    <t>Optimalisasi Keamanan Jaringan Lan (Local Area Network)Di Smk N 2 Wonosari</t>
-  </si>
-  <si>
-    <t>Optimasi Kinerja Jaringan Menggunakan Metode Scheduler(Studi Kasus Di Laboratorium Jaringan Universitas Ahmad Dahlan)</t>
+    <t>Optimalisasi Keamanan Jaringan Lan Local Area NetworkDi Smk N 2 Wonosari</t>
+  </si>
+  <si>
+    <t>Optimasi Kinerja Jaringan Menggunakan Metode SchedulerStudi Kasus Di Laboratorium Jaringan Universitas Ahmad Dahlan</t>
   </si>
   <si>
     <t>Natural Language Translator Untuk Bahasa Indonesia Ke Bahasa Jepang Berbasis Wap</t>
   </si>
   <si>
-    <t>Multimedia Pembelajaran Tentang Surat Undangan Laporan Hasil Pengamatan Untuk Sd Kelas V (Studi Kasus Sdit Lukman Al Hakim Yogyakarta)</t>
+    <t>Multimedia Pembelajaran Tentang Surat Undangan Laporan Hasil Pengamatan Untuk Sd Kelas V Studi Kasus Sdit Lukman Al Hakim Yogyakarta</t>
   </si>
   <si>
     <t>Multimedia Pembelajaran Logika Informatika Pada Materi Pokok Tabel Kebenaran</t>
@@ -4690,22 +4690,22 @@
     <t>Multimedia Pembelajaran Diagonalisasi Matriks</t>
   </si>
   <si>
-    <t>Multimedia Pembelajaran Bahasa Indonesia Tentang Pantun Dan Puisi Untuk Siswa Sd Kelas Iv Dan Kelas V (Studi Kasus Sdit Lukman Al Hakim)</t>
+    <t>Multimedia Pembelajaran Bahasa Indonesia Tentang Pantun Dan Puisi Untuk Siswa Sd Kelas Iv Dan Kelas V Studi Kasus Sdit Lukman Al Hakim</t>
   </si>
   <si>
     <t>Model Sistem Pendukung Keputusan Penilaian Kelayakan Pemberian Kredit</t>
   </si>
   <si>
-    <t>Model Perencanaan Enterprice Architecture Planning (Eap) Di Cv. Msa Furniture Dengan Zachman Framework Untuk Strategi Pengembangan Sistem Informasi Dan Teknologi Informasi</t>
+    <t>Model Perencanaan Enterprice Architecture Planning Eap Di Cv Msa Furniture Dengan Zachman Framework Untuk Strategi Pengembangan Sistem Informasi Dan Teknologi Informasi</t>
   </si>
   <si>
     <t>Model Penentuan Status Gizi Balita Di Puskesmas</t>
   </si>
   <si>
-    <t>Model Customer Relationship Management (Crm) Di Hotel Xyz Menggunakan Metode Iris Sebagai Bahan Acuan Dalam Pembangunan Sistem Informasi Crm</t>
-  </si>
-  <si>
-    <t>Mobile Application Menggunakan Personal Digital Assistance (Pda) Untuk Mendukung Pelayanan Pengunjung Restoran</t>
+    <t>Model Customer Relationship Management Crm Di Hotel Xyz Menggunakan Metode Iris Sebagai Bahan Acuan Dalam Pembangunan Sistem Informasi Crm</t>
+  </si>
+  <si>
+    <t>Mobile Application Menggunakan Personal Digital Assistance Pda Untuk Mendukung Pelayanan Pengunjung Restoran</t>
   </si>
   <si>
     <t>Metode Pembelajaran Pemrograman Web Materi Html Berbasis Multimedia</t>
@@ -4717,7 +4717,7 @@
     <t>Membangun Sistem Informasi Nilai Siswa Sman1 Lape Dengan Pendekatan Ood</t>
   </si>
   <si>
-    <t>Membangun Sistem Basis Pengetahuan Untuk Penyakit Tanaman Jenis Umbi-Umbian Berbasis Multimedia</t>
+    <t>Membangun Sistem Basis Pengetahuan Untuk Penyakit Tanaman Jenis UmbiUmbian Berbasis Multimedia</t>
   </si>
   <si>
     <t>Membangun Sistem Informasi Geografis Untuk Mengetahui Letak Smu Dan Smk Sederajat Di Purwokwerto Berbasis Web</t>
@@ -4735,40 +4735,40 @@
     <t>Membangun Aplikasi Autogenerate Script Ke Flowchart Untuk Mendukung Business Process Reengineering</t>
   </si>
   <si>
-    <t>Membangun Sistem Vrrp (Virtual Router Redundancy Protocol) Menggunakan Sistem Operasi Freebsd (Studi Kasus Di Laboratorium Jaringan Uad)</t>
-  </si>
-  <si>
-    <t>Membangun Sistem Terintegrasi Berbasis Web Sdit Luqman Al-Hakim</t>
+    <t>Membangun Sistem Vrrp Virtual Router Redundancy Protocol Menggunakan Sistem Operasi Freebsd Studi Kasus Di Laboratorium Jaringan Uad</t>
+  </si>
+  <si>
+    <t>Membangun Sistem Terintegrasi Berbasis Web Sdit Luqman AlHakim</t>
   </si>
   <si>
     <t>Membangun Sistem Pembuatan Resep Obat Untuk Mencegah Pemalsuan Dengan Teknik Code Generator Berbasis Web</t>
   </si>
   <si>
-    <t>Membangun E-Shop Untuk Kerajinan Kulit Manding Yogyakarta Menggunakan Framework Codeigniter</t>
-  </si>
-  <si>
-    <t>Membangun Basis Pengetahuan Untuk Mendiagnosa Penyakit Pada Kelamin Dengan Model Penalaran Berbasis Kasus (Case Based Reasoning)</t>
-  </si>
-  <si>
-    <t>Membangun Aplikasi Pembelajaran Penyederhanaan Fungsi Boolean Dengan Metode Quine-Mccluskey</t>
-  </si>
-  <si>
-    <t>Membangun Aplikasi Layanan Informasi Pelanggan Pdam Berbasis Sms {Studi Kasus : Pdam Tirtamarta Kota Yogyakarta}</t>
+    <t>Membangun EShop Untuk Kerajinan Kulit Manding Yogyakarta Menggunakan Framework Codeigniter</t>
+  </si>
+  <si>
+    <t>Membangun Basis Pengetahuan Untuk Mendiagnosa Penyakit Pada Kelamin Dengan Model Penalaran Berbasis Kasus Case Based Reasoning</t>
+  </si>
+  <si>
+    <t>Membangun Aplikasi Pembelajaran Penyederhanaan Fungsi Boolean Dengan Metode QuineMccluskey</t>
+  </si>
+  <si>
+    <t>Membangun Aplikasi Layanan Informasi Pelanggan Pdam Berbasis Sms Studi Kasus  Pdam Tirtamarta Kota Yogyakarta</t>
   </si>
   <si>
     <t>Media Pembelajaran Teori Bahasa Automata Pada Materi Push Down Automata Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Media Pembelajaran Tentang Pecahan Sederhana Dan Penggunaannya Dalam Pemecahan Masalah Untuk Sekolah Dasar (Sd) Kelas 3 (Studi Kasus Sdit Lukman Al Hakim Yogyakarta)</t>
-  </si>
-  <si>
-    <t>Media Pembelajaran Pondasi Algoritma Genetika (Optimasi Combinatorial) Berbasis Multimedia</t>
+    <t>Media Pembelajaran Tentang Pecahan Sederhana Dan Penggunaannya Dalam Pemecahan Masalah Untuk Sekolah Dasar Sd Kelas 3 Studi Kasus Sdit Lukman Al Hakim Yogyakarta</t>
+  </si>
+  <si>
+    <t>Media Pembelajaran Pondasi Algoritma Genetika Optimasi Combinatorial Berbasis Multimedia</t>
   </si>
   <si>
     <t>Media Pembelajaran Perhitungan Determinan Reduksi Minor Ekspansi Kofaktor Dan Adjoin</t>
   </si>
   <si>
-    <t>Media Pembelajaran Organisasi Komputer Terstruktur Pada Pokok Bahasan Reduced Instruction Set Computer (Risc) Berbasis Multimedia</t>
+    <t>Media Pembelajaran Organisasi Komputer Terstruktur Pada Pokok Bahasan Reduced Instruction Set Computer Risc Berbasis Multimedia</t>
   </si>
   <si>
     <t>Media Pembelajaran Metode Parsing Pada Mata Kuliah Teori Bahasa Otomata Berbasia Multimedia</t>
@@ -4807,7 +4807,7 @@
     <t>Media Pembelajaran Entity Relationship Diagram Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Media Pembelajaran Bahasa Indonesia Tentang Menentukan Tema Dan Topik Cerita Untuk Sekolah Dasar Kelas 4 (Studi Kaus Sdit Lukman Al Hakim Yogyakarta)</t>
+    <t>Media Pembelajaran Bahasa Indonesia Tentang Menentukan Tema Dan Topik Cerita Untuk Sekolah Dasar Kelas 4 Studi Kaus Sdit Lukman Al Hakim Yogyakarta</t>
   </si>
   <si>
     <t>Media Pembelajaran Algoritma Kriptografi Product Cipher Termodifikasi</t>
@@ -4822,13 +4822,13 @@
     <t>Media Pembelajaran Teori Bahasa Otomata Pada Materi Dfa Dan Nfa Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Media Pembelajaran Teori Bahasa Dan Otomata Pokok Bahasan Finite Automata (Fa) Berbasis Multimedia</t>
-  </si>
-  <si>
-    <t>Media Pembelajaran Tentang Menggunakan Pengukuran Waktu, Panjang Dan Berat Dalam Pemecahan Masalah Untuk Sekolah Dasar (Sd) Kelas 3</t>
-  </si>
-  <si>
-    <t>Media Pembelajaran Teknologi Informasi Dan Komunikasi (Tik) Berbasis Multimedia Untuk Kelas Vii Semester I/Gasal (Studi Kasus Smp N 1 Moyudan, Sleman-Yogyakarta)</t>
+    <t>Media Pembelajaran Teori Bahasa Dan Otomata Pokok Bahasan Finite Automata Fa Berbasis Multimedia</t>
+  </si>
+  <si>
+    <t>Media Pembelajaran Tentang Menggunakan Pengukuran Waktu Panjang Dan Berat Dalam Pemecahan Masalah Untuk Sekolah Dasar Sd Kelas 3</t>
+  </si>
+  <si>
+    <t>Media Pembelajaran Teknologi Informasi Dan Komunikasi Tik Berbasis Multimedia Untuk Kelas Vii Semester IGasal Studi Kasus Smp N 1 Moyudan SlemanYogyakarta</t>
   </si>
   <si>
     <t>Media Pembelajaran Strategi Algoritma Pada Pokok Bahasan Pohon Merentang Minimum Dan Pencarian Lintasan Terpendek</t>
@@ -4864,19 +4864,19 @@
     <t>Media Pembelajaran Pengkabelan Straight Dan Cross Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Media Pembelajaran Pengenalan Bangun Datar, Sudut Dan Penghitungan Keliling, Luas Persegi Dan Persegi Panjang Matematika Sekolah Dasar Kelas 3 (Studi Kasus Sd It Lukman Al Hakim Yogyakarta)</t>
-  </si>
-  <si>
-    <t>Media Pembelajaran Penerapan Integral Untuk Mencari Luas, Volume Dan Panjang Busur Berbasis Multimedia</t>
+    <t>Media Pembelajaran Pengenalan Bangun Datar Sudut Dan Penghitungan Keliling Luas Persegi Dan Persegi Panjang Matematika Sekolah Dasar Kelas 3 Studi Kasus Sd It Lukman Al Hakim Yogyakarta</t>
+  </si>
+  <si>
+    <t>Media Pembelajaran Penerapan Integral Untuk Mencari Luas Volume Dan Panjang Busur Berbasis Multimedia</t>
   </si>
   <si>
     <t>Media Pembelajaran Part Of Speech Pada Mata Kuliah Bahasa Inggris Informatika Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Media Pembelajaran Panca Indera Manusia Dengan Konsep Computer Aided Instruction Untuk Meningkatkan Nilai Rata-Rata Kelas Studi Kasus Sd Negeri 1 Rakam Kelas Iv</t>
-  </si>
-  <si>
-    <t>Media Pembelajaran Multimedia Interaktif Doa Sehari-Hari Untuk Taman Pendidikan Al-Quran</t>
+    <t>Media Pembelajaran Panca Indera Manusia Dengan Konsep Computer Aided Instruction Untuk Meningkatkan Nilai RataRata Kelas Studi Kasus Sd Negeri 1 Rakam Kelas Iv</t>
+  </si>
+  <si>
+    <t>Media Pembelajaran Multimedia Interaktif Doa SehariHari Untuk Taman Pendidikan AlQuran</t>
   </si>
   <si>
     <t>Media Pembelajaran Matrik Transformasi Berbasis Multimedia</t>
@@ -4894,7 +4894,7 @@
     <t>Media Pembelajaran Komunikasi Data Dan Jaringan Komputer Pada Materi Router</t>
   </si>
   <si>
-    <t>Media Pembelajaran Komunikasi Data Dan Jaringan Komputer Berbasis Multimedia (Studi Kasus : Routing Dan Dns Server)</t>
+    <t>Media Pembelajaran Komunikasi Data Dan Jaringan Komputer Berbasis Multimedia Studi Kasus  Routing Dan Dns Server</t>
   </si>
   <si>
     <t>Media Pembelajaran Jaringan Saraf Tiruan Metode Kohonen Berbasis Multimedia</t>
@@ -4906,7 +4906,7 @@
     <t>Media Pembelajaran Jaringan Saraf Tiruan Bidirectional Associative Memory Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Media Pembelajaran Jaringan Komputer (Vlan) Berbasis Multimedia</t>
+    <t>Media Pembelajaran Jaringan Komputer Vlan Berbasis Multimedia</t>
   </si>
   <si>
     <t>Media Pembelajaran Jaringan Kerja Metode Pert Berbasis Multimedia</t>
@@ -4927,22 +4927,22 @@
     <t>Media Pembelajaran Database Fuzzy Dengan Metode Tahani Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Media Pembelajaran Berbasis Komputer Mata Pelajaran Matematika Tentang Bilangan Untuk Sekolah Dasar Kelas Iii (Sudi Kasus Sd It Lukman Al Hakim Yogyakarta)</t>
-  </si>
-  <si>
-    <t>Media Pembelajaran Bahasa Sasak Dilengkapi Dengan Kamus Bahasa Sasak-Bahasa Indonesia Berbasis Multimedia</t>
-  </si>
-  <si>
-    <t>Media Pembelajaran Bahasa Ingris Tentang Time Untuk Taman Kanak-Kanak Berbasis Multimedia</t>
-  </si>
-  <si>
-    <t>Media Pembelajaran Bahasa Inggris Tentang My Family Untuk Taman Kanak-Kanak Berbasis Multimedia</t>
-  </si>
-  <si>
-    <t>Media Pembelajaran Bahasa Inggris Tentang Meals Untuk Taman Kanak-Kanak Berbasis Multimedia</t>
-  </si>
-  <si>
-    <t>Media Pembelajaran Bahasa Inggris Tentang Greeting Untuk Taman Kanak-Kanak Berbasis Multimedia</t>
+    <t>Media Pembelajaran Berbasis Komputer Mata Pelajaran Matematika Tentang Bilangan Untuk Sekolah Dasar Kelas Iii Sudi Kasus Sd It Lukman Al Hakim Yogyakarta</t>
+  </si>
+  <si>
+    <t>Media Pembelajaran Bahasa Sasak Dilengkapi Dengan Kamus Bahasa SasakBahasa Indonesia Berbasis Multimedia</t>
+  </si>
+  <si>
+    <t>Media Pembelajaran Bahasa Ingris Tentang Time Untuk Taman KanakKanak Berbasis Multimedia</t>
+  </si>
+  <si>
+    <t>Media Pembelajaran Bahasa Inggris Tentang My Family Untuk Taman KanakKanak Berbasis Multimedia</t>
+  </si>
+  <si>
+    <t>Media Pembelajaran Bahasa Inggris Tentang Meals Untuk Taman KanakKanak Berbasis Multimedia</t>
+  </si>
+  <si>
+    <t>Media Pembelajaran Bahasa Inggris Tentang Greeting Untuk Taman KanakKanak Berbasis Multimedia</t>
   </si>
   <si>
     <t>Media Pembelajaran Aritmatika Komputer Pada Materi Konversi Bilangan Berbasis Multimedia</t>
@@ -4969,16 +4969,16 @@
     <t>Media Informasi Interaktif Teknik Pukulan Pada Kendang Sunda Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Media Informasi Interaktif Kelenjar Tiroid Pada Penyakit Hipotiroid Dan Hipertiroid Berbasis Multimedia Studi Kasus Rsup Dr. Sarjito Yogyakarta</t>
-  </si>
-  <si>
-    <t>Media Alat Bantu Belajar Membaca Al-Qur An Dengan Metode Al-Bayan Berbasis Multimedia Interaktif</t>
-  </si>
-  <si>
-    <t>Manajemen Paket Ubuntu Linux Dengan Repository Server Berbasis Lighttpd 1.4.11</t>
-  </si>
-  <si>
-    <t>Managemen Ruang Pasien Rawat Inap Pada Rs Pku Muhammadiyah Yogyakarta Dengan Teknologi Java (Studi Kasus Rumah Sakit Pku Muhammadiyah Jl. Kh. Ahmad Dahlan Yogyakarta)</t>
+    <t>Media Informasi Interaktif Kelenjar Tiroid Pada Penyakit Hipotiroid Dan Hipertiroid Berbasis Multimedia Studi Kasus Rsup Dr Sarjito Yogyakarta</t>
+  </si>
+  <si>
+    <t>Media Alat Bantu Belajar Membaca AlQur An Dengan Metode AlBayan Berbasis Multimedia Interaktif</t>
+  </si>
+  <si>
+    <t>Manajemen Paket Ubuntu Linux Dengan Repository Server Berbasis Lighttpd 1411</t>
+  </si>
+  <si>
+    <t>Managemen Ruang Pasien Rawat Inap Pada Rs Pku Muhammadiyah Yogyakarta Dengan Teknologi Java Studi Kasus Rumah Sakit Pku Muhammadiyah Jl Kh Ahmad Dahlan Yogyakarta</t>
   </si>
   <si>
     <t>Majalah Elektronik Sekolah Berbasis Web Pada Mts Al Mahalli Pleret Bantul</t>
@@ -4987,7 +4987,7 @@
     <t>Membangun Game Edukasi Musik Berbasismultimedia Untuk Meningkatkan Kepekaanbermusik</t>
   </si>
   <si>
-    <t>Media Pendukung Pembelajaran Proses Enkripsi Dan Dekripsi, Algoritma Cryptography Cbc, Vigenere Chiper, Block Transposition Dan Cbc Modifikasi Dalam Pengamanan File Teks Dan Data Teks</t>
+    <t>Media Pendukung Pembelajaran Proses Enkripsi Dan Dekripsi Algoritma Cryptography Cbc Vigenere Chiper Block Transposition Dan Cbc Modifikasi Dalam Pengamanan File Teks Dan Data Teks</t>
   </si>
   <si>
     <t>Media Pembelajaran Ruang Vektor Real Berbasis Multimedia</t>
@@ -4999,13 +4999,13 @@
     <t>Layanan Penjualan Produk Fitnes Di Victory Fitness Center Berbasis Web Menggunakan Aplikasi Aura Cms</t>
   </si>
   <si>
-    <t>Layanan Informasi Lokasi Event Menggunakan Location Based Service (Lbs) Berbasis Jquery Mobile</t>
+    <t>Layanan Informasi Lokasi Event Menggunakan Location Based Service Lbs Berbasis Jquery Mobile</t>
   </si>
   <si>
     <t>Klasifikasi Gender Dari Citra Wajah Menggunakan Ekstraksi Fitur Fisherface Dan Support Vector Machine</t>
   </si>
   <si>
-    <t>Kamus Bausastra Sasak - Indonesia Dan Indonesia - Sasak</t>
+    <t>Kamus Bausastra Sasak  Indonesia Dan Indonesia  Sasak</t>
   </si>
   <si>
     <t>Jaringan Syaraf Tiruan Backpropagation Untuk Diagnosa Penyakit Hepatitis</t>
@@ -5023,16 +5023,16 @@
     <t>Implementasi Staging Dalam Animasi Perilaku Konsumsi Makanan Sehat</t>
   </si>
   <si>
-    <t>Implementasi Sistem Pakar Untuk Mendiagnosa Ganguan Pencernaan Makan Pada Hewan Ternak Dengan Metode Fuzzy-Tsukamoto</t>
-  </si>
-  <si>
-    <t>Implementasi Sistem Keamanan Data Menggunakan Algoritma Tea Pada Aplikasi E-Learning</t>
-  </si>
-  <si>
-    <t>Implementasi Proxy Server Dan Load Balancing Menggunakan Metode Per Connection Classifier (Pcc) Berbasis Mikrotik</t>
-  </si>
-  <si>
-    <t>Implementasi Metode Interpolasi Linier Untuk Mengidentifikasi Kekeruhan Air Dengan Pemrosesan Awal Pelembuyan Citra (Studi Kasus : Pdam Tirtamarta Yogyakarta)</t>
+    <t>Implementasi Sistem Pakar Untuk Mendiagnosa Ganguan Pencernaan Makan Pada Hewan Ternak Dengan Metode FuzzyTsukamoto</t>
+  </si>
+  <si>
+    <t>Implementasi Sistem Keamanan Data Menggunakan Algoritma Tea Pada Aplikasi ELearning</t>
+  </si>
+  <si>
+    <t>Implementasi Proxy Server Dan Load Balancing Menggunakan Metode Per Connection Classifier Pcc Berbasis Mikrotik</t>
+  </si>
+  <si>
+    <t>Implementasi Metode Interpolasi Linier Untuk Mengidentifikasi Kekeruhan Air Dengan Pemrosesan Awal Pelembuyan Citra Studi Kasus  Pdam Tirtamarta Yogyakarta</t>
   </si>
   <si>
     <t>Implementasi Metode Canny Untuk Deteksi Tepi Mutu Daun Tembakau</t>
@@ -5053,22 +5053,22 @@
     <t>Implementasi Case Base Reasoning Pada Sistem Pakar Dalam Menentukan Jenis Gangguan Kejiwaan</t>
   </si>
   <si>
-    <t>Implementasi Back Office Aplikasi M-Goverment (Studi Kasus: Pemerintah Kota Yogyakarta)</t>
+    <t>Implementasi Back Office Aplikasi MGoverment Studi Kasus Pemerintah Kota Yogyakarta</t>
   </si>
   <si>
     <t>Implementasi Web Service Pada Sirkulasi Perpustakaan Menggunakan Data Base Terdistribusi</t>
   </si>
   <si>
-    <t>Implementasi Web Service Menggunakan Simple Object Access Protocol Studi Kasus Afiliasi Amazon.Com</t>
+    <t>Implementasi Web Service Menggunakan Simple Object Access Protocol Studi Kasus Afiliasi AmazonCom</t>
   </si>
   <si>
     <t>Implementasi Wap Pada Pemesanan Tiket Bis</t>
   </si>
   <si>
-    <t>Implementasi Virtual Reality (Vr) 3D Hotel Merak Indah Klaten</t>
-  </si>
-  <si>
-    <t>Implementasi Virtual Private Network (Vpn) Untuk Keamanan Komunikasi Data Pada Jaringan Berbasis Wireless</t>
+    <t>Implementasi Virtual Reality Vr 3D Hotel Merak Indah Klaten</t>
+  </si>
+  <si>
+    <t>Implementasi Virtual Private Network Vpn Untuk Keamanan Komunikasi Data Pada Jaringan Berbasis Wireless</t>
   </si>
   <si>
     <t>Implementasi Transformasi Wavelet Sebagai Pemrosesan Awal Dalam Sistem Pengenalan Wajah Citra Digital</t>
@@ -5089,7 +5089,7 @@
     <t>Implementasi Sistem Pakar Untuk Mendiagnosa Penyakit Dalam Pada Manusia Menggunakan Metode Dempster Shafer</t>
   </si>
   <si>
-    <t>Implementasi Sistem Management User Pada Hotspot Menggunakan Freeradius Dan Coova-Chilli (Studi Kasus Biskom Universitas Ahmad Dahlan)</t>
+    <t>Implementasi Sistem Management User Pada Hotspot Menggunakan Freeradius Dan CoovaChilli Studi Kasus Biskom Universitas Ahmad Dahlan</t>
   </si>
   <si>
     <t>Implementasi Profil Pariwisata Dan Budaya Kabupaten Kaur Dengan Dua Bahasa Berbasis Multimedia Interaktif</t>
@@ -5098,7 +5098,7 @@
     <t>Implementasi Network Monitoring Untuk Meningkatkan Kinerja Jaringan Studi Kasus Laboratorium Jaringan Uad</t>
   </si>
   <si>
-    <t>Implementasi Multimedia Sebagai Media Pembelajaran (Studi Kasus Materi Subnetting Pada Ipv4)</t>
+    <t>Implementasi Multimedia Sebagai Media Pembelajaran Studi Kasus Materi Subnetting Pada Ipv4</t>
   </si>
   <si>
     <t>Implementasi Multimedia Sebagai Alat Bantu Pembelajaran Materi Stereo And Shape Analysis Pada Mata Kuliah Computer Vision</t>
@@ -5110,25 +5110,25 @@
     <t>Implementasi Metode Limited Cut Dan Post Planning Animation Dalam Pembuatan Film Animasi Kebersihan Adalah Sebagian Dari Iman</t>
   </si>
   <si>
-    <t>Implementasi Media Pembelajaran Vpn (Virtual Private Network) Pada Mata Kuliah Komunikasi Data Dan Jaringan Komputer Berbasis Multimedia</t>
+    <t>Implementasi Media Pembelajaran Vpn Virtual Private Network Pada Mata Kuliah Komunikasi Data Dan Jaringan Komputer Berbasis Multimedia</t>
   </si>
   <si>
     <t>Implementasi Media Pembelajaran Transformasi Wavelet Pada Mata Kuliah Pengolahan Citra Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Implementasi Media Pembelajaran Region-Based Segmentation Pada Mata Kuliah Computer Vision Berbasis Multimedia</t>
+    <t>Implementasi Media Pembelajaran RegionBased Segmentation Pada Mata Kuliah Computer Vision Berbasis Multimedia</t>
   </si>
   <si>
     <t>Implementasi Media Pembelajaran Materi Ray Tracing Pada Mata Kuliah Grafika Komputer Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Implementasi Media Pembelajaran Input/Output Pada Matakuliah Organisasi Dan Arsitektur Komputer Berbasis Multimedia</t>
+    <t>Implementasi Media Pembelajaran InputOutput Pada Matakuliah Organisasi Dan Arsitektur Komputer Berbasis Multimedia</t>
   </si>
   <si>
     <t>Implementasi Media Pembelajaran Clipping Pada Mata Kuliah Grafika Komputer Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Implementasi Manajemen Bandwidth Menggunakan Hierarchical Token Bucket (Htb) Pada Sistem Operasi Linux (Studi Kasus Di Laboratorium Jaringan Uad)</t>
+    <t>Implementasi Manajemen Bandwidth Menggunakan Hierarchical Token Bucket Htb Pada Sistem Operasi Linux Studi Kasus Di Laboratorium Jaringan Uad</t>
   </si>
   <si>
     <t>Implementasi Manajemen Bandwidth Dan Web Proxy Menggunakan Clearos Di Smk N 1 Pengasih</t>
@@ -5137,19 +5137,19 @@
     <t>Implementasi Keamanan Data Menggunakan Algoritma Gost Dan Steganografi Pada Citra</t>
   </si>
   <si>
-    <t>Implementasi Image Watermarking Pada Citra Digital Menggunakan Teknik Discrete Fourier Transform (Dft) Dan Singular Value Decomposition (Svd)</t>
-  </si>
-  <si>
-    <t>Implementasi Image Watermarking Pada Citra Digital Dengan Discrete Wavelet Transform (Dwt) Daubechies D4</t>
+    <t>Implementasi Image Watermarking Pada Citra Digital Menggunakan Teknik Discrete Fourier Transform Dft Dan Singular Value Decomposition Svd</t>
+  </si>
+  <si>
+    <t>Implementasi Image Watermarking Pada Citra Digital Dengan Discrete Wavelet Transform Dwt Daubechies D4</t>
   </si>
   <si>
     <t>Implementasi Honeypot Untuk Meningkatkan Keamanan Jaringan Berbasis Wireless</t>
   </si>
   <si>
-    <t>Implementasi Grafika Komputer Follow-Thruough And Overlapping Actions Pada Pembuatan Film Kartun Nilai Nilai Keikhlasan</t>
-  </si>
-  <si>
-    <t>Implementasi E-Commerce Untuk Penjualan Buku Pada Penerbit Ombak Berbasis Framework</t>
+    <t>Implementasi Grafika Komputer FollowThruough And Overlapping Actions Pada Pembuatan Film Kartun Nilai Nilai Keikhlasan</t>
+  </si>
+  <si>
+    <t>Implementasi ECommerce Untuk Penjualan Buku Pada Penerbit Ombak Berbasis Framework</t>
   </si>
   <si>
     <t>Implementasi Case Based Reasoning Untuk Mendiagnosa Penyakit Paru Pada Manusia</t>
@@ -5176,13 +5176,13 @@
     <t>Game Edukasi Meningkatkan Daya Ingat Anak Bermain Bersama Modo Dan Modi</t>
   </si>
   <si>
-    <t>Game Edukasipengenalan Rambu-Rambu Lalu Lintas Untuk Anak Usia Dini (Studi Kasus Tk Asyiah Bustanul Athfal Janturan)</t>
-  </si>
-  <si>
-    <t>Game Adventure Menggunakan Metode Side Scrolling Cerita Rakyat Doyan Nada Untuk Meningkatkan Pemahaman Budayasasak (Lombok) Pada Anak</t>
-  </si>
-  <si>
-    <t>Front System Menggunakan M-Government Untuk Meningkatkan Interaksi Masyarakat Dan Pemerintah Yogyakarta</t>
+    <t>Game Edukasipengenalan RambuRambu Lalu Lintas Untuk Anak Usia Dini Studi Kasus Tk Asyiah Bustanul Athfal Janturan</t>
+  </si>
+  <si>
+    <t>Game Adventure Menggunakan Metode Side Scrolling Cerita Rakyat Doyan Nada Untuk Meningkatkan Pemahaman Budayasasak Lombok Pada Anak</t>
+  </si>
+  <si>
+    <t>Front System Menggunakan MGovernment Untuk Meningkatkan Interaksi Masyarakat Dan Pemerintah Yogyakarta</t>
   </si>
   <si>
     <t>Enterprise Arsitectur Planning Produksi Gula Dengan Zachman Framework</t>
@@ -5194,7 +5194,7 @@
     <t>Embedded Graphic Online Service</t>
   </si>
   <si>
-    <t>E-Readiness Pembuatan Model Sistem M-Government (Studi Kasus: Pemerintah Kota Yogyakarta)</t>
+    <t>EReadiness Pembuatan Model Sistem MGovernment Studi Kasus Pemerintah Kota Yogyakarta</t>
   </si>
   <si>
     <t>Diagnosa Kerusakan Printer Dengan Pendekatan Sistem Pakar Menggunakan Metode Theorema Bayes Berbasis Web</t>
@@ -5203,7 +5203,7 @@
     <t>Deteksi Penyakit Tulang Menggunakan Jaringan Syaraf Tiruan Dengan Metode Backpropagation</t>
   </si>
   <si>
-    <t>Deteksi Penyakit Dan Serangan Hama Tanaman Buah Salak Menggunakan Jaringan Syaraf Tiruan (Jst) Dengan Metode Perceptron</t>
+    <t>Deteksi Penyakit Dan Serangan Hama Tanaman Buah Salak Menggunakan Jaringan Syaraf Tiruan Jst Dengan Metode Perceptron</t>
   </si>
   <si>
     <t>Deteksi Penyakit Ayam Menggunakan Jaringan Syaraf Tiruan Dengan Metode Perceptron</t>
@@ -5224,7 +5224,7 @@
     <t>Deteksi Dini Perilaku Penyimpangan Seksual Menggunakan Metode Fordward Chaining Berbasis Web</t>
   </si>
   <si>
-    <t>Desain Dan Implitasi Sms Gateway Untuk Layanan Hasil Studi Mahasiswa (Studi Kasus Pada Prodi Teknik Informatika Informatika Uad)</t>
+    <t>Desain Dan Implitasi Sms Gateway Untuk Layanan Hasil Studi Mahasiswa Studi Kasus Pada Prodi Teknik Informatika Informatika Uad</t>
   </si>
   <si>
     <t>Desain Dan Implementasi Jejaring Sosial Bagi Penggemar Sepak Bola Berbasis Web</t>
@@ -5236,13 +5236,13 @@
     <t>Desain Dan Implementasi Berorientasi Objek Sistem Informasi Manajemen Keuangan Tour And Travel</t>
   </si>
   <si>
-    <t>Desain Dan Impelementasi E-Counseling Pada Program Studi Bimbingan Konseling (Studi Kasus Di Program Bimbingan Konseling Uad Yogyakarta)</t>
-  </si>
-  <si>
-    <t>Desain Dan Implementasi Web E-Commerce Pada Pemesanan Buku Secara Online (Studi Kasus Di Divaprees Publisher)</t>
-  </si>
-  <si>
-    <t>Decision Support System Penilaian Kinerja Guru Berdasarkan Standar Kurikulum Tingkat Satuan Pendidikan (Ktsp)</t>
+    <t>Desain Dan Impelementasi ECounseling Pada Program Studi Bimbingan Konseling Studi Kasus Di Program Bimbingan Konseling Uad Yogyakarta</t>
+  </si>
+  <si>
+    <t>Desain Dan Implementasi Web ECommerce Pada Pemesanan Buku Secara Online Studi Kasus Di Divaprees Publisher</t>
+  </si>
+  <si>
+    <t>Decision Support System Penilaian Kinerja Guru Berdasarkan Standar Kurikulum Tingkat Satuan Pendidikan Ktsp</t>
   </si>
   <si>
     <t>Computer Based Training Teknik Rancang Bangun Menggunakan Aplikasi Autocad</t>
@@ -5257,19 +5257,19 @@
     <t>Audit Sistem Informasi Dan Teknologi Informasi Pada Prodi Teknik Informatika</t>
   </si>
   <si>
-    <t>Audit Sistem Informasi Pada Digilib Universitas Xyz Menggunakan Kerangka Kerja Cobit 4.0</t>
-  </si>
-  <si>
-    <t>Arsitektur Teknologi Informasi Dan Komunikasi Menggunakan Framework Zachman (Studi Kasus: Biro Finansial Dan Aset (Bifas) Universitas Xyz)</t>
-  </si>
-  <si>
-    <t>Aplikasikartu Nama Virtual (Virtual Business Card) Berbasis Web Mobile</t>
+    <t>Audit Sistem Informasi Pada Digilib Universitas Xyz Menggunakan Kerangka Kerja Cobit 40</t>
+  </si>
+  <si>
+    <t>Arsitektur Teknologi Informasi Dan Komunikasi Menggunakan Framework Zachman Studi Kasus Biro Finansial Dan Aset Bifas Universitas Xyz</t>
+  </si>
+  <si>
+    <t>Aplikasikartu Nama Virtual Virtual Business Card Berbasis Web Mobile</t>
   </si>
   <si>
     <t>Aplikasi Terjemahan Bahasa Indonesia Ke Bahasa Batak Angkola Atau Sebaliknya Berbasis Android</t>
   </si>
   <si>
-    <t>Aplikasi Terjemah Bahasa Indonesia-Seraway, Seraway-Indonesia</t>
+    <t>Aplikasi Terjemah Bahasa IndonesiaSeraway SerawayIndonesia</t>
   </si>
   <si>
     <t>Aplikasi Sistem Pendukung Keputusan Bagi Penentuan Tingkat Epidemi Di Puskesmas Induk Umbulharjo I Kota Yogyakarta</t>
@@ -5284,7 +5284,7 @@
     <t>Aplikasi Sistem Pakar Berbasis Web Untuk Diagnosa Penyakit Pada Tanaman Kelapa Menggunakan Metode Certainly Factor Yang Disertai Gejala Citra</t>
   </si>
   <si>
-    <t>Aplikasi Sistem Informasi Nilai (Studi Kasus Di Sma Negeri 2 Pacitan)</t>
+    <t>Aplikasi Sistem Informasi Nilai Studi Kasus Di Sma Negeri 2 Pacitan</t>
   </si>
   <si>
     <t>Aplikasi Sistem Informasi Geografis Untuk Penentuan Daerah Yang Terkena Gizi Buruk Di Kabupaten Bantul</t>
@@ -5305,13 +5305,13 @@
     <t>Aplikasi Penterjemah Untuk Bahasa Indonesia Ke Bahasa Jawa Sebaliknya</t>
   </si>
   <si>
-    <t>Aplikasi Penterjemah Bahasa Ogan - Indonesia Dan Sebaliknya</t>
+    <t>Aplikasi Penterjemah Bahasa Ogan  Indonesia Dan Sebaliknya</t>
   </si>
   <si>
     <t>Aplikasi Penterjemah Bahasa Indonesia Ke Bahasa Lampung Disertasi Analisis Sintaksis</t>
   </si>
   <si>
-    <t>Aplikasi Penterjemah Bahasa Indonesia-Bali Dan Sebaliknya Dilengkapi Dengan Pengecekan Ejaan</t>
+    <t>Aplikasi Penterjemah Bahasa IndonesiaBali Dan Sebaliknya Dilengkapi Dengan Pengecekan Ejaan</t>
   </si>
   <si>
     <t>Aplikasi Penterjemah Bahasa Indonesia Ke Bahasa Komering Dan Sebaliknya</t>
@@ -5335,7 +5335,7 @@
     <t>Aplikasi Pengenalan Hangeul Berbasis Multimedia Interaktif</t>
   </si>
   <si>
-    <t>Aplikasi Penerjemahan Bahasa Indonesia Ke Bahasa Daerah Sulawesi Tenggara (Wolio) Dan Sebaliknya Yang Dilengkapi Dengan Pengecekan Ejaan Dan Pemeriksaan Kata Ambigu</t>
+    <t>Aplikasi Penerjemahan Bahasa Indonesia Ke Bahasa Daerah Sulawesi Tenggara Wolio Dan Sebaliknya Yang Dilengkapi Dengan Pengecekan Ejaan Dan Pemeriksaan Kata Ambigu</t>
   </si>
   <si>
     <t>Aplikasi Penerjemah Bahasa Indonesia Ke Bahasa Banjar Dan Sebaliknya Dengan Analisis Sintaksis</t>
@@ -5353,13 +5353,13 @@
     <t>Aplikasi Multimedia Sebagai Media Informasi Pada Pengenalan Monumen Yogya Kembali Yogyakarta</t>
   </si>
   <si>
-    <t>Aplikasi Multimedia Sebagai Media Alternatif Untuk Informasi Dan Promosi Batik Dalam Bentuk Cd Interaktif (Studi Kasus Apip\'S Kerajinan Batik Yogyakarta</t>
+    <t>Aplikasi Multimedia Sebagai Media Alternatif Untuk Informasi Dan Promosi Batik Dalam Bentuk Cd Interaktif Studi Kasus ApipS Kerajinan Batik Yogyakarta</t>
   </si>
   <si>
     <t>Aplikasi Multimedia Pada Museum Kedaton Kesultanan Ternate Berbasis Web</t>
   </si>
   <si>
-    <t>Aplikasi Multimedia Interaktif Pengenalan Topologi Jaringan Tcp/Ip</t>
+    <t>Aplikasi Multimedia Interaktif Pengenalan Topologi Jaringan TcpIp</t>
   </si>
   <si>
     <t>Aplikasi Metode Region Growing Untuk Monitoring Pertumbuhan Panjang Kecambah</t>
@@ -5380,13 +5380,13 @@
     <t>Aplikasi Deteksi Tepi Untuk Klasifikasi Kuaitas Genteng Menggunakan Metode Deteksi Tepi Laplacian Of Gaussian</t>
   </si>
   <si>
-    <t>Aplikasi Deteksi Kerusakan / Cacat Pada Sambungan Las Menggunakan Metode Region Growing</t>
+    <t>Aplikasi Deteksi Kerusakan  Cacat Pada Sambungan Las Menggunakan Metode Region Growing</t>
   </si>
   <si>
     <t>Aplikasi Bantu Untuk Pengajuan Sertifikasi Guru</t>
   </si>
   <si>
-    <t>Aplikasi Bantu Pengolahan Nilai Indeks Kinerja Dosen (Studi Kasus Fakultas Teknologi Industri Uad)</t>
+    <t>Aplikasi Bantu Pengolahan Nilai Indeks Kinerja Dosen Studi Kasus Fakultas Teknologi Industri Uad</t>
   </si>
   <si>
     <t>Aplikasi Android Untuk Media Promosi Dan Publikasi Penjualan Mobil Di Kota Pekalongan Dengan Metode Android Notification</t>
@@ -5395,7 +5395,7 @@
     <t>Aplikasi Wap Untuk Pengembangan Website Di Pmi Cabang Kota Yogyakarta</t>
   </si>
   <si>
-    <t>Aplikasi Web E-Learning Sebagai Media Pembelajaran Alternatif Di Sma (Studi Kasus Aplikasi Web E-Learning Sma Negeri 1 Rembang Kabupaten Purbalingga)</t>
+    <t>Aplikasi Web ELearning Sebagai Media Pembelajaran Alternatif Di Sma Studi Kasus Aplikasi Web ELearning Sma Negeri 1 Rembang Kabupaten Purbalingga</t>
   </si>
   <si>
     <t>Aplikasi Visualisasi Pemodelan Data Pada Struktur Basis Data</t>
@@ -5422,28 +5422,28 @@
     <t>Aplikasi Transformasi Warna Ycbcr Untuk Deteksi Tipe Warna Kulit Wajah Dalam Klasifikasi Ras Manusia</t>
   </si>
   <si>
-    <t>Aplikasi Toko Buku Online Berbasis Sms Gateway Over Gprs (General Packet Radio Service)</t>
+    <t>Aplikasi Toko Buku Online Berbasis Sms Gateway Over Gprs General Packet Radio Service</t>
   </si>
   <si>
     <t>Aplikasi Tes Ujian Masuk Dan Man Cipasung Tasikmalaya Dengan Analisis Dan Perancangan Berorientasi Objek</t>
   </si>
   <si>
-    <t>Aplikasi Tes Kepribadian Untuk Penempatan Karyawan Menggunakan Metode Myers-Briggs Type Indicator (Mbti) Berbasis Web (Studi Kasus: Pt. Winata Putra Mandiri)</t>
-  </si>
-  <si>
-    <t>Aplikasi Tes Kepribadian Menggunakan Metode Edwars Personal Prefefence Schedul (Studi Kasus Cv Exist Klaten Jawa Tengah</t>
-  </si>
-  <si>
-    <t>Aplikasi Tes Intelligence Quotient (Iq) Menggunakan Standarisasi Wechsler Berbasis Web</t>
+    <t>Aplikasi Tes Kepribadian Untuk Penempatan Karyawan Menggunakan Metode MyersBriggs Type Indicator Mbti Berbasis Web Studi Kasus Pt Winata Putra Mandiri</t>
+  </si>
+  <si>
+    <t>Aplikasi Tes Kepribadian Menggunakan Metode Edwars Personal Prefefence Schedul Studi Kasus Cv Exist Klaten Jawa Tengah</t>
+  </si>
+  <si>
+    <t>Aplikasi Tes Intelligence Quotient Iq Menggunakan Standarisasi Wechsler Berbasis Web</t>
   </si>
   <si>
     <t>Aplikasi Terjemahan Untuk Belajar Bahasa Jawa Dan Aksara Jawa</t>
   </si>
   <si>
-    <t>Aplikasi Terjemahan Bahasa Indonesia-Sunda Dan Sebaliknya Berbasis Wap (Wireless Application Protocol)</t>
-  </si>
-  <si>
-    <t>Aplikasi Terjemahan Bahasa Indonesia Ke-Bahasa Ternate Disertai Dengan Pemeriksaan Kalimat Ambigu</t>
+    <t>Aplikasi Terjemahan Bahasa IndonesiaSunda Dan Sebaliknya Berbasis Wap Wireless Application Protocol</t>
+  </si>
+  <si>
+    <t>Aplikasi Terjemahan Bahasa Indonesia KeBahasa Ternate Disertai Dengan Pemeriksaan Kalimat Ambigu</t>
   </si>
   <si>
     <t>Aplikasi Terjemahan Bahasa Indonesia Ke Bahasa Tolaki Dan Sebaliknya</t>
@@ -5455,7 +5455,7 @@
     <t>Aplikasi Terjemahan Bahasa Indonesia Ke Bahasa Jawa Dilengkapi Dengan Pengecekan Kalimat Ambigu</t>
   </si>
   <si>
-    <t>Aplikasi Terjemahan Bahasa Indonesia Ke Bahasa Palembang Dan Sebaliknya Dilengkapi Pengecekan Aturan Tata Bahasa (Grammar)</t>
+    <t>Aplikasi Terjemahan Bahasa Indonesia Ke Bahasa Palembang Dan Sebaliknya Dilengkapi Pengecekan Aturan Tata Bahasa Grammar</t>
   </si>
   <si>
     <t>Aplikasi Terjemahan Bahasa Indonesia Ke Bahasa Banyumas Dengan Analisis Teknik</t>
@@ -5467,10 +5467,10 @@
     <t>Aplikasi Sistem Tes Online Smp 1 Ponjong Gunungkidul</t>
   </si>
   <si>
-    <t>Aplikasi Sistem Penilaian Kinerja Karyawan Untuk Kenaikan Jabatan Dengan Metode Behaviourally Anchored Rating Scale (Bars) Berbasis Web</t>
-  </si>
-  <si>
-    <t>Aplikasi Sistem Pendukung Keputusan Penentuan Lokasi Pendirian Warnet Dengan Metode Analytical Hierarchy Process (Ahp) (Studi Kasus Pt Pika Media Komunika)</t>
+    <t>Aplikasi Sistem Penilaian Kinerja Karyawan Untuk Kenaikan Jabatan Dengan Metode Behaviourally Anchored Rating Scale Bars Berbasis Web</t>
+  </si>
+  <si>
+    <t>Aplikasi Sistem Pendukung Keputusan Penentuan Lokasi Pendirian Warnet Dengan Metode Analytical Hierarchy Process Ahp Studi Kasus Pt Pika Media Komunika</t>
   </si>
   <si>
     <t>Aplikasi Sistem Pendukung Keputusan Dalam Penentuan Lokasi Pembangunan Ruko Dengan Metode Naive Bayes</t>
@@ -5485,19 +5485,19 @@
     <t>Aplikasi Sistem Pakar Untuk Mendiagnosa Penyakit Infeksi Pada Usus Manusia</t>
   </si>
   <si>
-    <t>Aplikasi Sistem Pakar Untuk Mendiagnosa Gangguan Perkembangan Kesehatan Anak Dengan Metode Certainty Factor (Cf)</t>
+    <t>Aplikasi Sistem Pakar Untuk Mendiagnosa Gangguan Perkembangan Kesehatan Anak Dengan Metode Certainty Factor Cf</t>
   </si>
   <si>
     <t>Aplikasi Sistem Pakar Untuk Diagnosa Penyakit Pada Tanaman Hias Berbasis Web Dengan Menggunakan Teorema Bayes</t>
   </si>
   <si>
-    <t>Aplikasi Sistem Pakar Penentuan Perawatan Kecantikan Berbasis Web (Studi Kasus: Pamella Salon Yogyakarta)</t>
+    <t>Aplikasi Sistem Pakar Penentuan Perawatan Kecantikan Berbasis Web Studi Kasus Pamella Salon Yogyakarta</t>
   </si>
   <si>
     <t>Aplikasi Sistem Pakar Penentuan Asupan Makanan Bagi Penderita Penyakit Gizi Buruk Dengan Inferensi Fuzzy</t>
   </si>
   <si>
-    <t>Aplikasi Sistem Pakar Diagnosa Infeksi Sistem Gastro-Usus Dengan Penyajian Jaringan Semantik</t>
+    <t>Aplikasi Sistem Pakar Diagnosa Infeksi Sistem GastroUsus Dengan Penyajian Jaringan Semantik</t>
   </si>
   <si>
     <t>Aplikasi Sistem Pakar Diagnosa Hama Dan Penyakit Tembakau Menggunakan Teorema Bayes</t>
@@ -5524,13 +5524,13 @@
     <t>Aplikasi Sistem Informasi Geografis Peta Lokasi Distribusi Produk Pertanian Pangan Andalan Di Kabupaten Sleman Berbasis Web</t>
   </si>
   <si>
-    <t>Aplikasi Sistem Informasi Geografis Untuk Penentuan Kesesuaian Lahan Pertanian Potensial (Studi Kasus Di Kabupaten Sumbawa Barat-Ntb)</t>
-  </si>
-  <si>
-    <t>Aplikasi Sistem Informasi Dan Pembayaran Berbasis Sms Gateway Over Gprs Dengan Studi Kasus Sdit Luqman Al-Hakim</t>
-  </si>
-  <si>
-    <t>Aplikasi Short Message Service (Sms) Gateway Sebagai Layanan Informasi Harga Dan Pemesanan Makanan Berbasis Sms</t>
+    <t>Aplikasi Sistem Informasi Geografis Untuk Penentuan Kesesuaian Lahan Pertanian Potensial Studi Kasus Di Kabupaten Sumbawa BaratNtb</t>
+  </si>
+  <si>
+    <t>Aplikasi Sistem Informasi Dan Pembayaran Berbasis Sms Gateway Over Gprs Dengan Studi Kasus Sdit Luqman AlHakim</t>
+  </si>
+  <si>
+    <t>Aplikasi Short Message Service Sms Gateway Sebagai Layanan Informasi Harga Dan Pemesanan Makanan Berbasis Sms</t>
   </si>
   <si>
     <t>Aplikasi Sms Gateway Untuk Reservasi Pada Hotel Imperial Aryaduta Lippo Karwaci</t>
@@ -5539,10 +5539,10 @@
     <t>Aplikasi Sms Gateway Sebagai Layanan Informasi Santri Bagi Wali Santri Pada Pondok Pesantren Ibnul Qoyyim</t>
   </si>
   <si>
-    <t>Aplikasi Sms Gateway Sebagai Layanan Informasi Jalur Bis Di Yogyakarta Serta Perkiraan Waktu Tempuh Berdasarkan Kecepatan Rata-Rata Bis Berbasis Sms</t>
-  </si>
-  <si>
-    <t>Aplikasi Sms Dengan Microsoft Visual Basic Dan Mobile Fbus 1.5 Activex Control</t>
+    <t>Aplikasi Sms Gateway Sebagai Layanan Informasi Jalur Bis Di Yogyakarta Serta Perkiraan Waktu Tempuh Berdasarkan Kecepatan RataRata Bis Berbasis Sms</t>
+  </si>
+  <si>
+    <t>Aplikasi Sms Dengan Microsoft Visual Basic Dan Mobile Fbus 15 Activex Control</t>
   </si>
   <si>
     <t>Aplikasi Sig Untuk Mencegah Interferensi Antar Stasiun Pemancar Radio Di Wilayah Daerah Istimewa Yogyakarta</t>
@@ -5563,10 +5563,10 @@
     <t>Aplikasi Perbandingan Pencarian Jalur Terpendek Antara Jaringan Syaraf Tiruan Kohonen Self Organizing Maps Dengan Jaringan Syaraf Tiruan Boltzmann Machine</t>
   </si>
   <si>
-    <t>Aplikasi Perbaikan Citra Digital Untuk Mengidentifikasi Kerusakan/Cacat Pada Film Radiografi Sambungan Las</t>
-  </si>
-  <si>
-    <t>Aplikasi Perangkat Lunak Perawatan Kendaraan Di Po.Maju Lancar Yogyakarta Dengan Pemrograman Delphi 6.0</t>
+    <t>Aplikasi Perbaikan Citra Digital Untuk Mengidentifikasi KerusakanCacat Pada Film Radiografi Sambungan Las</t>
+  </si>
+  <si>
+    <t>Aplikasi Perangkat Lunak Perawatan Kendaraan Di PoMaju Lancar Yogyakarta Dengan Pemrograman Delphi 60</t>
   </si>
   <si>
     <t>Aplikasi Perangkat Lunak Penggajian Karyawan Di Mirota Gejayan</t>
@@ -5575,10 +5575,10 @@
     <t>Aplikasi Penterjemah Untuk Bahasa Indonesia Ke Bahasa Cirebon Dan Sebaliknya</t>
   </si>
   <si>
-    <t>Aplikasi Penterjemah Bahasa Indonesia-Bahasa Sunda Dan Sebaliknya Berbasis Sms</t>
-  </si>
-  <si>
-    <t>Aplikasi Penterjemah Bahasa Cirebon - Bahasa Indonesia Dan Sebaliknya Dilengkapi Dengan Pengecekan Kata Ambigu</t>
+    <t>Aplikasi Penterjemah Bahasa IndonesiaBahasa Sunda Dan Sebaliknya Berbasis Sms</t>
+  </si>
+  <si>
+    <t>Aplikasi Penterjemah Bahasa Cirebon  Bahasa Indonesia Dan Sebaliknya Dilengkapi Dengan Pengecekan Kata Ambigu</t>
   </si>
   <si>
     <t>Aplikasi Penjualan Voucher Elektronik Via Komputer</t>
@@ -5605,7 +5605,7 @@
     <t>Aplikasi Pengolahan Bahasa Alami Untuk Bahasa Indonesia Ke Bahasa Karo Dan Sebaliknya</t>
   </si>
   <si>
-    <t>Aplikasi Pengkonversi File Teks {.Rtf Dan .Txt} Ke File Suara {.Wav}</t>
+    <t>Aplikasi Pengkonversi File Teks Rtf Dan Txt Ke File Suara Wav</t>
   </si>
   <si>
     <t>Aplikasi Pengenalan Pola Batik Jogja Berdasarkan Fitur Tekstur Menggunakan Metode Jarak City Block</t>
@@ -5614,7 +5614,7 @@
     <t>Aplikasi Pengenalan Penyakit Hipertensi Dan Hipotensi Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Aplikasi Pengenalan Citra Rambu Lalu Lintas Berbentuk Lingkaran Menggunakan Metode Jarak City-Block</t>
+    <t>Aplikasi Pengenalan Citra Rambu Lalu Lintas Berbentuk Lingkaran Menggunakan Metode Jarak CityBlock</t>
   </si>
   <si>
     <t>Aplikasi Pengembangan Bahan Ajar Mata Pelajaran Tik Untuk Siswa Smp Materi Pemrograman Menggunakan Pascal</t>
@@ -5629,10 +5629,10 @@
     <t>Aplikasi Pengamanan Folder Dengan Kunci Simetrik Algoritma Blowfish</t>
   </si>
   <si>
-    <t>Aplikasi Penerjemah Bahasa Indonesia-Banjar Banjar-Indonesia</t>
-  </si>
-  <si>
-    <t>Aplikasi Penerjemah Bahasa Indonesia-Bahasa Melayu Sambas Kalimantan Barat Dan Sebaliknya</t>
+    <t>Aplikasi Penerjemah Bahasa IndonesiaBanjar BanjarIndonesia</t>
+  </si>
+  <si>
+    <t>Aplikasi Penerjemah Bahasa IndonesiaBahasa Melayu Sambas Kalimantan Barat Dan Sebaliknya</t>
   </si>
   <si>
     <t>Aplikasi Penerjemah Bahasa Indonesia Melayu Rokan Dan Sebaliknya</t>
@@ -5641,7 +5641,7 @@
     <t>Aplikasi Penentuan Tingkat Stres Pada Mahasiswa Menggunakan Metode Fuzzzy Logic</t>
   </si>
   <si>
-    <t>Aplikasi Penentuan Pajak Bumi Dan Bangunan (Studi Kasus Kantor Pelayanan Pajak Bumi Dan Bangunan Kabupaten Kuningan - Jawa Barat)</t>
+    <t>Aplikasi Penentuan Pajak Bumi Dan Bangunan Studi Kasus Kantor Pelayanan Pajak Bumi Dan Bangunan Kabupaten Kuningan  Jawa Barat</t>
   </si>
   <si>
     <t>Aplikasi Pendukung Keputusan Pemilihan Lokasi Toko Komputer Dengan Fuzzy Madm</t>
@@ -5653,7 +5653,7 @@
     <t>Aplikasi Pendaftaran Pasien Berobat Via Sms</t>
   </si>
   <si>
-    <t>Aplikasi Pemrograman Visual Basic 6.0 Pada Kendali Hidup Mati Lampu Berbasis Pc Dan At89C51</t>
+    <t>Aplikasi Pemrograman Visual Basic 60 Pada Kendali Hidup Mati Lampu Berbasis Pc Dan At89C51</t>
   </si>
   <si>
     <t>Aplikasi Pembelajaran Zakat Berbasis Multi Media</t>
@@ -5665,7 +5665,7 @@
     <t>Aplikasi Pembelajaran Teknik Permainan Bola Basket Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Aplikasi Pembelajaran Studi Fisika Tentang Momentum, Impuls, Dan Tumbukan Berbasis Multimedia</t>
+    <t>Aplikasi Pembelajaran Studi Fisika Tentang Momentum Impuls Dan Tumbukan Berbasis Multimedia</t>
   </si>
   <si>
     <t>Aplikasi Pembelajaran Sql Pada Mata Kuliah Basis Data Berbasis Multimedia</t>
@@ -5674,13 +5674,13 @@
     <t>Aplikasi Pembelajaran Permainan Edukatif Untuk Anak Prasekolah Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Aplikasi Pembelajaran Matematika Tentang Satuan Waktu, Panjang Dan Berat Untuk Sekolah Dasar (Sd) Kelas 1 (Studi Kasus Sd It Lukman Al-Hakim Yogyakarta)</t>
+    <t>Aplikasi Pembelajaran Matematika Tentang Satuan Waktu Panjang Dan Berat Untuk Sekolah Dasar Sd Kelas 1 Studi Kasus Sd It Lukman AlHakim Yogyakarta</t>
   </si>
   <si>
     <t>Aplikasi Pembelajaran Matematika Untuk Siswa Kelas 1 Sekolah Dasar Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Aplikasi Pembelajaran Matematika Tentang Pengukuran Berat Untuk Sekolah Dasar (Sd) Kelas I (Studi Kasus Sdit Lukman Al Hakim Yogyakarta)</t>
+    <t>Aplikasi Pembelajaran Matematika Tentang Pengukuran Berat Untuk Sekolah Dasar Sd Kelas I Studi Kasus Sdit Lukman Al Hakim Yogyakarta</t>
   </si>
   <si>
     <t>Aplikasi Pembelajaran Mahir Bermain Tenis Meja Berbasis Multimedia</t>
@@ -5689,7 +5689,7 @@
     <t>Aplikasi Pembelajaran Mahir Bermain Bulutangkis Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Aplikasi Pembelajaran Kombinatorial (Prinsip Dasar Counting, Inklusi-Eksklusi, Dan Pigeonhole) Mata Kuliah Matematika Diskrit</t>
+    <t>Aplikasi Pembelajaran Kombinatorial Prinsip Dasar Counting InklusiEksklusi Dan Pigeonhole Mata Kuliah Matematika Diskrit</t>
   </si>
   <si>
     <t>Aplikasi Pembelajaran Huruf Jepang Berbasis Multimedia</t>
@@ -5704,7 +5704,7 @@
     <t>Aplikasi Pembelajaran Bahasa Inggris Smp Dengan Metode Quantum Learning Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Aplikasi Pembelajaran Bahasa Indonesia-Batak Berbasis Multimedia</t>
+    <t>Aplikasi Pembelajaran Bahasa IndonesiaBatak Berbasis Multimedia</t>
   </si>
   <si>
     <t>Aplikasi Pembelajaran Baca Iqra Berbasis Multimedia</t>
@@ -5716,7 +5716,7 @@
     <t>Aplikasi Pembelajaran Aksara Jawa Berbasis Web</t>
   </si>
   <si>
-    <t>Aplikasi Pemantauan Perolehan Suara Partai Politik Dalam Pemilihan Umum Legislatif Dengan Menggunakan Sms Gateway (Studi Kasus Partai Persatuan Pembangunan Provinsi Diy)</t>
+    <t>Aplikasi Pemantauan Perolehan Suara Partai Politik Dalam Pemilihan Umum Legislatif Dengan Menggunakan Sms Gateway Studi Kasus Partai Persatuan Pembangunan Provinsi Diy</t>
   </si>
   <si>
     <t>Aplikasi Pelayanan Dan Pengaduan Masyarakat Pada Kepolisian Sektor Jogonalan Klaten Berbasis Sms Gateway</t>
@@ -5740,7 +5740,7 @@
     <t>Aplikasi Multimedia Sebagai Sarana Pemasaran Pada Perumahan</t>
   </si>
   <si>
-    <t>Aplikasi Multimedia Sebagai Alat Bantu Belajar Menulis Angka Dan Huruf Bagi Siswa Taman Kanak-Kanak</t>
+    <t>Aplikasi Multimedia Sebagai Alat Bantu Belajar Menulis Angka Dan Huruf Bagi Siswa Taman KanakKanak</t>
   </si>
   <si>
     <t>Aplikasi Multimedia Profil Pariwisata Kabupaten Seram Bagian Timur Dengan Xml Sebagai Dynamic Content</t>
@@ -5755,7 +5755,7 @@
     <t>Aplikasi Multimedia Pembelajaran Jaringan Syaraf Tiruan Pada Materi Perceptron</t>
   </si>
   <si>
-    <t>Aplikasi Multimedia Pembelajaran Ilmu Pengetahuan Alam Pada Materi Kehidupan Jenis-Jenis Hewan</t>
+    <t>Aplikasi Multimedia Pembelajaran Ilmu Pengetahuan Alam Pada Materi Kehidupan JenisJenis Hewan</t>
   </si>
   <si>
     <t>Aplikasi Multimedia Pembelajaran Bahasa Inggris Tentang Grammar Level Basic</t>
@@ -5764,10 +5764,10 @@
     <t>Aplikasi Multimedia Pariwisata Propinsi Nusa Tenggara Timur Sebagai Sarana Informasi</t>
   </si>
   <si>
-    <t>Aplikasi Multimedia Pariwisata Kabupaten Blora Sebagai Sarana Informasi Dengan Menggunakan Xml (Extensible Markup Language)</t>
-  </si>
-  <si>
-    <t>Aplikasi Multimedia Pariwisata &amp; Kebudayaan Di Kota Brebes</t>
+    <t>Aplikasi Multimedia Pariwisata Kabupaten Blora Sebagai Sarana Informasi Dengan Menggunakan Xml Extensible Markup Language</t>
+  </si>
+  <si>
+    <t>Aplikasi Multimedia Pariwisata  Kebudayaan Di Kota Brebes</t>
   </si>
   <si>
     <t>Aplikasi Multimedia Menggunakan Dynamic Content Xml Pada Flash Mx 2004 Untuk Profil Kabupaten Lombok Timur</t>
@@ -5782,10 +5782,10 @@
     <t>Aplikasi Multimedia Interaktif Sebagai Sarana Informasi Pariwisata Di Kabupaten Bangka</t>
   </si>
   <si>
-    <t>Aplikasi Multimedia Interaktif Sebagai Media Pembelajaran Teknologi Informasi Dan Komunikasi Untuk Siswa Sekolah Menengah Atas (Sma)</t>
-  </si>
-  <si>
-    <t>Aplikasi Multimedia Interaktif Sebagai Media Pembelajaran Fisika Bab Tata Surya Untuk Sltp Kelas 9 Dengan Menyertakan Referensi Ayat-Ayat Alquran</t>
+    <t>Aplikasi Multimedia Interaktif Sebagai Media Pembelajaran Teknologi Informasi Dan Komunikasi Untuk Siswa Sekolah Menengah Atas Sma</t>
+  </si>
+  <si>
+    <t>Aplikasi Multimedia Interaktif Sebagai Media Pembelajaran Fisika Bab Tata Surya Untuk Sltp Kelas 9 Dengan Menyertakan Referensi AyatAyat Alquran</t>
   </si>
   <si>
     <t>Aplikasi Multimedia Interaktif Sebagai Media Pemasaran Perumahan Alam Citra Yogyakarta</t>
@@ -5800,22 +5800,22 @@
     <t>Aplikasi Multimedia Gamelan Jawa Untuk Siswa Smki Sekolah Menengah Karawitan Indonesia</t>
   </si>
   <si>
-    <t>Aplikasi Multimedia Coaching Clinic Teknik-Teknik Dasar Sepak Bola Pada Handphone</t>
-  </si>
-  <si>
-    <t>Aplikasi Mobile Untuk Media Promosi Iklan Dan Pemesanan Iklan Menggunakan Java 2 Micro Edition {Studi Kasus: Skb Kedaulatan Rakyat}</t>
-  </si>
-  <si>
-    <t>Aplikasi Mobile Sms Gateway Over Gprs (General Packet Radio Service) (Studi Kasus: Swalayan Madurejo Piyungan Yogyakarta)</t>
+    <t>Aplikasi Multimedia Coaching Clinic TeknikTeknik Dasar Sepak Bola Pada Handphone</t>
+  </si>
+  <si>
+    <t>Aplikasi Mobile Untuk Media Promosi Iklan Dan Pemesanan Iklan Menggunakan Java 2 Micro Edition Studi Kasus Skb Kedaulatan Rakyat</t>
+  </si>
+  <si>
+    <t>Aplikasi Mobile Sms Gateway Over Gprs General Packet Radio Service Studi Kasus Swalayan Madurejo Piyungan Yogyakarta</t>
   </si>
   <si>
     <t>Aplikasi Mobile Kumpulan Doa Harian Islam Untuk Mempermudah Menghafal Doa Berbasis Android</t>
   </si>
   <si>
-    <t>Aplikasi Mobile Commerce Untuk Sistem Informasi Pemesanan Sepeda Motor Impor Pada Dealer Hrc (Honda Racing Cbu)</t>
-  </si>
-  <si>
-    <t>Aplikasi Mobile Commerce Penjualan Suplemen Binaraga Dan Konsultasi Berbasis Wap (Studi Kasus Di Cakra Sport Center Yogyakarta)</t>
+    <t>Aplikasi Mobile Commerce Untuk Sistem Informasi Pemesanan Sepeda Motor Impor Pada Dealer Hrc Honda Racing Cbu</t>
+  </si>
+  <si>
+    <t>Aplikasi Mobile Commerce Penjualan Suplemen Binaraga Dan Konsultasi Berbasis Wap Studi Kasus Di Cakra Sport Center Yogyakarta</t>
   </si>
   <si>
     <t>Aplikasi Mobile Commerce Penjualan Handicraft Berbasis Wap</t>
@@ -5824,13 +5824,13 @@
     <t>Aplikasi Metode Eigenfaces Untuk Pengenalan Wajah</t>
   </si>
   <si>
-    <t>Aplikasi Metode Discrete Hartley Transform (Dht) Untuk Pemampatan Citra</t>
+    <t>Aplikasi Metode Discrete Hartley Transform Dht Untuk Pemampatan Citra</t>
   </si>
   <si>
     <t>Aplikasi Mengenal Huruf Dan Angka Pada Anak Prasekolah</t>
   </si>
   <si>
-    <t>Aplikasi Media Pembelajaran Matematika Sekolah Menengah Atas Kelas Xii Pada Materi Vektor Berbasis Multimedia (Studi Kasus Di Sma Maarif Wates Kulon Progo)</t>
+    <t>Aplikasi Media Pembelajaran Matematika Sekolah Menengah Atas Kelas Xii Pada Materi Vektor Berbasis Multimedia Studi Kasus Di Sma Maarif Wates Kulon Progo</t>
   </si>
   <si>
     <t>Aplikasi Media Pembelajaran Matematika Sekolah Menengah Atas Kelas Xii Pada Materi Vektor Berbasis Multimedia</t>
@@ -5839,16 +5839,16 @@
     <t>Aplikasi Media Pembelajaran Kinematika Partikel Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Aplikasi Media Pembelajaran Dan Simulasi Instalasi Jaringan Lan [Local Area Network] Berbasis Multimedia</t>
+    <t>Aplikasi Media Pembelajaran Dan Simulasi Instalasi Jaringan Lan Local Area Network Berbasis Multimedia</t>
   </si>
   <si>
     <t>Aplikasi Manajemen Keuangan Pribadi Berbasis Web</t>
   </si>
   <si>
-    <t>Aplikasi Manajemen Kegiatan Untuk Organisasi Non-Profit Berbasis Website</t>
-  </si>
-  <si>
-    <t>Aplikasi M-Edukasi Dengan Layanan Berbasis Lokasi Di Kebun Binatang Gembira Loka</t>
+    <t>Aplikasi Manajemen Kegiatan Untuk Organisasi NonProfit Berbasis Website</t>
+  </si>
+  <si>
+    <t>Aplikasi MEdukasi Dengan Layanan Berbasis Lokasi Di Kebun Binatang Gembira Loka</t>
   </si>
   <si>
     <t>Aplikasi Logika Fuzzy Untuk Pendukung Keputusan Penentuan Keluarga Miskin Di Kota Yogyakarta</t>
@@ -5866,10 +5866,10 @@
     <t>Aplikasi Kriptografi Untuk Keamanan File Dengan Menggunakan Algoritma Twofish</t>
   </si>
   <si>
-    <t>Aplikasi Konsultasi Siswa Dengan Pendekatan Sistem Pakar (Studi Kasus Mtsn Prambanan-Sleman)</t>
-  </si>
-  <si>
-    <t>Aplikasi Keamanan Pesan Menggunakan Algoritma Steganografi Dengan Metode Least Significant Bit Pada File Bambar,Audio Dan Video</t>
+    <t>Aplikasi Konsultasi Siswa Dengan Pendekatan Sistem Pakar Studi Kasus Mtsn PrambananSleman</t>
+  </si>
+  <si>
+    <t>Aplikasi Keamanan Pesan Menggunakan Algoritma Steganografi Dengan Metode Least Significant Bit Pada File BambarAudio Dan Video</t>
   </si>
   <si>
     <t>Aplikasi Katalog Dan Pemesanan Buku Di Social Agency Baru Yogyakarta Berbasis Wap</t>
@@ -5878,25 +5878,25 @@
     <t>Aplikasi Kamus Undak Usuk Basa Sunda Berbasis Aturan</t>
   </si>
   <si>
-    <t>Aplikasi Kamus Penterjemah Bahasa Jawa-Indonesia,Indonesia-Jawa, Dan Indonesia-Inggris Menggunakan Pencocokan Tata Bahasa</t>
-  </si>
-  <si>
-    <t>Aplikasi Kamus Penterjemah Bahasa Indonesia-Bima</t>
+    <t>Aplikasi Kamus Penterjemah Bahasa JawaIndonesiaIndonesiaJawa Dan IndonesiaInggris Menggunakan Pencocokan Tata Bahasa</t>
+  </si>
+  <si>
+    <t>Aplikasi Kamus Penterjemah Bahasa IndonesiaBima</t>
   </si>
   <si>
     <t>Aplikasi Kamus Penerjemah Bahasa Indonesia Ke Bahasa Inggris Dan Sebaliknya Dengan Peralihan Teks Ke Suara</t>
   </si>
   <si>
-    <t>Aplikasi Kamus Bahasa Inggris-Indonesia Berbasis Wap</t>
-  </si>
-  <si>
-    <t>Aplikasi Kamus Bahasa Indonesia-Minang Dan Sebaliknya Menggunakan Pendekatan Metode Rule Based</t>
-  </si>
-  <si>
-    <t>Aplikasi Kamus Bahasa Indonesia-Bahasa Sasak Berbasis Wap</t>
-  </si>
-  <si>
-    <t>Aplikasi Jaringan Syraf Tiruan Backpropagation Untuk Diagnosa Medis Penyakit Sistem Peredaran Darah (Cardiovascular System)</t>
+    <t>Aplikasi Kamus Bahasa InggrisIndonesia Berbasis Wap</t>
+  </si>
+  <si>
+    <t>Aplikasi Kamus Bahasa IndonesiaMinang Dan Sebaliknya Menggunakan Pendekatan Metode Rule Based</t>
+  </si>
+  <si>
+    <t>Aplikasi Kamus Bahasa IndonesiaBahasa Sasak Berbasis Wap</t>
+  </si>
+  <si>
+    <t>Aplikasi Jaringan Syraf Tiruan Backpropagation Untuk Diagnosa Medis Penyakit Sistem Peredaran Darah Cardiovascular System</t>
   </si>
   <si>
     <t>Aplikasi Jaringan Syaraf Tiruan Untuk Pengenalan Pola Angka Menggunakan Metode Hebb Rule</t>
@@ -5914,19 +5914,19 @@
     <t>Aplikasi Jaringan Syaraf Tiruan Backpropagation Untuk Deteksi Kerusakan Pada Kendaraan Sepeda Motor</t>
   </si>
   <si>
-    <t>Aplikasi Inventori Obat (Studi Kasus Pada Pt Budi Makmur Jayamurti)</t>
-  </si>
-  <si>
-    <t>Aplikasi Informasi Geografis Untuk Pemetaan Lokasi Atm (Automated Teller Machine) Berdasarkan Lokasi Obyek Wisata Berbasis Web Di Kota Yogyakarta</t>
-  </si>
-  <si>
-    <t>Aplikasi Informasi Geografis Kawasan Pertumbuhan Ekonomi Berbasis Web (Studi Kasus Wilayah Kota Yogyakarta)</t>
+    <t>Aplikasi Inventori Obat Studi Kasus Pada Pt Budi Makmur Jayamurti</t>
+  </si>
+  <si>
+    <t>Aplikasi Informasi Geografis Untuk Pemetaan Lokasi Atm Automated Teller Machine Berdasarkan Lokasi Obyek Wisata Berbasis Web Di Kota Yogyakarta</t>
+  </si>
+  <si>
+    <t>Aplikasi Informasi Geografis Kawasan Pertumbuhan Ekonomi Berbasis Web Studi Kasus Wilayah Kota Yogyakarta</t>
   </si>
   <si>
     <t>Aplikasi Image Morphing Citra 2 Dimensi Menggunakan Metode Field Morphing</t>
   </si>
   <si>
-    <t>Aplikasi General Ledger Untuk Perusahaan Multi Company (Studi Kasus Di Pt Cube Computer Indonesia)</t>
+    <t>Aplikasi General Ledger Untuk Perusahaan Multi Company Studi Kasus Di Pt Cube Computer Indonesia</t>
   </si>
   <si>
     <t>Aplikasi Game Tradisional Berbasis Desktop Pada Permainan Congklak</t>
@@ -5941,7 +5941,7 @@
     <t>Aplikasi Game Pewayangan Gatot Kaca</t>
   </si>
   <si>
-    <t>Aplikasi Fast Fourier Transform (Fft) Untuk Mendeteksi Cacat Citra Tekstur Kain Batik</t>
+    <t>Aplikasi Fast Fourier Transform Fft Untuk Mendeteksi Cacat Citra Tekstur Kain Batik</t>
   </si>
   <si>
     <t>Aplikasi Expert System Untuk Mendiagnosa Penyakit Kelainan Darah Menggunakan Metode Teorema Bayes</t>
@@ -5950,10 +5950,10 @@
     <t>Aplikasi Expert System Diagnosa Penyakit Kandungan Menggunakan Theorema Bayes</t>
   </si>
   <si>
-    <t>Aplikasi Ensiklopedia Propinsi-Propinsi Di Indonesia Berbasis Multimedia</t>
-  </si>
-  <si>
-    <t>Aplikasi Enkripsi-Deskripsi Data Pada Microsoft Word Memanfaatkan Fungsi Random Pada Delphi</t>
+    <t>Aplikasi Ensiklopedia PropinsiPropinsi Di Indonesia Berbasis Multimedia</t>
+  </si>
+  <si>
+    <t>Aplikasi EnkripsiDeskripsi Data Pada Microsoft Word Memanfaatkan Fungsi Random Pada Delphi</t>
   </si>
   <si>
     <t>Aplikasi Enkripsi Sms Dengan Metode Vigenere Berbasis J2Me</t>
@@ -5962,25 +5962,25 @@
     <t>Aplikasi Enkripsi Dekripsi Pada Sms Dengan Algoritma Aes Mode Operasi Cbc Berbasis Android</t>
   </si>
   <si>
-    <t>Aplikasi Encoding Protocol Data Unit (Pdu) Pada Short Message Service (Sms) Pengembangan Pada Pengendalian Pc Menggunakan Mobile</t>
+    <t>Aplikasi Encoding Protocol Data Unit Pdu Pada Short Message Service Sms Pengembangan Pada Pengendalian Pc Menggunakan Mobile</t>
   </si>
   <si>
     <t>Aplikasi Email Untuk Tuna Netra</t>
   </si>
   <si>
-    <t>Aplikasi Email Berbasis Wap (Message Service)</t>
-  </si>
-  <si>
-    <t>Aplikasi Electronic Government G2C (Government To Citizen) Pelayanan Kartu Tanda Penduduk Berbasis Web</t>
-  </si>
-  <si>
-    <t>Aplikasi E-Learning Berbasis Web Untuk Smk (Studi Kasus Smk Muhammadiyah 1 Moyudan)</t>
-  </si>
-  <si>
-    <t>Aplikasi E-Dakwah Berbasis Ponsel Dengan Menggunakan Wap</t>
-  </si>
-  <si>
-    <t>Aplikasi E-Comerce Pemasaran Buku Online Cv Diandra Primamitra Media Dengan Php Dan Mysql</t>
+    <t>Aplikasi Email Berbasis Wap Message Service</t>
+  </si>
+  <si>
+    <t>Aplikasi Electronic Government G2C Government To Citizen Pelayanan Kartu Tanda Penduduk Berbasis Web</t>
+  </si>
+  <si>
+    <t>Aplikasi ELearning Berbasis Web Untuk Smk Studi Kasus Smk Muhammadiyah 1 Moyudan</t>
+  </si>
+  <si>
+    <t>Aplikasi EDakwah Berbasis Ponsel Dengan Menggunakan Wap</t>
+  </si>
+  <si>
+    <t>Aplikasi EComerce Pemasaran Buku Online Cv Diandra Primamitra Media Dengan Php Dan Mysql</t>
   </si>
   <si>
     <t>Aplikasi Deteksi Tepi Untuk Pengenalan Bentuk Daun Menggunakan Operator Prewitt</t>
@@ -5989,22 +5989,22 @@
     <t>Aplikasi Deteksi Tepi Menggunakan Operator Prewitt Untuk Klasifikasi Bentuk Wajah Manusia</t>
   </si>
   <si>
-    <t>Aplikasi Dalam Menentukan Kerusakan Jalan (Studi Kasus Bappeda Kota Yogyakarta)</t>
+    <t>Aplikasi Dalam Menentukan Kerusakan Jalan Studi Kasus Bappeda Kota Yogyakarta</t>
   </si>
   <si>
     <t>Aplikasi Cuti Online Pada Pt Gunung Bayan Pratama Coal Balikpapan</t>
   </si>
   <si>
-    <t>Aplikasi Customer Relationship Management Untuk Pemesanan Tiket Bus Berbasis Short Message Service [Studi Kasus Pada Agen Bus Cepat Budiman Yogyakarta]</t>
-  </si>
-  <si>
-    <t>Aplikasi Customer Relationship Management Jenis Customer Support Berbasis Web (Studi Kasus Pada Po. Sumber Alam Kutoarjo Purworejo)</t>
+    <t>Aplikasi Customer Relationship Management Untuk Pemesanan Tiket Bus Berbasis Short Message Service Studi Kasus Pada Agen Bus Cepat Budiman Yogyakarta</t>
+  </si>
+  <si>
+    <t>Aplikasi Customer Relationship Management Jenis Customer Support Berbasis Web Studi Kasus Pada Po Sumber Alam Kutoarjo Purworejo</t>
   </si>
   <si>
     <t>Aplikasi Costumer Relationship Management Jenis Costumer Self Service Berbasis Short Message Services</t>
   </si>
   <si>
-    <t>Aplikasi Billing Warnet Berbasis Client Server Menggunakan Microsoft Winsock Control 6.0</t>
+    <t>Aplikasi Billing Warnet Berbasis Client Server Menggunakan Microsoft Winsock Control 60</t>
   </si>
   <si>
     <t>Aplikasi Big Book Berbasis Multimedia Dengan Metode Story Telling Untuk Meningkatkan Minat Baca Anak</t>
@@ -6013,7 +6013,7 @@
     <t>Aplikasi Berbasis Multimedia Sebagai Sarana Informasi Pada Museum Affandi Yogyakarta</t>
   </si>
   <si>
-    <t>Aplikasi Berbasis Multimedia Dan Jaringan Client Server Pada Pembelajaran Do'A Untuk Anak</t>
+    <t>Aplikasi Berbasis Multimedia Dan Jaringan Client Server Pada Pembelajaran DoA Untuk Anak</t>
   </si>
   <si>
     <t>Aplikasi Bantu Untuk Menentukan Nilai Eigen Dan Vektor Eigen Berbasis Multimedia</t>
@@ -6025,10 +6025,10 @@
     <t>Aplikasi Bantu Penyelesaian Akuntansi</t>
   </si>
   <si>
-    <t>Aplikasi Bantu Pembelajaran Penyelesaian Sistem Persamaan Linier Menggunakan Metode Gauss, Gauss Jordan, Dan Aturan Cramer Pada Matakuliah Aljabar Linier Dan Matriks</t>
-  </si>
-  <si>
-    <t>Aplikasi Bantu Pembelajaran Online Dengan Perangkat Mobile (Studi Kasus Prodi Teknik Informatika Uad)</t>
+    <t>Aplikasi Bantu Pembelajaran Penyelesaian Sistem Persamaan Linier Menggunakan Metode Gauss Gauss Jordan Dan Aturan Cramer Pada Matakuliah Aljabar Linier Dan Matriks</t>
+  </si>
+  <si>
+    <t>Aplikasi Bantu Pembelajaran Online Dengan Perangkat Mobile Studi Kasus Prodi Teknik Informatika Uad</t>
   </si>
   <si>
     <t>Aplikasi Bantu Pembelajaran Metode Greedy Pada Mata Kuliah Strategi Algoritma Berbasis Multimedia</t>
@@ -6037,7 +6037,7 @@
     <t>Aplikasi Arti Bacaan Shalat Wajib Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Aplikasi Akses Informasi Di Lembaga Bimbingan Belajar Berbasis Sms Gateway Over Gprs (General Packet Radio Service)</t>
+    <t>Aplikasi Akses Informasi Di Lembaga Bimbingan Belajar Berbasis Sms Gateway Over Gprs General Packet Radio Service</t>
   </si>
   <si>
     <t>Animasi Simulasi Penanganan Awal Terjadinya Kebakaran Di Gedung Rumah Sakit Bertingkat</t>
@@ -6049,7 +6049,7 @@
     <t>Animasi Penggunaan Alat Keselamatan Pada Bus Akap Untuk Meningkatkan Pemahaman Penggunaan Alat Keselamatan Kepada Pemumpang Menggunakan Metode Simulasi</t>
   </si>
   <si>
-    <t>Animasi Demonstrasi Cara Menyikat Gigi Pada Anak-Anak</t>
+    <t>Animasi Demonstrasi Cara Menyikat Gigi Pada AnakAnak</t>
   </si>
   <si>
     <t>Animasi Bahaya Anemia Pada Ibu Hamil Menggunakan Metode Frame By Frame Dan Motion Tween</t>
@@ -6058,10 +6058,10 @@
     <t>Animasi Prosedur Pembuatan Dan Perpanjangan Surat Izin Mengemudi</t>
   </si>
   <si>
-    <t>Animasi 2D Berbasis Limited Cut Animation Dan Post Planning Animation Untuk Meningkatkan Pemahaman Terhadap Tokoh Gatotkaca Bagi Anak-Anak Smp</t>
-  </si>
-  <si>
-    <t>Analisis Perbandingan Teknik Segmentasi Citra Digital Menggunakan Metode Level-Set Chan &amp; Vese Dan Lakton</t>
+    <t>Animasi 2D Berbasis Limited Cut Animation Dan Post Planning Animation Untuk Meningkatkan Pemahaman Terhadap Tokoh Gatotkaca Bagi AnakAnak Smp</t>
+  </si>
+  <si>
+    <t>Analisis Perbandingan Teknik Segmentasi Citra Digital Menggunakan Metode LevelSet Chan  Vese Dan Lakton</t>
   </si>
   <si>
     <t>Analisis Perbandingan Metode Two Dimensional Median Filte Dan Multi Level Median Filter Pada Filtering Citra Digital</t>
@@ -6070,19 +6070,19 @@
     <t>Analisis Perbandingan Metode High Pass Intensisty Filtering Dan Metode Median Filtering Untuk Pengurangan Derau Pada Citra Digital</t>
   </si>
   <si>
-    <t>Analisis Perbandingan Antara Metode Huffman Dan Run Length Encoding (Rle)Pada Kompresi Citra Medik</t>
-  </si>
-  <si>
-    <t>Analisis Perbandingan Metode Li Dan Chan-Vese Pada Proses Segmentasi Citra Digital</t>
-  </si>
-  <si>
-    <t>Analisis Penerapan Seo (Search Engine Optimization)Dan Smo (Social Media Optimization) Pada Website Fakultas Di Universitas Ahmad Dahlan Untuk Meningkatkan Peringkat Si Search Engine</t>
-  </si>
-  <si>
-    <t>Analisis Dan Pembuatan Model Customer Relationship Management (Crm) Pada Hotel Citra</t>
-  </si>
-  <si>
-    <t>Analisis Dan Optimasi Media Sosial Sebagai Penudukung E-Learning Dalam Pembelajaran</t>
+    <t>Analisis Perbandingan Antara Metode Huffman Dan Run Length Encoding RlePada Kompresi Citra Medik</t>
+  </si>
+  <si>
+    <t>Analisis Perbandingan Metode Li Dan ChanVese Pada Proses Segmentasi Citra Digital</t>
+  </si>
+  <si>
+    <t>Analisis Penerapan Seo Search Engine OptimizationDan Smo Social Media Optimization Pada Website Fakultas Di Universitas Ahmad Dahlan Untuk Meningkatkan Peringkat Si Search Engine</t>
+  </si>
+  <si>
+    <t>Analisis Dan Pembuatan Model Customer Relationship Management Crm Pada Hotel Citra</t>
+  </si>
+  <si>
+    <t>Analisis Dan Optimasi Media Sosial Sebagai Penudukung ELearning Dalam Pembelajaran</t>
   </si>
   <si>
     <t>Analisis Dan Optimasi Jaringan Menggunakan Teknik Load Balancing</t>
@@ -6091,16 +6091,16 @@
     <t>Analisis Dan Perancangan Proxy Server Menggunakan Virtual Machine</t>
   </si>
   <si>
-    <t>Analisis Dan Optimalisasi Kinerja Hotspot Menggunakan Teknik Wireless Distribution System (Wds) Pada Hotspot Uad</t>
+    <t>Analisis Dan Optimalisasi Kinerja Hotspot Menggunakan Teknik Wireless Distribution System Wds Pada Hotspot Uad</t>
   </si>
   <si>
     <t>Analisis Sistem Manajemen Bandwidth Dengan Metode Htb Menggunakan Sistem Operasi Linux</t>
   </si>
   <si>
-    <t>Analisis Quality Of Service (Qos) Kinerja Software Video Conference Berbasis Wireless</t>
-  </si>
-  <si>
-    <t>Analisis Perbandingan Teknik Watermarking Menggunakan Least Significant Bits (Lsb) Dan Discrete Wavelet Transform (Dwt) Untuk Penyembunyian Informasi Pada Citra Digital</t>
+    <t>Analisis Quality Of Service Qos Kinerja Software Video Conference Berbasis Wireless</t>
+  </si>
+  <si>
+    <t>Analisis Perbandingan Teknik Watermarking Menggunakan Least Significant Bits Lsb Dan Discrete Wavelet Transform Dwt Untuk Penyembunyian Informasi Pada Citra Digital</t>
   </si>
   <si>
     <t>Analisis Perbandingan Metode Ekualisasi Histogram Dan Kontras Biasa Pada Peningkatan Kualitas Kecermelangan Citra</t>
@@ -6109,13 +6109,13 @@
     <t>Analisis Perbandingan Kinerja Server Pada Data Center Iix Dan International Menggunakan Teknologi Cloud Server</t>
   </si>
   <si>
-    <t>Analisis Perbandingan Histogram Equalization Dengan Model Logarithmic Image Processing (Lip)</t>
-  </si>
-  <si>
-    <t>Analisis Perbandingan Efek Smoothing Menggunakan Metode Mean Filter,Modus Filter Median Filter, Dan Gausian Filter Pada Pengolahan Citra</t>
-  </si>
-  <si>
-    <t>Analisis Perbandingan Deteksi Tepi Citra Menggunakan Metode Canny,Gradien, Dan Laplacian Of Gaussian</t>
+    <t>Analisis Perbandingan Histogram Equalization Dengan Model Logarithmic Image Processing Lip</t>
+  </si>
+  <si>
+    <t>Analisis Perbandingan Efek Smoothing Menggunakan Metode Mean FilterModus Filter Median Filter Dan Gausian Filter Pada Pengolahan Citra</t>
+  </si>
+  <si>
+    <t>Analisis Perbandingan Deteksi Tepi Citra Menggunakan Metode CannyGradien Dan Laplacian Of Gaussian</t>
   </si>
   <si>
     <t>Analisis Pengembangan Aplikasi Program Sistem Manajemen Kinerja Di Pt Pertamina Up Vi Balongan Indramayu Jawa Barat</t>
@@ -6127,16 +6127,16 @@
     <t>Analisis Kualitas Komunikasi Data Pada Tower Bersama</t>
   </si>
   <si>
-    <t>Analisis Kinerja Website Universitas Ahmad Dahlan Dng Teknik Seo (Search Engine Optimization) Off Page</t>
-  </si>
-  <si>
-    <t>Analisis Keamanan Data Pada Sistem E-Commerce Dengan Kerangka Kerja Zachman</t>
-  </si>
-  <si>
-    <t>Analisis Empiris Untuk Kerja Algoritma Kriptografi Block Cipher Des (Data Encryption Standard) Dan Gost</t>
-  </si>
-  <si>
-    <t>Analisis Empiris Unjuk Kerja Pada Algoritma Kriptografi Dengan Metode Data Encryption Standard (Des) Dan Rivest Code 5 (Rc5)</t>
+    <t>Analisis Kinerja Website Universitas Ahmad Dahlan Dng Teknik Seo Search Engine Optimization Off Page</t>
+  </si>
+  <si>
+    <t>Analisis Keamanan Data Pada Sistem ECommerce Dengan Kerangka Kerja Zachman</t>
+  </si>
+  <si>
+    <t>Analisis Empiris Untuk Kerja Algoritma Kriptografi Block Cipher Des Data Encryption Standard Dan Gost</t>
+  </si>
+  <si>
+    <t>Analisis Empiris Unjuk Kerja Pada Algoritma Kriptografi Dengan Metode Data Encryption Standard Des Dan Rivest Code 5 Rc5</t>
   </si>
   <si>
     <t>Analisis Empiris Unjuk Kerja Algoritma Kriptografi Rc5 Dan Blowfish Pada Dokumen</t>
@@ -6145,34 +6145,34 @@
     <t>Analisis Empiris Unjuk Kerja Algoritma Kriptografi Alfabetik Shift Cipher Dan Vigenere Cipher</t>
   </si>
   <si>
-    <t>Analisis Empiris Proses Algoritma Des (Data Encryption Standard) Dan Algoritma Blowfish Pada File Dokumen</t>
-  </si>
-  <si>
-    <t>Analisis Empiris Metode Penyisipan Lsb (Least Significant Bits) Dengan Stego Medium Citra Digital Bmp</t>
-  </si>
-  <si>
-    <t>Analisis Efektivitas Lima Hari Kerja Petugas Di Bagian Pendaftaran Poli Rawat Jalan Rsup Dr. Sardjito Yogyakarta</t>
-  </si>
-  <si>
-    <t>Analisis Dan Perancangan Sistem Informasi Simpan Pinjam Pada Baitul Maal Watamwil (Bmt) Berorientasi Objek</t>
-  </si>
-  <si>
-    <t>Analisis Dan Implementasi E-Mall Pada Pemesanan Barang Bagi Usaha Kecil Dan Menengah (Studi Kasus Cv Reza Dan Cv Intan Galery)</t>
+    <t>Analisis Empiris Proses Algoritma Des Data Encryption Standard Dan Algoritma Blowfish Pada File Dokumen</t>
+  </si>
+  <si>
+    <t>Analisis Empiris Metode Penyisipan Lsb Least Significant Bits Dengan Stego Medium Citra Digital Bmp</t>
+  </si>
+  <si>
+    <t>Analisis Efektivitas Lima Hari Kerja Petugas Di Bagian Pendaftaran Poli Rawat Jalan Rsup Dr Sardjito Yogyakarta</t>
+  </si>
+  <si>
+    <t>Analisis Dan Perancangan Sistem Informasi Simpan Pinjam Pada Baitul Maal Watamwil Bmt Berorientasi Objek</t>
+  </si>
+  <si>
+    <t>Analisis Dan Implementasi EMall Pada Pemesanan Barang Bagi Usaha Kecil Dan Menengah Studi Kasus Cv Reza Dan Cv Intan Galery</t>
   </si>
   <si>
     <t>Analisis Bidang Minat Studi Prodi Teknik Informatika Uad Dengan Metode Naive Bayes Classifier</t>
   </si>
   <si>
-    <t>Analisis Arsitektur Client Server Menggunakan Database Terpusat (Studi Kasus Pada Smp Muhammadiyah Purwodadi Purworejo)</t>
-  </si>
-  <si>
-    <t>Analisa Kinerja Websita Universitas Ahmad Dahlan Dengan Teknik Seo (Search Engine Optimization) On Page</t>
+    <t>Analisis Arsitektur Client Server Menggunakan Database Terpusat Studi Kasus Pada Smp Muhammadiyah Purwodadi Purworejo</t>
+  </si>
+  <si>
+    <t>Analisa Kinerja Websita Universitas Ahmad Dahlan Dengan Teknik Seo Search Engine Optimization On Page</t>
   </si>
   <si>
     <t>Analisa Unjuk Kerja Algoritma Kriptografi Transposisi Kolom Dengan Tranposisi Baris</t>
   </si>
   <si>
-    <t>Analisa Perbandingan Performansi Adsl Dan 3G Sebagai Layanan Broadband Internet (Studi Kasus Pengukuran Performansi Pada Adsl Speedy Pt Telkom,3G Xl Pt Excelcomindo Dan 3G Pt Indosat}</t>
+    <t>Analisa Perbandingan Performansi Adsl Dan 3G Sebagai Layanan Broadband Internet Studi Kasus Pengukuran Performansi Pada Adsl Speedy Pt Telkom3G Xl Pt Excelcomindo Dan 3G Pt Indosat</t>
   </si>
   <si>
     <t>Analisa Komparasi Perfoma Rich Media Pada Html5 Dan Flash</t>
@@ -6181,10 +6181,10 @@
     <t>Alat Bantu Riset Operasi Pada Materi Metode Penugasan Berbasis Multimedia</t>
   </si>
   <si>
-    <t>Alat Bantu Pembelajaran Statistik Dengan Materi Uji Chi-Square</t>
-  </si>
-  <si>
-    <t>Alat Bantu Pembelajaran Mata Kuliah Computer Vision Pada Materi Edge-Based Segmentasi Citra Berbasis Multimedia</t>
+    <t>Alat Bantu Pembelajaran Statistik Dengan Materi Uji ChiSquare</t>
+  </si>
+  <si>
+    <t>Alat Bantu Pembelajaran Mata Kuliah Computer Vision Pada Materi EdgeBased Segmentasi Citra Berbasis Multimedia</t>
   </si>
   <si>
     <t>Alat Bantu Pembelajaran Grafika Komputer Transformasi 2D Berbasis Multimedia</t>
@@ -6202,7 +6202,7 @@
     <t>Aplikasi Sms Gateway Sebagai Layanan Pemesanan Taksi Dan Informasi Argo Berbasis Sms</t>
   </si>
   <si>
-    <t>Aplikasi Penerimaan Siswa Baru Reguler (Psb) Online Berbasis Wweb Dan Mobile Dengan Sms Gateway</t>
+    <t>Aplikasi Penerimaan Siswa Baru Reguler Psb Online Berbasis Wweb Dan Mobile Dengan Sms Gateway</t>
   </si>
   <si>
     <t>Aplikasi Pencarian Dan Pemesanan Travelberbasis Mobile Androidmemanfaatkan Google Maps Api Untuk Pencarian Lokasi Travel</t>
@@ -6223,7 +6223,7 @@
     <t>Sistem Informasi Pembayaran Dan Pengelompokan Sumber Biaya Spp Siswa Berbasiss Web Di Smp Muhammadiyah 1 Berbah</t>
   </si>
   <si>
-    <t>Pengembangan Media Komik Panda Dan Kawan-Kawan Pada Materi Pengelompokan Tumbuhan Pelajaran Ipa Untuk Kelas 3 Sd</t>
+    <t>Pengembangan Media Komik Panda Dan KawanKawan Pada Materi Pengelompokan Tumbuhan Pelajaran Ipa Untuk Kelas 3 Sd</t>
   </si>
   <si>
     <t>Pengelompokan Stand Vegetasi Strata Semak Berdasarkan Lingkungan Abiotik Di Sempadan Sungai Boyong Yogyakarta Sebagai Sumber Belajar Biologi Sma Kelas X Pada Materi Pembelajaran Keanekaragaman Hayati</t>
@@ -6235,7 +6235,7 @@
     <t>Pengelompokan Stand Vegetasi Strata Herba Berdasarkan Lingkungan Abiotik Disempadan Sungan Boyong Yogyakarta Sebagai Sumber Belajar Biologi Sma Kelas X Pada Materi Pembelajaran Keanekaragaman Hayati</t>
   </si>
   <si>
-    <t>Pengelompokkan Data Penyakit Berdasarkan Usia Menggunakan Metode Fuzzy C-Means</t>
+    <t>Pengelompokkan Data Penyakit Berdasarkan Usia Menggunakan Metode Fuzzy CMeans</t>
   </si>
   <si>
     <t>Text Mining Menggunakan Metode Single Linkage Dengan Manhattan Distance Similarity Untuk Pengelompokkan Trend Topik Kerja Praktik</t>
@@ -6250,46 +6250,46 @@
     <t>Pengembangan Analisis Sentimen Pada Sistem Indeks Kinerja Dosen Menggunakan Metode Naive Bayes</t>
   </si>
   <si>
-    <t>Penerapan Text Mining Pengelompokkan Judul Kerja Praktek Menggunakan Metode K-Means Clustering Dengan Cosineâ  Similarity</t>
-  </si>
-  <si>
-    <t>Pemanfaatan Text Mining Untuk Mengklasifikasi Sms Spam Porno Dengan Algoritma C4.5</t>
-  </si>
-  <si>
-    <t>Implementasi Text Mining Pengelompokkan Judul Penelitian Dosen Menggunakan Metode K-Medoids Dengan Cosine Similarity</t>
-  </si>
-  <si>
-    <t>Aplikasi Web Dengan Text Mining Untuk Pengelompokkan Judul Jurnal Publikasi Dengan Metode Snn ( Shared Nearest Neighbor)</t>
-  </si>
-  <si>
-    <t>Analisis Sentimen Komentar Tulisan Blog Menggunakan Metode K-Nearest Neighbour</t>
+    <t>Penerapan Text Mining Pengelompokkan Judul Kerja Praktek Menggunakan Metode KMeans Clustering Dengan Cosine Similarity</t>
+  </si>
+  <si>
+    <t>Pemanfaatan Text Mining Untuk Mengklasifikasi Sms Spam Porno Dengan Algoritma C45</t>
+  </si>
+  <si>
+    <t>Implementasi Text Mining Pengelompokkan Judul Penelitian Dosen Menggunakan Metode KMedoids Dengan Cosine Similarity</t>
+  </si>
+  <si>
+    <t>Aplikasi Web Dengan Text Mining Untuk Pengelompokkan Judul Jurnal Publikasi Dengan Metode Snn  Shared Nearest Neighbor</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Komentar Tulisan Blog Menggunakan Metode KNearest Neighbour</t>
   </si>
   <si>
     <t>Analisis Forensik Whats App Mesengger Berbasis Android Menggunakan Metode Text Mining</t>
   </si>
   <si>
-    <t>Rancang Bangun Data Mining Untuk Mencari Pola Asosiasi Data Tracer Studi Dengan Metode Foldarm (Fast Online Dynamic Association Rule Mining)</t>
+    <t>Rancang Bangun Data Mining Untuk Mencari Pola Asosiasi Data Tracer Studi Dengan Metode Foldarm Fast Online Dynamic Association Rule Mining</t>
   </si>
   <si>
     <t>Penerapan Data Mining Dengan Algoritma Apriori Untuk Mendapatkan Pola Penjualan Seblak Cuz</t>
   </si>
   <si>
-    <t>Penerapan Data Mining Untuk Penentuan Penerima Beasiswa Dengan Metode K-Nearest Neighbor (K-Nn) Pada Bimawa Uad</t>
-  </si>
-  <si>
-    <t>Penerapan Data Mining Untuk Menentukan Kelayakan  Kredit Perumahan Menggunakan Metode C45 Di Pt. Pmpp</t>
+    <t>Penerapan Data Mining Untuk Penentuan Penerima Beasiswa Dengan Metode KNearest Neighbor KNn Pada Bimawa Uad</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Untuk Menentukan Kelayakan Kredit Perumahan Menggunakan Metode C45 Di Pt Pmpp</t>
   </si>
   <si>
     <t>Penerapan Data Mining Untuk Melakukan Prediksi Diagnosis Breast Cancer Menggunakan Metode Naive Bayes</t>
   </si>
   <si>
-    <t>Penerapan Data Mining Untuk Klasifikasi Berat Bayi Lahir Rendah Dengan Metode C4.5 (Studi Kasus : Rsud Panembahan Senopati)</t>
-  </si>
-  <si>
-    <t>Penerapan Data Mining Untuk Clustering Status Gizi Bayi Dengan Metode K-Means</t>
-  </si>
-  <si>
-    <t>Penerapan Data Mining Untuk Analisis Pola Asosiasi Dengan Metode Apriori Pada Suku Cadang Motor (Studi Kasus Pada Bengkel Motor Yogyakarta)</t>
+    <t>Penerapan Data Mining Untuk Klasifikasi Berat Bayi Lahir Rendah Dengan Metode C45 Studi Kasus  Rsud Panembahan Senopati</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Untuk Clustering Status Gizi Bayi Dengan Metode KMeans</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Untuk Analisis Pola Asosiasi Dengan Metode Apriori Pada Suku Cadang Motor Studi Kasus Pada Bengkel Motor Yogyakarta</t>
   </si>
   <si>
     <t>Penerapan Data Mining Menggunakan Metode Naive Bayes Untuk Menentukan Jenis Abortus Di Rsud Duta Mulya</t>
@@ -6298,37 +6298,37 @@
     <t>Penerapan Data Mining Dengan Metode Naive Bayes Dalam Memprediksi Jenis Latihan Siswa Pencak Silat Di Organisasi Persaudaraan Setia Hati Terate</t>
   </si>
   <si>
-    <t>Penerapan Data Mining Dalam Pengelompokkan Bank Sampah Kota Yogyakarta Menggunakan Metode K-Medoids</t>
-  </si>
-  <si>
-    <t>Penerapan Data Mining Dalam Mencari Pola Asosiasi Dengan Menggunakan Algoritma Apriori Pada Data Alumni (Studi Kasus : Data Alumni Uad)</t>
-  </si>
-  <si>
-    <t>Penerapan Data Mining Dalam Melakukan Segmentasi Pelanggan Pada Ki-Kha Shop Menggunakan Metode Self Organizing Maps (Som)</t>
-  </si>
-  <si>
-    <t>Penentuan Jenis Produksi Teh Hitam Menggunakan Metode K-Means Clustering Berbasis Web (Studi Kasus Produksi Teh Hitam Ptpn Vii Pagaralam)</t>
-  </si>
-  <si>
-    <t>Pemanfaatan Data Mining Dalam Segmentasi Pelanggan Untuk Customer Relationship Mangement Dengan Fuzzy C-Means</t>
+    <t>Penerapan Data Mining Dalam Pengelompokkan Bank Sampah Kota Yogyakarta Menggunakan Metode KMedoids</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Dalam Mencari Pola Asosiasi Dengan Menggunakan Algoritma Apriori Pada Data Alumni Studi Kasus  Data Alumni Uad</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Dalam Melakukan Segmentasi Pelanggan Pada KiKha Shop Menggunakan Metode Self Organizing Maps Som</t>
+  </si>
+  <si>
+    <t>Penentuan Jenis Produksi Teh Hitam Menggunakan Metode KMeans Clustering Berbasis Web Studi Kasus Produksi Teh Hitam Ptpn Vii Pagaralam</t>
+  </si>
+  <si>
+    <t>Pemanfaatan Data Mining Dalam Segmentasi Pelanggan Untuk Customer Relationship Mangement Dengan Fuzzy CMeans</t>
   </si>
   <si>
     <t>Pemanfaatan Data Mining Dalam Monitoring Evaluasi Pelayanan Kesehatan Peserta Akses Sosial</t>
   </si>
   <si>
-    <t>Klasifikasi Potensi Zakat Di Lazismu Diy Menggunakan Metode K-Nearest Neighbour (K-Nn) Berbasis Web Framework</t>
-  </si>
-  <si>
-    <t>Implementasi Teknik Data Mining Untuk Customer Relationship Management (Crm) Pada Online Shop Tokodiapers.Com Dengan Metode Clustering Fuzzy C-Means</t>
-  </si>
-  <si>
-    <t>Implementasi E-Commerce Dengan Data Mining Sebagai Perekomendasian Barang Kepada Customer Di Toko Batik Of Java</t>
+    <t>Klasifikasi Potensi Zakat Di Lazismu Diy Menggunakan Metode KNearest Neighbour KNn Berbasis Web Framework</t>
+  </si>
+  <si>
+    <t>Implementasi Teknik Data Mining Untuk Customer Relationship Management Crm Pada Online Shop TokodiapersCom Dengan Metode Clustering Fuzzy CMeans</t>
+  </si>
+  <si>
+    <t>Implementasi ECommerce Dengan Data Mining Sebagai Perekomendasian Barang Kepada Customer Di Toko Batik Of Java</t>
   </si>
   <si>
     <t>Implementasi Data Mining Untuk Penentuan Pola Asosiasi Menggunakan Metode Temporal Asosiasi Pada Data Obat</t>
   </si>
   <si>
-    <t>Implementasi Data Mining Untuk Mengelompokkan Data Alumni Menggunakan Metode Fuzzy C-Meanâ  Di Universitas Ahmad Dahlan</t>
+    <t>Implementasi Data Mining Untuk Mengelompokkan Data Alumni Menggunakan Metode Fuzzy CMean Di Universitas Ahmad Dahlan</t>
   </si>
   <si>
     <t>Implementasi Data Mining Untuk Memprediksi Lama Masa Tunggu Mencari Kerja Menggunakan Metode Naive Bayes</t>
@@ -6337,7 +6337,7 @@
     <t>Implementasi Data Mining Dengan Algoritma Apriori Pada Kasus Perekomendasian Bagi Pelanggan Rental Vcd Film</t>
   </si>
   <si>
-    <t>Implementasi Data Mining Dan Analisis Pola Asosiasi Pada Data Alumni Dengan Menggunakan Metode Fp-Growth</t>
+    <t>Implementasi Data Mining Dan Analisis Pola Asosiasi Pada Data Alumni Dengan Menggunakan Metode FpGrowth</t>
   </si>
   <si>
     <t>Data Mining Untuk Pengambilan Keputusan Dalam Memprediksi Fluktuasi Valuta Asing Menggunakan Metode Pohon Keputusan</t>
@@ -6349,10 +6349,10 @@
     <t>Aplikasi Data Mining Dan Penerapan Fuzzy Madm Untuk Perekomendasian Oli Terbaik Bagi Kendaraan Bermotor</t>
   </si>
   <si>
-    <t>Aplikasi Data Mining Untuk Mengklasifikasikan Sekolah Dasar Layak Mendapatkan Akreditasi Sangat Baik (A) Menggunakan Algoritma C4.5</t>
-  </si>
-  <si>
-    <t>Aplikasi Data Mining Untuk Mengklasifikasi Penerima Beasiswa Miskin Dengan Algoritma C4.5 Di Smkn 1 Tarano</t>
+    <t>Aplikasi Data Mining Untuk Mengklasifikasikan Sekolah Dasar Layak Mendapatkan Akreditasi Sangat Baik A Menggunakan Algoritma C45</t>
+  </si>
+  <si>
+    <t>Aplikasi Data Mining Untuk Mengklasifikasi Penerima Beasiswa Miskin Dengan Algoritma C45 Di Smkn 1 Tarano</t>
   </si>
   <si>
     <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/71065/perancangan-model-supply-chain-management-scm-dengan-analisis-balanced-scorecard-bsc-pada-pa-dhanar</t>
@@ -9508,7 +9508,7 @@
     <t>perancangan model supply chain management scm analisis balanced scorecard bsc pa dhanar</t>
   </si>
   <si>
-    <t>media pembelajaran penjadwalan proses berbasis multimedia memudahkan pemahaman mahasiswa mata kuliah sistem operasi</t>
+    <t>media pembelajaran penjadwalan proses berbasis multimedia untuk memudahkan pemahaman mahasiswa mata kuliah sistem operasi</t>
   </si>
   <si>
     <t>website update skor pertandingan sepak bola liga indonesia</t>
@@ -9544,7 +9544,7 @@
     <t>visualisasi pembelajaran biologi sistem pernapasan manusia hewan vertebrata berbasis multimedia</t>
   </si>
   <si>
-    <t>visualisasi pembelajaran algoritma dijkstra mencari lintasan terpendek</t>
+    <t>visualisasi pembelajaran algoritma dijkstra untuk mencari lintasan terpendek</t>
   </si>
   <si>
     <t>visualisasi pembangkit listrik tenaga surya solar sel</t>
@@ -9568,7 +9568,7 @@
     <t>virtual museum kekayon menggunakan aplikasi multimedia interaktif sarana informasi</t>
   </si>
   <si>
-    <t>verifikasi wajah sistem presensi mahasiswa</t>
+    <t>verifikasi wajah untuk sistem presensi mahasiswa</t>
   </si>
   <si>
     <t>visualisasi gerakan jurus dasar seni beladiri tapak suci media bantu pembelajaran berbasis multimedia tiga dimensistudi kasus  ortom tapak suci putera muhammadiyah universitas ahmad dahlan yogyakarta</t>
@@ -9577,13 +9577,13 @@
     <t>translator bahasa mandarin indonesia berbasis wap</t>
   </si>
   <si>
-    <t>theme generator cms wordpress menggunakan teknologi html  mempermudah pembuatan theme media promosi studi kasus synchronous yogyakarta</t>
+    <t>theme generator cms wordpress menggunakan teknologi html  untuk mempermudah pembuatan theme media promosi studi kasus synchronous yogyakarta</t>
   </si>
   <si>
     <t>test interest of multiple intelligences berbasis web studi kasus sd juara yogyakarta</t>
   </si>
   <si>
-    <t>teknologi augmented reality pengembangan aplikasi pengenalan motif songket palembang</t>
+    <t>teknologi augmented reality untuk pengembangan aplikasi pengenalan motif songket palembang</t>
   </si>
   <si>
     <t>the measuring of technology reception in the use ofinformation system of regional library by using modeltechnology acceptence model tam</t>
@@ -9610,31 +9610,31 @@
     <t>sistem penerimaan siswa baru studi kasus smkn  pringgabaya lombok timur ntb</t>
   </si>
   <si>
-    <t>sistem penentuan keterkaitan antar skripsi berdasarkan keyword seeking studi kasus  perpustakaan universitas ahmad dahlan</t>
-  </si>
-  <si>
-    <t>sistem pendukung keputusan pemilihan lokasi pembukaan cabang usaha variasi mobil metode promethee tudi kasus usaha variasi mobil anfa</t>
-  </si>
-  <si>
-    <t>sistem pendukung keputusan meningkatkan akurasi pemberian kredit nasabah metode logika fuzzy tsukamoto studi kasus bmt ash shof kutoarjo</t>
-  </si>
-  <si>
-    <t>sistem pendukung keputusan menentukan supplier terbaik menggunakan metode weighted product</t>
-  </si>
-  <si>
-    <t>sistem pendukung keputusan menentukan peringkat sekolah sma kota yogyakarta berbasis web</t>
-  </si>
-  <si>
-    <t>sistem pendukung keputusan menentukan kualitas jamur</t>
-  </si>
-  <si>
-    <t>sistem pendukung keputusan menentukan hama penyakit tanaman holtikultura komoditas sayuran metode case base reasoning berbasis web</t>
+    <t>sistem penentuan keterkaitan skripsi berdasarkan keyword seeking studi kasus  perpustakaan universitas ahmad dahlan</t>
+  </si>
+  <si>
+    <t>sistem pendukung keputusan untuk pemilihan lokasi pembukaan cabang usaha variasi mobil metode promethee tudi kasus usaha variasi mobil anfa</t>
+  </si>
+  <si>
+    <t>sistem pendukung keputusan untuk meningkatkan akurasi pemberian kredit nasabah metode logika fuzzy tsukamoto studi kasus bmt ash shof kutoarjo</t>
+  </si>
+  <si>
+    <t>sistem pendukung keputusan untuk menentukan supplier terbaik menggunakan metode weighted product</t>
+  </si>
+  <si>
+    <t>sistem pendukung keputusan untuk menentukan peringkat sekolah sma kota yogyakarta berbasis web</t>
+  </si>
+  <si>
+    <t>sistem pendukung keputusan untuk menentukan kualitas jamur</t>
+  </si>
+  <si>
+    <t>sistem pendukung keputusan untuk menentukan hama penyakit tanaman holtikultura komoditas sayuran metode case base reasoning berbasis web</t>
   </si>
   <si>
     <t>sistem pendukung keputusan seleksi calon karyawan metode promethee  studi kasus pamella group yogyakarta</t>
   </si>
   <si>
-    <t>sistem pendukung keputusan penilaian kualitas jenis kayu dijadikan ukiran furniture menggunakan kriteria bayea</t>
+    <t>sistem pendukung keputusan penilaian kualitas jenis kayu untuk dijadikan ukiran furniture menggunakan kriteria bayea</t>
   </si>
   <si>
     <t>sistem pendukung keputusan penentuan lokasi pendirian counter handphone disertai petunjuk lokasi geografisnya kota yogyakarta</t>
@@ -9643,7 +9643,7 @@
     <t>sistem pendukung keputusan penentuan lokasi budidaya jamur tiram metode kriteria bayes</t>
   </si>
   <si>
-    <t>sistem pendukung keputusan penentuan kesesuaian jenis lahan budidaya tanaman buahbuahan menggunakan metode similarity berbasis web</t>
+    <t>sistem pendukung keputusan penentuan kesesuaian jenis lahan untuk budidaya tanaman buahbuahan menggunakan metode similarity berbasis web</t>
   </si>
   <si>
     <t>sistem pendukung keputusan penentuan daerah pencemaran limbah home industri berbasis sig</t>
@@ -9661,46 +9661,46 @@
     <t>sistem pendukung keputusan menentukan pekerjaan berdasarkan tes kepribadian berbasis web</t>
   </si>
   <si>
-    <t>sistem pendukung keputusan klinis mengefisienkan diagnosa penyakit kejiwaan menggunakan case based reasonning</t>
-  </si>
-  <si>
-    <t>sistem pencarian lokasi lampu lalu lintas ptqumicom indonesia berbasis web</t>
-  </si>
-  <si>
-    <t>sistem penalaran berbasis kasus mendiagnosa penyakit gigi mulut</t>
-  </si>
-  <si>
-    <t>sistem pembelajaran interaktif materi pokok lensa berbasis multi media siswa sma kelas xi</t>
-  </si>
-  <si>
-    <t>sistem pakar menentukan pertolongan pertama kecelakaan berbasis mobile</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosis medis penyakit paru menggunakan logika fuzzy</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosis penyakit kasus bedah umum menggunakan metode dempstershafer</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit tanaman pangan menggunakan certainty factor</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit menular hewan manusia zoonosis menggunakan metode demste shafer</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit kulit manusia berbasis fuzzy metode tsukamoto</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit kambing etawa berbasis web</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit hepatitis metode fuzzy</t>
-  </si>
-  <si>
-    <t>sistem pakar endiagnosa penyakit gigi danmulut penggunakan logika fuzzy</t>
-  </si>
-  <si>
-    <t>sistem pakar pendeteksian dini penyakit kelamin berbasis wireles application protocol teorema bayes</t>
+    <t>sistem pendukung keputusan klinis untuk mengefisienkan diagnosa penyakit kejiwaan menggunakan case based reasonning</t>
+  </si>
+  <si>
+    <t>sistem pencarian lokasi lampu lintas ptqumicom indonesia berbasis web</t>
+  </si>
+  <si>
+    <t>sistem penalaran berbasis kasus untuk mendiagnosa penyakit gigi mulut</t>
+  </si>
+  <si>
+    <t>sistem pembelajaran interaktif materi pokok lensa berbasis multi media untuk siswa sma kelas xi</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk menentukan pertolongan pertama kecelakaan berbasis mobile</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosis secara medis penyakit paru menggunakan logika fuzzy</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosis penyakit kasus bedah umum menggunakan metode dempstershafer</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit tanaman pangan menggunakan certainty factor</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit menular hewan manusia zoonosis menggunakan metode demste shafer</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit kulit manusia berbasis fuzzy metode tsukamoto</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit kambing etawa berbasis web</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit hepatitis metode fuzzy</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk endiagnosa penyakit gigi danmulut penggunakan logika fuzzy</t>
+  </si>
+  <si>
+    <t>sistem pakar pendeteksian penyakit kelamin berbasis wireles application protocol teorema bayes</t>
   </si>
   <si>
     <t>sistem pakar menentukan hama penyakit tanaman palawija</t>
@@ -9712,7 +9712,7 @@
     <t>sistem pakar inferensi fuzzy tsukomoto mendiagnosa penyakit saluran reproduksi manusia</t>
   </si>
   <si>
-    <t>sistem pakar berbasis web diagnosa penyakit sapi</t>
+    <t>sistem pakar berbasis web untuk diagnosa penyakit sapi</t>
   </si>
   <si>
     <t>sistem otentikasi user jaringan wireles berbasis web server linux</t>
@@ -9721,7 +9721,7 @@
     <t>sistem konsultasi keuangan menentukan penerimaan pinjaman lkm lembaga keuangan mikro menggunakan metode kneares neighbor</t>
   </si>
   <si>
-    <t>sistem integrasi data mempermudah pertukaran informasi obat antar klinik kesehatan berbasis web service</t>
+    <t>sistem integrasi data untuk mempermudah pertukaran informasi obat klinik kesehatan berbasis web service</t>
   </si>
   <si>
     <t>sistem informasi tracer study alumni universitas ahmad dahlan yogyakarta studi kasus lembaga penelitian pengembangan universitas ahmad dahlan</t>
@@ -9757,7 +9757,7 @@
     <t>sistem informasi hotel yogyakarta berbasis web dukungan posisi geografis</t>
   </si>
   <si>
-    <t>sistem informasi geografis mengetahui penyebaran guru dieilayah kerja departemen agama kabupaten kulon progo berbasis web</t>
+    <t>sistem informasi geografis untuk mengetahui penyebaran guru dieilayah kerja departemen agama kabupaten kulon progo berbasis web</t>
   </si>
   <si>
     <t>sistem informasi geografis tempat praktik dokter spesialis provinsi diyogyakarta berbasis web</t>
@@ -9832,16 +9832,16 @@
     <t>sistem penentuan mahasiswa berprestasi lingkungan kopertis v metode kriteria bayes berbasis multi user</t>
   </si>
   <si>
-    <t>sistem pendukung keputusan seleksi penerimaan beras keluarga miskin menggunakan metode simple additive weighting</t>
+    <t>sistem pendukung keputusan seleksi penerimaan beras untuk keluarga miskin menggunakan metode simple additive weighting</t>
   </si>
   <si>
     <t>sistem pendukung keputusan penentu sanksi siswa melanggar peraturan akademik sekolah metode fuzzy logic studi kasus smk piri i yogyakarta</t>
   </si>
   <si>
-    <t>sistem pendukung keputusan menentukan diagnosis penyakit hewan ternak menggunakan metode case base reasoning</t>
-  </si>
-  <si>
-    <t>sistem pendukung keputusan melacak kecenderungan bakat anak</t>
+    <t>sistem pendukung keputusan untuk menentukan diagnosis penyakit hewan ternak menggunakan metode case base reasoning</t>
+  </si>
+  <si>
+    <t>sistem pendukung keputusan untuk melacak kecenderungan bakat anak</t>
   </si>
   <si>
     <t>sistem pendukung keputusan peramalan permintaan geplak menggunakan metode exponential smoothing studi kasus pabrik geplak cinta rasa dusun tirto triharjo pandak</t>
@@ -9856,7 +9856,7 @@
     <t>sistem pendukung keputusan penentuan posisi pemain olahraga bola voli</t>
   </si>
   <si>
-    <t>sistem pendukung keputusan penentuan penerima jaminan kesehatan masyarakat masyarakat miskin menggunakan kriteria bayes studi kasus dinas kesehatan kabupaten kulon progo</t>
+    <t>sistem pendukung keputusan penentuan penerima jaminan kesehatan masyarakat untuk masyarakat miskin menggunakan kriteria bayes studi kasus dinas kesehatan kabupaten kulon progo</t>
   </si>
   <si>
     <t>sistem pendukung keputusan penentuan penerima beasiswa sekolah menengah pertama smp menggunakan kriteria bayes studi kasus smp negeri  pandak bantul</t>
@@ -9868,10 +9868,10 @@
     <t>sistem pendukung keputusan penentuan kualitas sdm karyawan pt madu baru yogyakarta</t>
   </si>
   <si>
-    <t>sistem pendukung keputusan penentuan kualitas kayu kerajinan meubel</t>
-  </si>
-  <si>
-    <t>sistem pendukung keputusan penentuan kualitas jenis kulit hewan kerajinan kulit pendekatan sistem pakar</t>
+    <t>sistem pendukung keputusan penentuan kualitas kayu untuk kerajinan meubel</t>
+  </si>
+  <si>
+    <t>sistem pendukung keputusan penentuan kualitas jenis kulit hewan untuk kerajinan kulit pendekatan sistem pakar</t>
   </si>
   <si>
     <t>sistem pendukung keputusan penentuan kelayakan lokasi pendirian klinik</t>
@@ -9883,7 +9883,7 @@
     <t>sistem pendukung keputusan penempatan tenaga kesehatan</t>
   </si>
   <si>
-    <t>sistem pendukung keputusan pemilihan lokasi kawasan perumahan kabupaten bantul yogyakarta berbasis web</t>
+    <t>sistem pendukung keputusan pemilihan lokasi untuk kawasan perumahan kabupaten bantul yogyakarta berbasis web</t>
   </si>
   <si>
     <t>sistem pendukung keputusan pemilihan guru berprestasi tingkat sma kota yogyakarta menggunakan kriteria bayes berbasis client server</t>
@@ -9892,16 +9892,16 @@
     <t>sistem pendukung keputusan pemilihan bidang minat mahasiswa teknik informatika metode profile matching berbasis web</t>
   </si>
   <si>
-    <t>sistem pendukung keputusan klinis diagnosa penyakit kandungan berbasis case base reasoning pendekatan sistem pakar</t>
-  </si>
-  <si>
-    <t>sistem pendukung keputusan kesehatan penderita penyalit diabetes mellitus komplikasinya berbasis wap wireless application protocol</t>
-  </si>
-  <si>
-    <t>sistem pendukung keputusan pemetaan meningkatkan ekonomi berbasis industri kecil</t>
-  </si>
-  <si>
-    <t>sistem pendukung keputusan penilaian kinerja pegawai kenaikan jabatan menggunakan metode gap kompetensi</t>
+    <t>sistem pendukung keputusan klinis untuk diagnosa penyakit kandungan berbasis case base reasoning pendekatan sistem pakar</t>
+  </si>
+  <si>
+    <t>sistem pendukung keputusan kesehatan untuk penderita penyalit diabetes mellitus komplikasinya berbasis wap wireless application protocol</t>
+  </si>
+  <si>
+    <t>sistem pendukung keputusan pemetaan untuk meningkatkan ekonomi berbasis industri</t>
+  </si>
+  <si>
+    <t>sistem pendukung keputusan penilaian kinerja pegawai untuk kenaikan jabatan menggunakan metode gap kompetensi</t>
   </si>
   <si>
     <t>sistem pendukung keputusan pemilihan lokasi bengkel metode promethee</t>
@@ -9919,7 +9919,7 @@
     <t>sistem pencarian jalur terpendek trayek bus transjogja</t>
   </si>
   <si>
-    <t>sistem penalaran berbasis kasus penyakit ditularkan nyamuk</t>
+    <t>sistem penalaran berbasis kasus untuk penyakit ditularkan nyamuk</t>
   </si>
   <si>
     <t>sistem pemesanan tiket pertandingan sepak bola berbasis short messages services</t>
@@ -9934,73 +9934,73 @@
     <t>sistem pelacak kendaraan berbasis opengts pt panji sekar yogyakarta</t>
   </si>
   <si>
-    <t>sistem pakar mendiagnosa penyakit lambung implementasi metode cbr casebased reasoning berbasis web</t>
+    <t>sistem pakar untuk mendiagnosa penyakit lambung implementasi metode cbr casebased reasoning berbasis web</t>
   </si>
   <si>
     <t>sistem pakar menentukan jenis perawatan wajahstudi kasus rs pku muh yogyakarta</t>
   </si>
   <si>
-    <t>sistem pakar mengidentifikasi penyakit udang galah metode theorema bayes</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiangnosa penyakit tanaman perkebunan berbasis multimedia</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosis penyakit gangguan tidur berbasis web menggunakan metode certainty factor</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosis kerusakan kamera digital</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit saluran pernafasan paru menggunakan metode certainty factor</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit saluran pencernaan menggunakan metode dempster shafer</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit usus manusia menggunakan metode case based reasoning</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit tanaman serealia</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit tanaman palawija berbasis web</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit tanaman jamur metode certainty factor</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit kelinci metode certainty factor</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit ikan hias berbasis web</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit hewan mamalia</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit lambung menggunakan metode teorema bayes</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa penyakit kelinci berbasis web</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa hama penyakit tanaman bawang merah menggunakan certainty factor</t>
-  </si>
-  <si>
-    <t>sistem pakar mendiagnosa hama penyakit tanaman padi berbasis multimedia</t>
-  </si>
-  <si>
-    <t>sistem pakar identifikasi penyakit umum berbasis web</t>
-  </si>
-  <si>
-    <t>sistem pakar diagnosa penyakit ditularkan hewan lalat manusia berbasis web metode theorema bayes</t>
+    <t>sistem pakar untuk mengidentifikasi penyakit udang galah metode theorema bayes</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiangnosa penyakit tanaman perkebunan berbasis multimedia</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosis penyakit gangguan tidur berbasis web menggunakan metode certainty factor</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosis kerusakan kamera digital</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit saluran pernafasan paru menggunakan metode certainty factor</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit saluran pencernaan menggunakan metode dempster shafer</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit usus manusia menggunakan metode case based reasoning</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit tanaman serealia</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit tanaman palawija berbasis web</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit tanaman jamur metode certainty factor</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit kelinci metode certainty factor</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit ikan hias berbasis web</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit hewan mamalia</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit lambung menggunakan metode teorema bayes</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa penyakit kelinci berbasis web</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa hama penyakit tanaman bawang merah menggunakan certainty factor</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk mendiagnosa hama penyakit tanaman padi berbasis multimedia</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk identifikasi penyakit umum berbasis web</t>
+  </si>
+  <si>
+    <t>sistem pakar untuk diagnosa penyakit ditularkan hewan lalat manusia berbasis web metode theorema bayes</t>
   </si>
   <si>
     <t>sistem pakar penentuan obat antihipertensi penderita penyakit komplikasi metode dempster shafer</t>
   </si>
   <si>
-    <t>sistem pakar penentuan kesesuaian lahan pertanian pembudidayaan tanaman buahbuahan</t>
+    <t>sistem pakar penentuan kesesuaian lahan pertanian untuk pembudidayaan tanaman buahbuahan</t>
   </si>
   <si>
     <t>sistem pakar penentuan jenis penyakit hati metode inferensi fuzzy tsukamoto</t>
@@ -10033,7 +10033,7 @@
     <t>sistem pakar diagnosa kelainan pertumbuhan bayi semasa kandungan</t>
   </si>
   <si>
-    <t>sistem pakar berbasis web mendiagnosa penyakit unggas menggunakan teorema bayes</t>
+    <t>sistem pakar berbasis web untuk mendiagnosa penyakit unggas menggunakan teorema bayes</t>
   </si>
   <si>
     <t>sistem monitoring pemecahan masalah bimbingan konseling siswa mts n gubuk rubuh wonosari</t>
@@ -10054,7 +10054,7 @@
     <t>sistem informasi geografis pemetaan potensi sekolah menengah atas  kejuruan berbasis web</t>
   </si>
   <si>
-    <t>sistem informasi penebusan resep apotek rumah sakit berbasis gateway over gprs menggunakan analisis zachman framework studi kasus rumah sakit pku mohamadiyah jl kh ahmad dahlan nomor  yogyakarta</t>
+    <t>sistem informasi untuk penebusan resep apotek rumah sakit berbasis gateway over gprs menggunakan analisis zachman framework studi kasus rumah sakit pku mohamadiyah jl kh ahmad dahlan nomor  yogyakarta</t>
   </si>
   <si>
     <t>sistem informasi ujian mandiri online berbasis web smp n  srandakan</t>
@@ -10099,7 +10099,7 @@
     <t>sistem informasi manajemen produksi penjualan perusahaan keramik</t>
   </si>
   <si>
-    <t>sistem informasi manajemen pelaporan sentra industri kecil menengah ikmsandang kulit kota yogyakarta berbasis web</t>
+    <t>sistem informasi manajemen pelaporan sentra industri menengah ikmsandang kulit kota yogyakarta berbasis web</t>
   </si>
   <si>
     <t>sistem informasi manajemen budidaya perikanan studi kasus perikanan udang galah engking sholikin</t>
@@ -10129,7 +10129,7 @@
     <t>sistem informasi geografis penyebaran tenaga pengajar wilayah kerja dinas pendidikan kabupaten banyumas</t>
   </si>
   <si>
-    <t>sistem informasi geografis pemetaan lokasi tk aisyiyah bustanul athfal aisyiyah diy</t>
+    <t>sistem informasi geografis untuk pemetaan lokasi tk aisyiyah bustanul athfal aisyiyah diy</t>
   </si>
   <si>
     <t>sistem informasi geografis sentra industri kerajinan daerah istimewa yogyakarta berbasis web</t>
@@ -10198,13 +10198,13 @@
     <t>sistem administrasi penghunian kost wilayah studi kasus rw  janturan umbulharjo yogyakarta</t>
   </si>
   <si>
-    <t>siste pakar mendiagnosa penyakit mata menggunakan logika fuzzy tsukamoto</t>
+    <t>siste pakar untuk mendiagnosa penyakit mata menggunakan logika fuzzy tsukamoto</t>
   </si>
   <si>
     <t>simulasi pemilihan rute terpendek algoritma djikstra menggunakan macromedia flash mx</t>
   </si>
   <si>
-    <t>simulasi proses enkripsi dekripsi algoritma rijndael mendukung proses pembelajaran kriptografi berbasis web</t>
+    <t>simulasi proses enkripsi dekripsi algoritma rijndael untuk mendukung proses pembelajaran kriptografi berbasis web</t>
   </si>
   <si>
     <t>simulasi pembayaran tiket pertandingan sepak bola berbasis wap</t>
@@ -10234,10 +10234,10 @@
     <t>sistem pendukung keputusan menentukan pemenang jasa pemborong proyek metode kriteria bayesstudi kasus dinas pekerjaan umum kabupaten temanggung</t>
   </si>
   <si>
-    <t>sistem pakar diagnosa komplikasi ibu janindimasa kehamilan berbasis mobile</t>
-  </si>
-  <si>
-    <t>sistem pakar berbasis web mengidentifikasi penyakit hewan peliharaan</t>
+    <t>sistem pakar untuk diagnosa komplikasi ibu janindimasa kehamilan berbasis mobile</t>
+  </si>
+  <si>
+    <t>sistem pakar berbasis web untuk mengidentifikasi penyakit hewan peliharaan</t>
   </si>
   <si>
     <t>sistem informasi pengadaan perbaikan jalan berbasis sigdi dinas pekerjaan umum kabupaten purworejo</t>
@@ -10252,16 +10252,16 @@
     <t>rekayasa aplikasi pengolahan data barang berbasiska basis data pt indomarco adi prima tasikmalaya</t>
   </si>
   <si>
-    <t>rekayasa cms open source pembuatan sistem informasi penelitian studi kasus program studi teknik informatika universitas ahmad dahlan</t>
+    <t>rekayasa cms open source untuk pembuatan sistem informasi penelitian studi kasus program studi teknik informatika universitas ahmad dahlan</t>
   </si>
   <si>
     <t>rancangn bangun sig pemantauan penyebaran penyakit dbd kabupaten siak berbasis web</t>
   </si>
   <si>
-    <t>rancangan sistem informasi lowongan pekerjaan smk berbasis website</t>
-  </si>
-  <si>
-    <t>rancang bangun sistem pakar mendiagnosa kerusakan mesin kapal laut</t>
+    <t>rancangan sistem informasi lowongan pekerjaan untuk smk berbasis website</t>
+  </si>
+  <si>
+    <t>rancang bangun sistem pakar untuk mendiagnosa kerusakan mesin kapal laut</t>
   </si>
   <si>
     <t>rancang bangun sistem monitoring terapi arv antiretroviral metode client server berbasis smartphone rsup dr sardjito</t>
@@ -10291,7 +10291,7 @@
     <t>rancang bangun visualisasi model tigadimensi tata surya berbasis teknologi augmented reality</t>
   </si>
   <si>
-    <t>rancang bangun ui user interface ux user experience  aplikasi manajemenâ  skripsi program studi teknik informatika uad</t>
+    <t>rancang bangun ui user interface ux user experience  aplikasi manajemen skripsi program studi teknik informatika uad</t>
   </si>
   <si>
     <t>rancang bangun sistem pendukung keputusan penempatan guru wali kelas berbasis kasus</t>
@@ -10300,7 +10300,7 @@
     <t>rancang bangun sistem manajemen studio rekaman berbasis web</t>
   </si>
   <si>
-    <t>rancang bangun sistem layanan berbasis lokasi mobile marketing produk usaha mikro kecil menengah umkm pemanfaatan konsep intelligent resource monitor irm</t>
+    <t>rancang bangun sistem layanan berbasis lokasi untuk mobile marketing produk usaha mikro menengah umkm pemanfaatan konsep intelligent resource monitor irm</t>
   </si>
   <si>
     <t>rancang bangun sistem informasi manajemen rental mobil yogyakarta berbasis web</t>
@@ -10330,7 +10330,7 @@
     <t>rancang bangun aplikasi website ecommerce desain interior eksterior cv graha anggun abadi</t>
   </si>
   <si>
-    <t>rancang bangun aplikasi web membantu proses belajar mahasiswa teknik informatika uad matakuliah matematika diskret materi kombinatorik</t>
+    <t>rancang bangun aplikasi web untuk membantu proses belajar mahasiswa teknik informatika uad matakuliah matematika diskret materi kombinatorik</t>
   </si>
   <si>
     <t>rancang bangun aplikasi traffic counter memanfaatkan radio frequency identificationrfid</t>
@@ -10345,7 +10345,7 @@
     <t>rancang bangun aplikasi mobile chat room menggunakan koneksi bluetooth</t>
   </si>
   <si>
-    <t>rancang bangun aplikasi game dam daman melestarikan permainan tradisional</t>
+    <t>rancang bangun aplikasi game dam daman guna melestarikan permainan tradisional</t>
   </si>
   <si>
     <t>rancang bangun aplikasi business intelligence uji kinerja unit menggunakan metode balanced scorecard studi kasus bagian antaran mail processing center pt pos indonesia semarang</t>
@@ -10360,13 +10360,13 @@
     <t>rancang bangun sistem informasi kegiatan santri smk maarif pondok pesantren almunawwir krapyak berbasis web dukungan sms gateway</t>
   </si>
   <si>
-    <t>rancang bangun metode kriptografi hybrid pengamanan dokumen digital</t>
+    <t>rancang bangun metode kriptografi hybrid untuk pengamanan dokumen digital</t>
   </si>
   <si>
     <t>prototype internet radio broadcasting</t>
   </si>
   <si>
-    <t>proses dampak keberhasilan seo onpage offpage pagerank index visitor fresh website</t>
+    <t>proses dampak keberhasilan seo onpage offpage pagerank index visitor untuk fresh website</t>
   </si>
   <si>
     <t>program bantu belajar bangunbangun geomatri siswa sd</t>
@@ -10378,7 +10378,7 @@
     <t>profil pariwisata budaya kota pontianak  bahasa berbasis multimedia</t>
   </si>
   <si>
-    <t>prencanaan arsitektur enterprise pengembangan sistem informasi lpm menggunakan kerangka zachman studi kasus universitas xyz</t>
+    <t>prencanaan arsitektur enterprise untuk pengembangan sistem informasi lpm menggunakan kerangka zachman studi kasus universitas xyz</t>
   </si>
   <si>
     <t>prediksi nilai tukar rupiah kurs dollar usa pasar spot menggunakan logika fuzzy berbasis sms</t>
@@ -10387,7 +10387,7 @@
     <t>prediksi konsumsi listrik ikm winner glove menggunakan metode backpropagation</t>
   </si>
   <si>
-    <t>prediksi lama studi mahasiswa s teknik informatika universitas ahmad dahlan berdasarkan prestasi akademik menggunakan metode native bayes</t>
+    <t>prediksi studi mahasiswa s teknik informatika universitas ahmad dahlan berdasarkan prestasi akademik menggunakan metode native bayes</t>
   </si>
   <si>
     <t>perencanaan strategis sistem informasi teknologi informasi menggunakan konsep supply chain management pt madubaru</t>
@@ -10408,10 +10408,10 @@
     <t>perbandingan metode inner product cosine similarity pembuatan sistem identifikasi citra jenis rosella</t>
   </si>
   <si>
-    <t>perangkat lunak bantu pembelajaran pengenalan pahlawan indonesia anak sekolah dasar</t>
-  </si>
-  <si>
-    <t>perangkat lunak bantu pembelajaran pengenalan satwa indonesia anak sekolah dasar</t>
+    <t>perangkat lunak bantu untuk pembelajaran pengenalan pahlawan indonesia untuk anak sekolah dasar</t>
+  </si>
+  <si>
+    <t>perangkat lunak bantu pembelajaran pengenalan satwa indonesia untuk anak sekolah dasar</t>
   </si>
   <si>
     <t>perancangan sistem pendukung keputusan penentuan rumah sehat</t>
@@ -10438,16 +10438,16 @@
     <t>perancangan implementasi film animasi d sholihuun berbasis software open source</t>
   </si>
   <si>
-    <t>perancangan implementasi topik latihan penyusunan paraagraf bahasa indonesia sdkelas v studi kasus sdit lukman alhakim</t>
+    <t>perancangan implementasi topik latihan penyusunan paraagraf bahasa indonesia untuk sdkelas v studi kasus sdit lukman alhakim</t>
   </si>
   <si>
     <t>perancangan implementasi bahasa pemrograman algoena menggunakan notasi algoritma</t>
   </si>
   <si>
-    <t>perancangan implementasi sistem pembelajaran topik struktur kalimat bahasa indonesia sd kelas iv studi kasus sdit lukman al hakim yogyakarta</t>
-  </si>
-  <si>
-    <t>perancangan sistem pakar mendeteksi hama penyakit tanaman cengkeh berbasis website</t>
+    <t>perancangan implementasi sistem pembelajaran topik struktur kalimat bahasa indonesia untuk sd kelas iv studi kasus sdit lukman al hakim yogyakarta</t>
+  </si>
+  <si>
+    <t>perancangan sistem pakar untuk mendeteksi hama penyakit tanaman cengkeh berbasis website</t>
   </si>
   <si>
     <t>perancangan sistem monitoring bandwidth internet berbasis sms</t>
@@ -10474,7 +10474,7 @@
     <t>perancangan emall media informasi pembelian buku berbasis wap</t>
   </si>
   <si>
-    <t>perancangan elibrary perpustakaan sekolah dasar menyediakan referensi belajar siswa menggunakan web service</t>
+    <t>perancangan elibrary perpustakaan sekolah dasar untuk menyediakan referensi belajar siswa menggunakan web service</t>
   </si>
   <si>
     <t>perancangan pembuatan sistem aplikasi media penyuluhan pengolahan informasi batu permata berbasis multimedia</t>
@@ -10492,13 +10492,13 @@
     <t>perancangan implementasi web ecommerce pemesanan penjualan fashion bali island</t>
   </si>
   <si>
-    <t>perancangan implementasi sistem pembelajaran bahasa indonesia topik kata imbuhan sd kelas v studi kasus sdit lukman al hakim yogyakarta</t>
+    <t>perancangan implementasi sistem pembelajaran bahasa indonesia topik kata imbuhan untuk sd kelas v studi kasus sdit lukman al hakim yogyakarta</t>
   </si>
   <si>
     <t>perancangan implementasi perangkat lunak belajar dasar bahasa mandarin</t>
   </si>
   <si>
-    <t>perancangan implementasi pembelajaran perkalian pembagian bilangan sekolah dasar kelas  studi kasus sd it lukman al hakim yogyakarta</t>
+    <t>perancangan implementasi pembelajaran perkalian pembagian bilangan untuk sekolah dasar kelas  studi kasus sd it lukman al hakim yogyakarta</t>
   </si>
   <si>
     <t>perancangan implementasi media informasi buku berbasis multimedia studi kasus toko buku gramedia yogyakarta</t>
@@ -10537,13 +10537,13 @@
     <t>pengukuran ereadiness dosen yokyakarta perkuliahan berbasis elearning</t>
   </si>
   <si>
-    <t>pengingat otomatis aotomatic reminder berbasis sms nasabah perusahaan pegasaian</t>
-  </si>
-  <si>
-    <t>penggunaan aplikasi sms manajemen inventory perusahaanstudi kasus cv gunung jati distributor keramik wilayah jawa tengah</t>
-  </si>
-  <si>
-    <t>penggunaan algoritma asosiasi apriori mencari hubungan keaktifan kelulusan karir mahasiswa</t>
+    <t>pengingat otomatis aotomatic reminder berbasis sms untuk nasabah perusahaan pegasaian</t>
+  </si>
+  <si>
+    <t>penggunaan aplikasi sms untuk manajemen inventory perusahaanstudi kasus cv gunung jati distributor keramik wilayah jawa tengah</t>
+  </si>
+  <si>
+    <t>penggunaan algoritma asosiasi apriori untuk mencari hubungan keaktifan kelulusan karir mahasiswa</t>
   </si>
   <si>
     <t>pengenalan perkembangan teknologi informasi  komunikasi tik sekolah dasar kelas ii bentuk media pembelajaran interaktif berbasis multimedia studi kasus sd negeri ngoto sewon bantul yogyakata</t>
@@ -10552,7 +10552,7 @@
     <t>pengembangan web service oauth  web portal studi kasus modul kerja praktik portal program studi teknik informatika universitas ahmad dahlan</t>
   </si>
   <si>
-    <t>pengembangan user experience website design menggunakan kansei engineering teknologi flat and adaptive clothing store meningkatkan kemudahan kenyamanan pengguna</t>
+    <t>pengembangan user experience website design menggunakan kansei engineering teknologi flat and adaptive clothing store untuk meningkatkan kemudahan kenyamanan pengguna</t>
   </si>
   <si>
     <t>pengembangan sistem penentuan jabatan struktural penempatan wali kelas smk batur jaya  ceper klaten</t>
@@ -10561,7 +10561,7 @@
     <t>pengembangan sistem informasi manajemen penyelenggaraan pertandingan pencak silat tapak suci</t>
   </si>
   <si>
-    <t>pengembangan sistem informasi administrasi kependudukan penyusunan profil kependudukan kantor kecamatan patikraja kabupayen banyumas berbasis web</t>
+    <t>pengembangan sistem informasi administrasi kependudukan untuk penyusunan profil kependudukan kantor kecamatan patikraja kabupayen banyumas berbasis web</t>
   </si>
   <si>
     <t>pengembangan pariwisata kab bantul berbasis multimedia</t>
@@ -10582,7 +10582,7 @@
     <t>pengembangan media konsultasi diagnosa penyakit ginjal saluran kemih memanfaatkan metode teorema bayes berbasis web</t>
   </si>
   <si>
-    <t>pengembangan komponen ocx pembuatan label barcode menggunakan metode code  suatu aplikasi</t>
+    <t>pengembangan komponen ocx untuk pembuatan label barcode menggunakan metode code  aplikasi</t>
   </si>
   <si>
     <t>pengembangan aplikasi sistem pakar mendiagnosa penyakit hewan peliharaan berbasis mobile</t>
@@ -10594,7 +10594,7 @@
     <t>pengembangan aplikasi jaringan saraf tiruan mendiagnosa penyakit epilepsi metode hebb rule delta rule</t>
   </si>
   <si>
-    <t>pengembangan aplikasi generator modul cms lokomedia mempermudah pengembangan sistem berbasis web</t>
+    <t>pengembangan aplikasi generator modul cms lokomedia untuk mempermudah pengembangan sistem berbasis web</t>
   </si>
   <si>
     <t>pengembangan animasi penyuluhan siaga bencana gempa bumi menggunakan metode frame by frame tweening</t>
@@ -10606,7 +10606,7 @@
     <t>pengembangan sistem perpustakaan online sekolah muhammadiyah yogyakarta berbasis web service</t>
   </si>
   <si>
-    <t>pengembangan sistem pendukung keputusan kelanjutan kontrak kerja karyawan percetakan studi kasus percetakan muhammadiyah surya sarana grafika</t>
+    <t>pengembangan sistem pendukung keputusan untuk kelanjutan kontrak kerja karyawan percetakan studi kasus percetakan muhammadiyah surya sarana grafika</t>
   </si>
   <si>
     <t>pengembangan sistem pakar troubleshooting komputer berbasis web</t>
@@ -10642,7 +10642,7 @@
     <t xml:space="preserve">pengembangan kualitas layanan website menggunakan metode analisis webqual </t>
   </si>
   <si>
-    <t>pengembangan game susun angka menjembatani anak usia dini belajar berhitung tk tat twam asi</t>
+    <t>pengembangan game susun angka untuk menjembatani anak usia belajar berhitung tk tat twam asi</t>
   </si>
   <si>
     <t>pengembangan implementasi algoritma cipher block chaining row transposition</t>
@@ -10657,7 +10657,7 @@
     <t>pengembangan aplikasi sistem pengukuran compeency level index berbasis web studi kasus perum perhutani kantor unit iii</t>
   </si>
   <si>
-    <t>pengembangan aplikasi sistem pakar diagnosa penyakit anak menggunakan metode dempster shafer berbasis web</t>
+    <t>pengembangan aplikasi sistem pakar untuk diagnosa penyakit anak menggunakan metode dempster shafer berbasis web</t>
   </si>
   <si>
     <t>pengembangan aplikasi sistem pakar mendiagnosa penyakit kulit berbasis multimedia</t>
@@ -10687,10 +10687,10 @@
     <t>pengamanan database mysql web serangan sql injection</t>
   </si>
   <si>
-    <t>penerjemah bahasa indonesia melayu rokan sebaliknya dilengkapi pemeriksa kalimat ambigu berbasis web</t>
-  </si>
-  <si>
-    <t>penerapan web service sistem penilaian kuliah kerja nyata universitas ahmad dahlan</t>
+    <t>penerjemah bahasa indonesia melayu rokan dilengkapi pemeriksa kalimat ambigu berbasis web</t>
+  </si>
+  <si>
+    <t>penerapan web service untuk sistem penilaian kuliah kerja nyata universitas ahmad dahlan</t>
   </si>
   <si>
     <t>penerapan sistem keamanan honeypot ids jaringan nirkabel hotspot</t>
@@ -10780,7 +10780,7 @@
     <t>pembuatan perencanaan arsitektur enterprise teknologi informasi lembaga pelatihan pengembangan softskill metode zachman framework studi kasus universitas xyz</t>
   </si>
   <si>
-    <t>pembuatan model tata kelola it proses akademik menggunakan cobit  studi kasus  universitas xyz</t>
+    <t>pembuatan model tata kelola it untuk proses akademik menggunakan cobit  studi kasus  universitas xyz</t>
   </si>
   <si>
     <t>pembuatan model sistem mgovernment studi kasus  pemerintah kota yogyakarta</t>
@@ -10822,7 +10822,7 @@
     <t>pembuatan model customer relationship management crm egovernment dinas kelautan perikanan diy</t>
   </si>
   <si>
-    <t>pembuatan model customer relationship management crm dinas perindustrian perdagangan koperasi usaha kecil menengah studi kasus dinas perindakop provinsi diy</t>
+    <t>pembuatan model customer relationship management crm dinas perindustrian perdagangan koperasi usaha menengah studi kasus dinas perindakop provinsi diy</t>
   </si>
   <si>
     <t>pembuatan model customer relationship management crm dinas kesehatan kota yogyakarta</t>
@@ -10831,10 +10831,10 @@
     <t>pembuatan model customer relationship management crm dinas kesehatan diy menggunakan delivery and support ds</t>
   </si>
   <si>
-    <t>pembuatan media pembelajaran proses konversi finate automata berbasis multimedia</t>
-  </si>
-  <si>
-    <t>pembuatan game edukatif tata tertib lalu lintas anak usia dini</t>
+    <t>pembuatan media pembelajaran untuk proses konversi finate automata berbasis multimedia</t>
+  </si>
+  <si>
+    <t>pembuatan game edukatif tata tertib lintas untuk anak usia</t>
   </si>
   <si>
     <t>pembuatan film animasi pendek dahsyatnya sedekah berbasis multimedia menggunakan teknik d hybrid animation pemanfaatan graphic</t>
@@ -10855,22 +10855,22 @@
     <t>pembuatan e commerce templates media informasi pemasaran studi kasus seagara itc distributor</t>
   </si>
   <si>
-    <t>pembuatan arsitektur enterprise menggunakan enterprise architecture planning strategis sistem informasi panti sosial pamadri putra diy</t>
+    <t>pembuatan arsitektur enterprise menggunakan enterprise architecture planning untuk strategis sistem informasi panti sosial pamadri putra diy</t>
   </si>
   <si>
     <t>pembuatan aplikasi transliterator translator berbahasa batak</t>
   </si>
   <si>
-    <t>pembuatan aplikasi supply chain management berbasis web service membantu distribusi batik menggunakan php mysql</t>
-  </si>
-  <si>
-    <t>pembuatan aplikasi multimedia pembelajaran bahasa daerah daya sampit percakapan sehari hari sekolah dasar sd</t>
+    <t>pembuatan aplikasi supply chain management berbasis web service untuk membantu distribusi batik menggunakan php mysql</t>
+  </si>
+  <si>
+    <t>pembuatan aplikasi multimedia pembelajaran bahasa daerah daya sampit percakapan sehari hari untuk sekolah dasar sd</t>
   </si>
   <si>
     <t>pembuatan aplikasi bacaan shalat wajib doa shalat teknik on over mouse</t>
   </si>
   <si>
-    <t>pembelajaran dasar huruf jawa berbasis multimedia macromedia flash siswa sekolah dasar</t>
+    <t>pembelajaran dasar huruf jawa berbasis multimedia macromedia flash untuk siswa sekolah dasar</t>
   </si>
   <si>
     <t>pembelajaran teknik dasar sepakbola berbasis multimedia</t>
@@ -10888,13 +10888,13 @@
     <t>pembangunan sistem informasi agenda majelis ilmu masjid yogyakarta menggunakan gmap geolocation twitter api berbasis web mobile</t>
   </si>
   <si>
-    <t>pembangunan sistem informasi kecelakaan lalu lintas berbasis web studi kasus satlantas polres magelang</t>
-  </si>
-  <si>
-    <t>pembangunan pusat informasi obat mempermudah pencarian data obat masyarakat berbasis information retrieval</t>
-  </si>
-  <si>
-    <t>pembangunan web proxy mikrotik mendukung internet sehat smk muhammadiyah  patuk gunungkidul</t>
+    <t>pembangunan sistem informasi kecelakaan lintas berbasis web studi kasus satlantas polres magelang</t>
+  </si>
+  <si>
+    <t>pembangunan pusat informasi obat untuk mempermudah pencarian data obat masyarakat berbasis information retrieval</t>
+  </si>
+  <si>
+    <t>pembangunan web proxy mikrotik untuk mendukung internet sehat smk muhammadiyah  patuk gunungkidul</t>
   </si>
   <si>
     <t>pembangunan web monitoring cbt menggunakan sistem basis data terdistribusi sistem computer based test ukdgi ujian kompetensi dokter gigi indonesia</t>
@@ -10921,34 +10921,34 @@
     <t>pemanfaatan teknik tweening character library pembuatan film animasi pendek indahnya perbedaan berteman</t>
   </si>
   <si>
-    <t>pemanfaatan sistem informasi geografis pemetaan industri kecil kabupaten klaten berbasis web</t>
-  </si>
-  <si>
-    <t>pemanfaatan sistem informasi geografis berbasis web pemetaan sebaran sumber benih tanaman hutan jawa madura</t>
-  </si>
-  <si>
-    <t>pemanfaatan sistem informasi geografis sig pemetaan lokasi pemasaran produk studi kasus pt heinz abc indonesia cabang yogyakarta</t>
+    <t>pemanfaatan sistem informasi geografis untuk pemetaan industri kabupaten klaten berbasis web</t>
+  </si>
+  <si>
+    <t>pemanfaatan sistem informasi geografis berbasis web untuk pemetaan sebaran sumber benih tanaman hutan jawa madura</t>
+  </si>
+  <si>
+    <t>pemanfaatan sistem informasi geografis sig untuk pemetaan lokasi pemasaran produk studi kasus pt heinz abc indonesia cabang yogyakarta</t>
   </si>
   <si>
     <t>pemanfaatan multimedia media pembelajaran motion and optical flow mata kuliah computer vision</t>
   </si>
   <si>
-    <t>pemanfaatan multimedia sistem pakar mendiagnosa penyakit tulang</t>
-  </si>
-  <si>
-    <t>pemanfaatan google maps api pembangunan sistem informasi manajemen bantuan logistik pasca bencana alam berbasis mobile web</t>
+    <t>pemanfaatan multimedia sistem pakar untuk mendiagnosa penyakit tulang</t>
+  </si>
+  <si>
+    <t>pemanfaatan google maps api untuk pembangunan sistem informasi manajemen bantuan logistik pasca bencana alam berbasis mobile web</t>
   </si>
   <si>
     <t>pemanfaatan clientserver media pembelajaran alat ukur smk jurusan elektronika berbasis multimedia</t>
   </si>
   <si>
-    <t>pemanfaatan aplikasi multimedia iklan layanan masyarakat meningkatkan kesadaran menggunakan helm berkendara baik</t>
+    <t>pemanfaatan aplikasi multimedia iklan layanan masyarakat untuk meningkatkan kesadaran menggunakan helm berkendara baik</t>
   </si>
   <si>
     <t>panduan teknik pijat bayi berbasis multimedia</t>
   </si>
   <si>
-    <t>perbedaan motivasi menyelesaikan skripsi mahasiswa bekerja mahasiswa tidak bekerja mahasiswa jurusan teknik informatika universitas ahmad dahlan</t>
+    <t>perbedaan motivasi menyelesaikan skripsi mahasiswa bekerja mahasiswa bekerja mahasiswa jurusan teknik informatika universitas ahmad dahlan</t>
   </si>
   <si>
     <t>perancangan model siti pendekatan supply chain management cv alas djogja</t>
@@ -10957,7 +10957,7 @@
     <t>perancangan analisis vpn virtual private network menggunakan ltp layer  tunneling protocol  ipsec ip security kantor pemasaran bpjs kesehatan yogyakarta</t>
   </si>
   <si>
-    <t>peranan fotografi penyajian informasi pariwisata provinsi yogyakarta melalui sistem berbasis lokasi</t>
+    <t>peranan fotografi penyajian informasi pariwisata provinsi yogyakarta sistem berbasis lokasi</t>
   </si>
   <si>
     <t>pengembangan web profil cvbaitusoft menggunakan framework ci</t>
@@ -10978,7 +10978,7 @@
     <t>optimasi frame rate game dikembangkan fps creator</t>
   </si>
   <si>
-    <t>optimasi raw material menekan biaya pembuatan beton siap pakai ready mix studi kasus pt patsean sumber rejeki</t>
+    <t>optimasi raw material untuk menekan biaya pembuatan beton siap pakai ready mix studi kasus pt patsean sumber rejeki</t>
   </si>
   <si>
     <t>optimasi penyimpanan cache menggunakan coss cyclic object storage system studi kasus smp muhammadiyah  yogyakarta</t>
@@ -10996,10 +10996,10 @@
     <t>optimasi kinerja jaringan menggunakan metode schedulerstudi kasus laboratorium jaringan universitas ahmad dahlan</t>
   </si>
   <si>
-    <t>natural language translator bahasa indonesia bahasa jepang berbasis wap</t>
-  </si>
-  <si>
-    <t>multimedia pembelajaran surat undangan laporan hasil pengamatan sd kelas v studi kasus sdit lukman al hakim yogyakarta</t>
+    <t>natural language translator untuk bahasa indonesia bahasa jepang berbasis wap</t>
+  </si>
+  <si>
+    <t>multimedia pembelajaran surat undangan laporan hasil pengamatan untuk sd kelas v studi kasus sdit lukman al hakim yogyakarta</t>
   </si>
   <si>
     <t>multimedia pembelajaran logika informatika materi pokok tabel kebenaran</t>
@@ -11008,13 +11008,13 @@
     <t>multimedia pembelajaran diagonalisasi matriks</t>
   </si>
   <si>
-    <t>multimedia pembelajaran bahasa indonesia pantun puisi siswa sd kelas iv kelas v studi kasus sdit lukman al hakim</t>
+    <t>multimedia pembelajaran bahasa indonesia pantun puisi untuk siswa sd kelas iv kelas v studi kasus sdit lukman al hakim</t>
   </si>
   <si>
     <t>model sistem pendukung keputusan penilaian kelayakan pemberian kredit</t>
   </si>
   <si>
-    <t>model perencanaan enterprice architecture planning eap cv msa furniture zachman framework strategi pengembangan sistem informasi teknologi informasi</t>
+    <t>model perencanaan enterprice architecture planning eap cv msa furniture zachman framework untuk strategi pengembangan sistem informasi teknologi informasi</t>
   </si>
   <si>
     <t>model penentuan status gizi balita puskesmas</t>
@@ -11023,34 +11023,34 @@
     <t>model customer relationship management crm hotel xyz menggunakan metode iris bahan acuan pembangunan sistem informasi crm</t>
   </si>
   <si>
-    <t>mobile application menggunakan personal digital assistance pda mendukung pelayanan pengunjung restoran</t>
+    <t>mobile application menggunakan personal digital assistance pda untuk mendukung pelayanan pengunjung restoran</t>
   </si>
   <si>
     <t>metode pembelajaran pemrograman web materi html berbasis multimedia</t>
   </si>
   <si>
-    <t>membangun sistem pelacakan barang realtime berbasis mobile push notification</t>
+    <t>membangun sistem pelacakan barang secara realtime berbasis mobile push notification</t>
   </si>
   <si>
     <t>membangun sistem informasi nilai siswa sman lape pendekatan ood</t>
   </si>
   <si>
-    <t>membangun sistem basis pengetahuan penyakit tanaman jenis umbiumbian berbasis multimedia</t>
-  </si>
-  <si>
-    <t>membangun sistem informasi geografis mengetahui letak smu smk sederajat purwokwerto berbasis web</t>
+    <t>membangun sistem basis pengetahuan untuk penyakit tanaman jenis umbiumbian berbasis multimedia</t>
+  </si>
+  <si>
+    <t>membangun sistem informasi geografis untuk mengetahui letak smu smk sederajat purwokwerto berbasis web</t>
   </si>
   <si>
     <t>membangun image editor online terhubung facebook api</t>
   </si>
   <si>
-    <t>membangun game education saringman menanamkan kebersihan sejak dini anak</t>
+    <t>membangun game education saringman guna menanamkan kebersihan anak</t>
   </si>
   <si>
     <t>membangun aplikasi e learning fkip universitas muhammadiyah purworejo</t>
   </si>
   <si>
-    <t>membangun aplikasi autogenerate script flowchart mendukung business process reengineering</t>
+    <t>membangun aplikasi autogenerate script flowchart untuk mendukung business process reengineering</t>
   </si>
   <si>
     <t>membangun sistem vrrp virtual router redundancy protocol menggunakan sistem operasi freebsd studi kasus laboratorium jaringan uad</t>
@@ -11059,13 +11059,13 @@
     <t>membangun sistem terintegrasi berbasis web sdit luqman alhakim</t>
   </si>
   <si>
-    <t>membangun sistem pembuatan resep obat mencegah pemalsuan teknik code generator berbasis web</t>
-  </si>
-  <si>
-    <t>membangun eshop kerajinan kulit manding yogyakarta menggunakan framework codeigniter</t>
-  </si>
-  <si>
-    <t>membangun basis pengetahuan mendiagnosa penyakit kelamin model penalaran berbasis kasus case based reasoning</t>
+    <t>membangun sistem pembuatan resep obat untuk mencegah pemalsuan teknik code generator berbasis web</t>
+  </si>
+  <si>
+    <t>membangun eshop untuk kerajinan kulit manding yogyakarta menggunakan framework codeigniter</t>
+  </si>
+  <si>
+    <t>membangun basis pengetahuan untuk mendiagnosa penyakit kelamin model penalaran berbasis kasus case based reasoning</t>
   </si>
   <si>
     <t>membangun aplikasi pembelajaran penyederhanaan fungsi boolean metode quinemccluskey</t>
@@ -11077,7 +11077,7 @@
     <t>media pembelajaran teori bahasa automata materi push down automata berbasis multimedia</t>
   </si>
   <si>
-    <t>media pembelajaran pecahan sederhana penggunaannya pemecahan masalah sekolah dasar sd kelas  studi kasus sdit lukman al hakim yogyakarta</t>
+    <t>media pembelajaran pecahan sederhana penggunaannya pemecahan masalah untuk sekolah dasar sd kelas  studi kasus sdit lukman al hakim yogyakarta</t>
   </si>
   <si>
     <t>media pembelajaran pondasi algoritma genetika optimasi combinatorial berbasis multimedia</t>
@@ -11116,7 +11116,7 @@
     <t>media pembelajaran jaringan saraf tiruan materi mesin boltzman berbasis multimedia</t>
   </si>
   <si>
-    <t>media pembelajaran interaktif kimia materi reaksi oksidasi siswa sma kelas x berbasis multimedia</t>
+    <t>media pembelajaran interaktif kimia materi reaksi oksidasi untuk siswa sma kelas x berbasis multimedia</t>
   </si>
   <si>
     <t>media pembelajaran himpunan fuzzy berbasis multimedia</t>
@@ -11125,7 +11125,7 @@
     <t>media pembelajaran entity relationship diagram berbasis multimedia</t>
   </si>
   <si>
-    <t>media pembelajaran bahasa indonesia menentukan tema topik cerita sekolah dasar kelas  studi kaus sdit lukman al hakim yogyakarta</t>
+    <t>media pembelajaran bahasa indonesia menentukan tema topik cerita untuk sekolah dasar kelas  studi kaus sdit lukman al hakim yogyakarta</t>
   </si>
   <si>
     <t>media pembelajaran algoritma kriptografi product cipher termodifikasi</t>
@@ -11134,7 +11134,7 @@
     <t>media pembelajaran transformasi citra mata kuliah pengolahan citra berbasis multimedia</t>
   </si>
   <si>
-    <t>media konsultasi penyakit saluran pernafasan manusia menggunakan metode case base reasoning</t>
+    <t>media konsultasi untuk penyakit saluran pernafasan manusia menggunakan metode case base reasoning</t>
   </si>
   <si>
     <t>media pembelajaran teori bahasa otomata materi dfa nfa berbasis multimedia</t>
@@ -11143,10 +11143,10 @@
     <t>media pembelajaran teori bahasa otomata pokok bahasan finite automata fa berbasis multimedia</t>
   </si>
   <si>
-    <t xml:space="preserve">media pembelajaran menggunakan pengukuran waktu panjang berat pemecahan masalah sekolah dasar sd kelas </t>
-  </si>
-  <si>
-    <t>media pembelajaran teknologi informasi komunikasi tik berbasis multimedia kelas vii semester igasal studi kasus smp n  moyudan slemanyogyakarta</t>
+    <t xml:space="preserve">media pembelajaran menggunakan pengukuran waktu panjang berat pemecahan masalah untuk sekolah dasar sd kelas </t>
+  </si>
+  <si>
+    <t>media pembelajaran teknologi informasi komunikasi tik berbasis multimedia untuk kelas vii semester igasal studi kasus smp n  moyudan slemanyogyakarta</t>
   </si>
   <si>
     <t>media pembelajaran strategi algoritma pokok bahasan pohon merentang minimum pencarian lintasan terpendek</t>
@@ -11161,7 +11161,7 @@
     <t>media pembelajaran ruang hasil kali untuk mata kuliah aljabar linier matriks berbasis multimedia</t>
   </si>
   <si>
-    <t>media pembelajaran riset operasi metode duality linear programming berbasis multimedia</t>
+    <t>media pembelajaran riset operasi untuk metode duality linear programming berbasis multimedia</t>
   </si>
   <si>
     <t>media pembelajaran riset operasi pokok bahasan pemrograman dinamis berbasis multimedia</t>
@@ -11185,16 +11185,16 @@
     <t>media pembelajaran pengenalan bangun datar sudut penghitungan keliling luas persegi persegi panjang matematika sekolah dasar kelas  studi kasus sd it lukman al hakim yogyakarta</t>
   </si>
   <si>
-    <t>media pembelajaran penerapan integral mencari luas volume panjang busur berbasis multimedia</t>
+    <t>media pembelajaran penerapan integral untuk mencari luas volume panjang busur berbasis multimedia</t>
   </si>
   <si>
     <t>media pembelajaran part of speech mata kuliah bahasa inggris informatika berbasis multimedia</t>
   </si>
   <si>
-    <t>media pembelajaran panca indera manusia konsep computer aided instruction meningkatkan nilai ratarata kelas studi kasus sd negeri  rakam kelas iv</t>
-  </si>
-  <si>
-    <t>media pembelajaran multimedia interaktif doa seharihari taman pendidikan alquran</t>
+    <t>media pembelajaran panca indera manusia konsep computer aided instruction untuk meningkatkan nilai ratarata kelas studi kasus sd negeri  rakam kelas iv</t>
+  </si>
+  <si>
+    <t>media pembelajaran multimedia interaktif doa seharihari untuk taman pendidikan alquran</t>
   </si>
   <si>
     <t>media pembelajaran matrik transformasi berbasis multimedia</t>
@@ -11236,7 +11236,7 @@
     <t>media pembelajaran goal programming berbasis multimedia</t>
   </si>
   <si>
-    <t>media pembelajaran fuzzy logic metode tzukamoo berbasis multimedia</t>
+    <t>media pembelajaran fuzzy logic untuk metode tzukamoo berbasis multimedia</t>
   </si>
   <si>
     <t>media pembelajaran dilengkapi kamus penerjemahan bahasa melayu belitung bahasa indonesia</t>
@@ -11245,28 +11245,28 @@
     <t>media pembelajaran database fuzzy metode tahani berbasis multimedia</t>
   </si>
   <si>
-    <t>media pembelajaran berbasis komputer mata pelajaran matematika bilangan sekolah dasar kelas iii sudi kasus sd it lukman al hakim yogyakarta</t>
+    <t>media pembelajaran berbasis komputer mata pelajaran matematika bilangan untuk sekolah dasar kelas iii sudi kasus sd it lukman al hakim yogyakarta</t>
   </si>
   <si>
     <t>media pembelajaran bahasa sasak dilengkapi kamus bahasa sasakbahasa indonesia berbasis multimedia</t>
   </si>
   <si>
-    <t>media pembelajaran bahasa ingris time taman kanakkanak berbasis multimedia</t>
-  </si>
-  <si>
-    <t>media pembelajaran bahasa inggris my family taman kanakkanak berbasis multimedia</t>
-  </si>
-  <si>
-    <t>media pembelajaran bahasa inggris meals taman kanakkanak berbasis multimedia</t>
-  </si>
-  <si>
-    <t>media pembelajaran bahasa inggris greeting taman kanakkanak berbasis multimedia</t>
+    <t>media pembelajaran bahasa ingris time untuk taman kanakkanak berbasis multimedia</t>
+  </si>
+  <si>
+    <t>media pembelajaran bahasa inggris my family untuk taman kanakkanak berbasis multimedia</t>
+  </si>
+  <si>
+    <t>media pembelajaran bahasa inggris meals untuk taman kanakkanak berbasis multimedia</t>
+  </si>
+  <si>
+    <t>media pembelajaran bahasa inggris greeting untuk taman kanakkanak berbasis multimedia</t>
   </si>
   <si>
     <t>media pembelajaran aritmatika komputer materi konversi bilangan berbasis multimedia</t>
   </si>
   <si>
-    <t>media pembelajaran aplikasi jarimatika tambah kurang anak berbasis mutimedia</t>
+    <t>media pembelajaran aplikasi jarimatika tambah kurang untuk anak berbasis mutimedia</t>
   </si>
   <si>
     <t>media pembelajaran antrian model single channel mata kuliah riset operasi berbasis multimedia</t>
@@ -11302,7 +11302,7 @@
     <t>majalah elektronik sekolah berbasis web mts al mahalli pleret bantul</t>
   </si>
   <si>
-    <t>membangun game edukasi musik berbasismultimedia meningkatkan kepekaanbermusik</t>
+    <t>membangun game edukasi musik berbasismultimedia untuk meningkatkan kepekaanbermusik</t>
   </si>
   <si>
     <t>media pendukung pembelajaran proses enkripsi dekripsi algoritma cryptography cbc vigenere chiper block transposition cbc modifikasi pengamanan file teks data teks</t>
@@ -11311,7 +11311,7 @@
     <t>media pembelajaran ruang vektor real berbasis multimedia</t>
   </si>
   <si>
-    <t>location based service rental berdasarkan info cd mempercepat user mencari judul cd</t>
+    <t>location based service rental berdasarkan info cd untuk mempercepat user mencari judul cd</t>
   </si>
   <si>
     <t>layanan penjualan produk fitnes victory fitness center berbasis web menggunakan aplikasi aura cms</t>
@@ -11326,10 +11326,10 @@
     <t>kamus bausastra sasak  indonesia indonesia  sasak</t>
   </si>
   <si>
-    <t>jaringan syaraf tiruan backpropagation diagnosa penyakit hepatitis</t>
-  </si>
-  <si>
-    <t>jaringan syaraf tiruan backpropagation diagnosa hipertensi stroke</t>
+    <t>jaringan syaraf tiruan backpropagation untuk diagnosa penyakit hepatitis</t>
+  </si>
+  <si>
+    <t>jaringan syaraf tiruan backpropagation untuk diagnosa hipertensi stroke</t>
   </si>
   <si>
     <t>informasi pelayanan manasik haji berbasis web</t>
@@ -11341,31 +11341,31 @@
     <t>implementasi staging animasi perilaku konsumsi makanan sehat</t>
   </si>
   <si>
-    <t>implementasi sistem pakar mendiagnosa ganguan pencernaan makan hewan ternak metode fuzzytsukamoto</t>
+    <t>implementasi sistem pakar untuk mendiagnosa ganguan pencernaan makan hewan ternak metode fuzzytsukamoto</t>
   </si>
   <si>
     <t>implementasi sistem keamanan data menggunakan algoritma tea aplikasi elearning</t>
   </si>
   <si>
-    <t>implementasi proxy server load balancing menggunakan metode per connection classifier pcc berbasis mikrotik</t>
-  </si>
-  <si>
-    <t>implementasi metode interpolasi linier mengidentifikasi kekeruhan air pemrosesan awal pelembuyan citra studi kasus  pdam tirtamarta yogyakarta</t>
-  </si>
-  <si>
-    <t>implementasi metode canny deteksi tepi mutu daun tembakau</t>
-  </si>
-  <si>
-    <t>implementasi kriptografi kunci publik elgamal proses enkripsi dekripsi pengamanan file data</t>
+    <t>implementasi proxy server load balancing menggunakan metode connection classifier pcc berbasis mikrotik</t>
+  </si>
+  <si>
+    <t>implementasi metode interpolasi linier untuk mengidentifikasi kekeruhan air pemrosesan awal pelembuyan citra studi kasus  pdam tirtamarta yogyakarta</t>
+  </si>
+  <si>
+    <t>implementasi metode canny untuk deteksi tepi mutu daun tembakau</t>
+  </si>
+  <si>
+    <t>implementasi kriptografi kunci publik elgamal untuk proses enkripsi dekripsi guna pengamanan file data</t>
   </si>
   <si>
     <t>implementasi keamanan data menggunakan algoritma blowfish lsb citra</t>
   </si>
   <si>
-    <t>implementasi jaringan syaraf tiruan perceptron menentukan tokoh pewayangan</t>
-  </si>
-  <si>
-    <t>implementasi expert system mendiagnosis penyakit mata menggunakan dhempster shafer</t>
+    <t>implementasi jaringan syaraf tiruan perceptron untuk menentukan tokoh pewayangan</t>
+  </si>
+  <si>
+    <t>implementasi expert system untuk mendiagnosis penyakit mata menggunakan dhempster shafer</t>
   </si>
   <si>
     <t>implementasi case base reasoning sistem pakar menentukan jenis gangguan kejiwaan</t>
@@ -11386,25 +11386,25 @@
     <t>implementasi virtual reality vr d hotel merak indah klaten</t>
   </si>
   <si>
-    <t>implementasi virtual private network vpn keamanan komunikasi data jaringan berbasis wireless</t>
+    <t>implementasi virtual private network vpn untuk keamanan komunikasi data jaringan berbasis wireless</t>
   </si>
   <si>
     <t>implementasi transformasi wavelet pemrosesan awal sistem pengenalan wajah citra digital</t>
   </si>
   <si>
-    <t>implementasi teknik kompresi citra digital</t>
+    <t>implementasi teknik untuk kompresi citra digital</t>
   </si>
   <si>
     <t>implementasi teknik character animation teknik masking pembuatan film animasi kejujuran</t>
   </si>
   <si>
-    <t>implementasi sistem pakar pengobatan bekam metode case base reasioning</t>
-  </si>
-  <si>
-    <t>implementasi sistem pakar mendiagnosa penyakit alat indera manusia metode fuzzy tsukamoto</t>
-  </si>
-  <si>
-    <t>implementasi sistem pakar mendiagnosa penyakit pada manusia menggunakan metode dempster shafer</t>
+    <t>implementasi sistem pakar untuk pengobatan bekam metode case base reasioning</t>
+  </si>
+  <si>
+    <t>implementasi sistem pakar untuk mendiagnosa penyakit alat indera manusia metode fuzzy tsukamoto</t>
+  </si>
+  <si>
+    <t>implementasi sistem pakar untuk mendiagnosa penyakit manusia menggunakan metode dempster shafer</t>
   </si>
   <si>
     <t>implementasi sistem management user hotspot menggunakan freeradius coovachilli studi kasus biskom universitas ahmad dahlan</t>
@@ -11413,7 +11413,7 @@
     <t>implementasi profil pariwisata budaya kabupaten kaur dua bahasa berbasis multimedia interaktif</t>
   </si>
   <si>
-    <t>implementasi network monitoring meningkatkan kinerja jaringan studi kasus laboratorium jaringan uad</t>
+    <t>implementasi network monitoring untuk meningkatkan kinerja jaringan studi kasus laboratorium jaringan uad</t>
   </si>
   <si>
     <t>implementasi multimedia media pembelajaran studi kasus materi subnetting ipv</t>
@@ -11461,16 +11461,16 @@
     <t>implementasi image watermarking citra digital discrete wavelet transform dwt daubechies d</t>
   </si>
   <si>
-    <t>implementasi honeypot meningkatkan keamanan jaringan berbasis wireless</t>
+    <t>implementasi honeypot untuk meningkatkan keamanan jaringan berbasis wireless</t>
   </si>
   <si>
     <t>implementasi grafika komputer followthruough and overlapping actions pembuatan film kartun nilai nilai keikhlasan</t>
   </si>
   <si>
-    <t>implementasi ecommerce penjualan buku penerbit ombak berbasis framework</t>
-  </si>
-  <si>
-    <t>implementasi case based reasoning mendiagnosa penyakit paru manusia</t>
+    <t>implementasi ecommerce untuk penjualan buku penerbit ombak berbasis framework</t>
+  </si>
+  <si>
+    <t>implementasi case based reasoning untuk mendiagnosa penyakit paru manusia</t>
   </si>
   <si>
     <t>implementasi case based reasoning sistem pakar diagnosa penyakit kanker berbasis web</t>
@@ -11491,16 +11491,16 @@
     <t>hubungan tingkat pengetahuan bahaya merokok perilaku merokok pd mahasiswa teknik informatika uad yogyakarta</t>
   </si>
   <si>
-    <t>game edukasi meningkatkan daya ingat anak bermain bersama modo modi</t>
-  </si>
-  <si>
-    <t>game edukasipengenalan ramburambu lalu lintas anak usia dini studi kasus tk asyiah bustanul athfal janturan</t>
-  </si>
-  <si>
-    <t>game adventure menggunakan metode side scrolling cerita rakyat doyan nada meningkatkan pemahaman budayasasak lombok anak</t>
-  </si>
-  <si>
-    <t>front system menggunakan mgovernment meningkatkan interaksi masyarakat pemerintah yogyakarta</t>
+    <t>game edukasi meningkatkan daya ingat anak bermain modo modi</t>
+  </si>
+  <si>
+    <t>game edukasipengenalan ramburambu lintas untuk anak usia studi kasus tk asyiah bustanul athfal janturan</t>
+  </si>
+  <si>
+    <t>game adventure menggunakan metode side scrolling cerita rakyat doyan nada untuk meningkatkan pemahaman budayasasak lombok anak</t>
+  </si>
+  <si>
+    <t>front system menggunakan mgovernment untuk meningkatkan interaksi masyarakat pemerintah yogyakarta</t>
   </si>
   <si>
     <t>enterprise arsitectur planning produksi gula zachman framework</t>
@@ -11539,10 +11539,10 @@
     <t>deteksi jenis ikan hias menggunakan metode canny</t>
   </si>
   <si>
-    <t>deteksi dini perilaku penyimpangan seksual menggunakan metode fordward chaining berbasis web</t>
-  </si>
-  <si>
-    <t>desain implitasi sms gateway layanan hasil studi mahasiswa studi kasus prodi teknik informatika informatika uad</t>
+    <t>deteksi perilaku penyimpangan seksual menggunakan metode fordward chaining berbasis web</t>
+  </si>
+  <si>
+    <t>desain implitasi sms gateway untuk layanan hasil studi mahasiswa studi kasus prodi teknik informatika informatika uad</t>
   </si>
   <si>
     <t>desain implementasi jejaring sosial penggemar sepak bola berbasis web</t>
@@ -11557,7 +11557,7 @@
     <t>desain impelementasi ecounseling program studi bimbingan konseling studi kasus program bimbingan konseling uad yogyakarta</t>
   </si>
   <si>
-    <t>desain implementasi web ecommerce pemesanan buku online studi kasus divaprees publisher</t>
+    <t>desain implementasi web ecommerce pemesanan buku secara online studi kasus divaprees publisher</t>
   </si>
   <si>
     <t>decision support system penilaian kinerja guru berdasarkan standar kurikulum tingkat satuan pendidikan ktsp</t>
@@ -11584,7 +11584,7 @@
     <t>aplikasikartu nama virtual virtual business card berbasis web mobile</t>
   </si>
   <si>
-    <t>aplikasi terjemahan bahasa indonesia bahasa batak angkola sebaliknya berbasis android</t>
+    <t>aplikasi terjemahan bahasa indonesia bahasa batak angkola berbasis android</t>
   </si>
   <si>
     <t>aplikasi terjemah bahasa indonesiaseraway serawayindonesia</t>
@@ -11593,22 +11593,22 @@
     <t>aplikasi sistem pendukung keputusan penentuan tingkat epidemi puskesmas induk umbulharjo i kota yogyakarta</t>
   </si>
   <si>
-    <t>aplikasi sistem pakar diagnosa medis penyakit sistem peredaran darah menggunakan metode case based reasoning</t>
-  </si>
-  <si>
-    <t>aplikasi sistem pakar berbasis web diagnosa penyakit tanaman kelapa menggunakan metode certainty factor disertai gejala citra</t>
-  </si>
-  <si>
-    <t>aplikasi sistem pakar berbasis web diagnosa penyakit tanaman kelapa menggunakan metode certainly factor disertai gejala citra</t>
+    <t>aplikasi sistem pakar untuk diagnosa medis penyakit sistem peredaran darah menggunakan metode case based reasoning</t>
+  </si>
+  <si>
+    <t>aplikasi sistem pakar berbasis web untuk diagnosa penyakit tanaman kelapa menggunakan metode certainty factor disertai gejala citra</t>
+  </si>
+  <si>
+    <t>aplikasi sistem pakar berbasis web untuk diagnosa penyakit tanaman kelapa menggunakan metode certainly factor disertai gejala citra</t>
   </si>
   <si>
     <t>aplikasi sistem informasi nilai studi kasus sma negeri  pacitan</t>
   </si>
   <si>
-    <t>aplikasi sistem informasi geografis penentuan daerah terkena gizi buruk kabupaten bantul</t>
-  </si>
-  <si>
-    <t>aplikasi sistem informasi geografis mendukung pelayanan kesehatan warga kota pekalongan</t>
+    <t>aplikasi sistem informasi geografis untuk penentuan daerah terkena gizi buruk kabupaten bantul</t>
+  </si>
+  <si>
+    <t>aplikasi sistem informasi geografis untuk mendukung pelayanan kesehatan warga kota pekalongan</t>
   </si>
   <si>
     <t>aplikasi sistem informasi managemen asuransi berbasis wap wireles application protocol</t>
@@ -11617,31 +11617,31 @@
     <t>aplikasi sistem informasi geografis fasilitas pendidikan kota jambi berbasis web</t>
   </si>
   <si>
-    <t>aplikasi program pembelajaran bidang studi geografi unsur fisik wilayah indonesia smp kelas viii smpn  yogyakarta</t>
-  </si>
-  <si>
-    <t>aplikasi penterjemah bahasa indonesia bahasa jawa sebaliknya</t>
-  </si>
-  <si>
-    <t>aplikasi penterjemah bahasa ogan  indonesia sebaliknya</t>
+    <t>aplikasi program pembelajaran bidang studi geografi unsur fisik wilayah indonesia untuk smp kelas viii smpn  yogyakarta</t>
+  </si>
+  <si>
+    <t>aplikasi penterjemah untuk bahasa indonesia bahasa jawa</t>
+  </si>
+  <si>
+    <t>aplikasi penterjemah bahasa ogan  indonesia</t>
   </si>
   <si>
     <t>aplikasi penterjemah bahasa indonesia bahasa lampung disertasi analisis sintaksis</t>
   </si>
   <si>
-    <t>aplikasi penterjemah bahasa indonesiabali sebaliknya dilengkapi pengecekan ejaan</t>
-  </si>
-  <si>
-    <t>aplikasi penterjemah bahasa indonesia bahasa komering sebaliknya</t>
-  </si>
-  <si>
-    <t>aplikasi pengolahan citra mendeteksi kualitas daging sapi berdasarkan fitur tekstur berbasis histogram citra</t>
-  </si>
-  <si>
-    <t>aplikasi pengolahan citra deteksi tingkat kematangan semangka berdasarkan fitur tekstur kulit buah</t>
-  </si>
-  <si>
-    <t>aplikasi pengolahan citra menggunakan metode thresholding mendeteksi kerusakan gerabah</t>
+    <t>aplikasi penterjemah bahasa indonesiabali dilengkapi pengecekan ejaan</t>
+  </si>
+  <si>
+    <t>aplikasi penterjemah bahasa indonesia bahasa komering</t>
+  </si>
+  <si>
+    <t>aplikasi pengolahan citra untuk mendeteksi kualitas daging sapi berdasarkan fitur tekstur berbasis histogram citra</t>
+  </si>
+  <si>
+    <t>aplikasi pengolahan citra untuk deteksi tingkat kematangan semangka berdasarkan fitur tekstur kulit buah</t>
+  </si>
+  <si>
+    <t>aplikasi pengolahan citra menggunakan metode thresholding untuk mendeteksi kerusakan gerabah</t>
   </si>
   <si>
     <t>aplikasi pengetahuan dasar hiv aids berbasis android</t>
@@ -11653,10 +11653,10 @@
     <t>aplikasi pengenalan hangeul berbasis multimedia interaktif</t>
   </si>
   <si>
-    <t>aplikasi penerjemahan bahasa indonesia bahasa daerah sulawesi tenggara wolio sebaliknya dilengkapi pengecekan ejaan pemeriksaan kata ambigu</t>
-  </si>
-  <si>
-    <t>aplikasi penerjemah bahasa indonesia bahasa banjar sebaliknya analisis sintaksis</t>
+    <t>aplikasi penerjemahan bahasa indonesia bahasa daerah sulawesi tenggara wolio dilengkapi pengecekan ejaan pemeriksaan kata ambigu</t>
+  </si>
+  <si>
+    <t>aplikasi penerjemah bahasa indonesia bahasa banjar analisis sintaksis</t>
   </si>
   <si>
     <t>aplikasi pemrosesan bahasa alami bahasa indonesia bahasa perintah dos</t>
@@ -11668,10 +11668,10 @@
     <t>aplikasi multimedia sarana informasi pariwisata budaya kab wonosobo sua bahasa</t>
   </si>
   <si>
-    <t>aplikasi multimedia media informasi pengenalan monumen yogya yogyakarta</t>
-  </si>
-  <si>
-    <t>aplikasi multimedia media alternatif informasi promosi batik bentuk cd interaktif studi kasus apips kerajinan batik yogyakarta</t>
+    <t>aplikasi multimedia media informasi pengenalan monumen yogya kembali yogyakarta</t>
+  </si>
+  <si>
+    <t>aplikasi multimedia media alternatif untuk informasi promosi batik bentuk cd interaktif studi kasus apips kerajinan batik yogyakarta</t>
   </si>
   <si>
     <t>aplikasi multimedia museum kedaton kesultanan ternate berbasis web</t>
@@ -11680,10 +11680,10 @@
     <t>aplikasi multimedia interaktif pengenalan topologi jaringan tcpip</t>
   </si>
   <si>
-    <t>aplikasi metode region growing monitoring pertumbuhan panjang kecambah</t>
-  </si>
-  <si>
-    <t>aplikasi kamus penerjemah bahasa jawa krama bahasa indonesia sebaliknya</t>
+    <t>aplikasi metode region growing untuk monitoring pertumbuhan panjang kecambah</t>
+  </si>
+  <si>
+    <t>aplikasi kamus penerjemah bahasa jawa krama bahasa indonesia</t>
   </si>
   <si>
     <t>aplikasi kamus bahasa indonesia lampung lampung indonesia metode rulebased</t>
@@ -11695,22 +11695,22 @@
     <t>aplikasi game arcade bajak laut berbasis java jme</t>
   </si>
   <si>
-    <t>aplikasi deteksi tepi klasifikasi kuaitas genteng menggunakan metode deteksi tepi laplacian of gaussian</t>
+    <t>aplikasi deteksi tepi untuk klasifikasi kuaitas genteng menggunakan metode deteksi tepi laplacian of gaussian</t>
   </si>
   <si>
     <t>aplikasi deteksi kerusakan  cacat sambungan las menggunakan metode region growing</t>
   </si>
   <si>
-    <t>aplikasi bantu pengajuan sertifikasi guru</t>
+    <t>aplikasi bantu untuk pengajuan sertifikasi guru</t>
   </si>
   <si>
     <t>aplikasi bantu pengolahan nilai indeks kinerja dosen studi kasus fakultas teknologi industri uad</t>
   </si>
   <si>
-    <t>aplikasi android media promosi publikasi penjualan mobil kota pekalongan metode android notification</t>
-  </si>
-  <si>
-    <t>aplikasi wap pengembangan website pmi cabang kota yogyakarta</t>
+    <t>aplikasi android untuk media promosi publikasi penjualan mobil kota pekalongan metode android notification</t>
+  </si>
+  <si>
+    <t>aplikasi wap untuk pengembangan website pmi cabang kota yogyakarta</t>
   </si>
   <si>
     <t>aplikasi web elearning media pembelajaran alternatif sma studi kasus aplikasi web elearning sma negeri  rembang kabupaten purbalingga</t>
@@ -11725,19 +11725,19 @@
     <t>aplikasi tutorial multimedia mata pelajaran ipa meteri pokok panca indera manusia</t>
   </si>
   <si>
-    <t>aplikasi try out bahasa inggris ujian nasional sekolah menengah atas</t>
+    <t>aplikasi try out bahasa inggris untuk ujian nasional sekolah menengah atas</t>
   </si>
   <si>
     <t>aplikasi transliterator translator bahasa indonesia bahasa korea bahasa korea bahasa indonesia</t>
   </si>
   <si>
-    <t>aplikasi transformasi watershed segmentasi citra spatial filter pemroses awal</t>
-  </si>
-  <si>
-    <t>aplikasi transformasi warna ycbcr deteksi jenis warna kulit tomat fase kematangan tomat</t>
-  </si>
-  <si>
-    <t>aplikasi transformasi warna ycbcr deteksi tipe warna kulit wajah klasifikasi ras manusia</t>
+    <t>aplikasi transformasi watershed untuk segmentasi citra spatial filter pemroses awal</t>
+  </si>
+  <si>
+    <t>aplikasi transformasi warna ycbcr untuk deteksi jenis warna kulit tomat fase kematangan tomat</t>
+  </si>
+  <si>
+    <t>aplikasi transformasi warna ycbcr untuk deteksi tipe warna kulit wajah klasifikasi ras manusia</t>
   </si>
   <si>
     <t>aplikasi toko buku online berbasis sms gateway over gprs general packet radio service</t>
@@ -11746,7 +11746,7 @@
     <t>aplikasi tes ujian masuk man cipasung tasikmalaya analisis perancangan berorientasi objek</t>
   </si>
   <si>
-    <t>aplikasi tes kepribadian penempatan karyawan menggunakan metode myersbriggs type indicator mbti berbasis web studi kasus pt winata putra mandiri</t>
+    <t>aplikasi tes kepribadian untuk penempatan karyawan menggunakan metode myersbriggs type indicator mbti berbasis web studi kasus pt winata putra mandiri</t>
   </si>
   <si>
     <t>aplikasi tes kepribadian menggunakan metode edwars personal prefefence schedul studi kasus cv exist klaten jawa tengah</t>
@@ -11755,16 +11755,16 @@
     <t>aplikasi tes intelligence quotient iq menggunakan standarisasi wechsler berbasis web</t>
   </si>
   <si>
-    <t>aplikasi terjemahan belajar bahasa jawa aksara jawa</t>
-  </si>
-  <si>
-    <t>aplikasi terjemahan bahasa indonesiasunda sebaliknya berbasis wap wireless application protocol</t>
+    <t>aplikasi terjemahan untuk belajar bahasa jawa aksara jawa</t>
+  </si>
+  <si>
+    <t>aplikasi terjemahan bahasa indonesiasunda berbasis wap wireless application protocol</t>
   </si>
   <si>
     <t>aplikasi terjemahan bahasa indonesia kebahasa ternate disertai pemeriksaan kalimat ambigu</t>
   </si>
   <si>
-    <t>aplikasi terjemahan bahasa indonesia bahasa tolaki sebaliknya</t>
+    <t>aplikasi terjemahan bahasa indonesia bahasa tolaki</t>
   </si>
   <si>
     <t>aplikasi terjemahan bahasa indonesia bahasa tidore disertai analisis sintak</t>
@@ -11773,7 +11773,7 @@
     <t>aplikasi terjemahan bahasa indonesia bahasa jawa dilengkapi pengecekan kalimat ambigu</t>
   </si>
   <si>
-    <t>aplikasi terjemahan bahasa indonesia bahasa palembang sebaliknya dilengkapi pengecekan aturan tata bahasa grammar</t>
+    <t>aplikasi terjemahan bahasa indonesia bahasa palembang dilengkapi pengecekan aturan tata bahasa grammar</t>
   </si>
   <si>
     <t>aplikasi terjemahan bahasa indonesia bahasa banyumas analisis teknik</t>
@@ -11785,7 +11785,7 @@
     <t>aplikasi sistem tes online smp  ponjong gunungkidul</t>
   </si>
   <si>
-    <t>aplikasi sistem penilaian kinerja karyawan kenaikan jabatan metode behaviourally anchored rating scale bars berbasis web</t>
+    <t>aplikasi sistem penilaian kinerja karyawan untuk kenaikan jabatan metode behaviourally anchored rating scale bars berbasis web</t>
   </si>
   <si>
     <t>aplikasi sistem pendukung keputusan penentuan lokasi pendirian warnet metode analytical hierarchy process ahp studi kasus pt pika media komunika</t>
@@ -11794,19 +11794,19 @@
     <t>aplikasi sistem pendukung keputusan penentuan lokasi pembangunan ruko metode naive bayes</t>
   </si>
   <si>
-    <t>aplikasi sistem pakar mendiagnosa penyakit hati penyajian jaringan semantik</t>
-  </si>
-  <si>
-    <t>aplikasi sistem pakar mendiaknosa penyakit kandungan menggunakan fuzzy tsukamoto</t>
-  </si>
-  <si>
-    <t>aplikasi sistem pakar mendiagnosa penyakit infeksi usus manusia</t>
-  </si>
-  <si>
-    <t>aplikasi sistem pakar mendiagnosa gangguan perkembangan kesehatan anak metode certainty factor cf</t>
-  </si>
-  <si>
-    <t>aplikasi sistem pakar diagnosa penyakit tanaman hias berbasis web menggunakan teorema bayes</t>
+    <t>aplikasi sistem pakar untuk mendiagnosa penyakit hati penyajian jaringan semantik</t>
+  </si>
+  <si>
+    <t>aplikasi sistem pakar untuk mendiaknosa penyakit kandungan menggunakan fuzzy tsukamoto</t>
+  </si>
+  <si>
+    <t>aplikasi sistem pakar untuk mendiagnosa penyakit infeksi usus manusia</t>
+  </si>
+  <si>
+    <t>aplikasi sistem pakar untuk mendiagnosa gangguan perkembangan kesehatan anak metode certainty factor cf</t>
+  </si>
+  <si>
+    <t>aplikasi sistem pakar untuk diagnosa penyakit tanaman hias berbasis web menggunakan teorema bayes</t>
   </si>
   <si>
     <t>aplikasi sistem pakar penentuan perawatan kecantikan berbasis web studi kasus pamella salon yogyakarta</t>
@@ -11833,16 +11833,16 @@
     <t>aplikasi sistem informasi pencarian lowongan pekerjaan daerah istimewa yogyakarta menggunakan wireless application protocol</t>
   </si>
   <si>
-    <t>aplikasi sistem informasi geografis penentuan lokasi pendirian spbu</t>
-  </si>
-  <si>
-    <t>aplikasi sistem informasi geografis mengolah data penyakit flu burung</t>
+    <t>aplikasi sistem informasi geografis untuk penentuan lokasi pendirian spbu</t>
+  </si>
+  <si>
+    <t>aplikasi sistem informasi geografis untuk mengolah data penyakit flu burung</t>
   </si>
   <si>
     <t>aplikasi sistem informasi geografis peta lokasi distribusi produk pertanian pangan andalan kabupaten sleman berbasis web</t>
   </si>
   <si>
-    <t>aplikasi sistem informasi geografis penentuan kesesuaian lahan pertanian potensial studi kasus kabupaten sumbawa baratntb</t>
+    <t>aplikasi sistem informasi geografis untuk penentuan kesesuaian lahan pertanian potensial studi kasus kabupaten sumbawa baratntb</t>
   </si>
   <si>
     <t>aplikasi sistem informasi pembayaran berbasis sms gateway over gprs studi kasus sdit luqman alhakim</t>
@@ -11851,7 +11851,7 @@
     <t>aplikasi short message service sms gateway layanan informasi harga pemesanan makanan berbasis sms</t>
   </si>
   <si>
-    <t>aplikasi sms gateway reservasi hotel imperial aryaduta lippo karwaci</t>
+    <t>aplikasi sms gateway untuk reservasi hotel imperial aryaduta lippo karwaci</t>
   </si>
   <si>
     <t>aplikasi sms gateway layanan informasi santri wali santri pondok pesantren ibnul qoyyim</t>
@@ -11863,7 +11863,7 @@
     <t>aplikasi sms microsoft visual basic mobile fbus  activex control</t>
   </si>
   <si>
-    <t>aplikasi sig mencegah interferensi antar stasiun pemancar radio wilayah daerah istimewa yogyakarta</t>
+    <t>aplikasi sig untuk mencegah interferensi stasiun pemancar radio wilayah daerah istimewa yogyakarta</t>
   </si>
   <si>
     <t>aplikasi puzzle game program bantu pembelajaran</t>
@@ -11872,7 +11872,7 @@
     <t>aplikasi program pembelajaran sains sekolah dasar</t>
   </si>
   <si>
-    <t>aplikasi program pembelajaran bidang studi fisika gaya percepatan siswa sltp kelas viii menggunakan macromedia flash</t>
+    <t>aplikasi program pembelajaran bidang studi fisika gaya percepatan untuk siswa sltp kelas viii menggunakan macromedia flash</t>
   </si>
   <si>
     <t>aplikasi profil museum batik yogyakarta berbasis multimedia</t>
@@ -11881,7 +11881,7 @@
     <t>aplikasi perbandingan pencarian jalur terpendek jaringan syaraf tiruan kohonen self organizing maps jaringan syaraf tiruan boltzmann machine</t>
   </si>
   <si>
-    <t>aplikasi perbaikan citra digital mengidentifikasi kerusakancacat film radiografi sambungan las</t>
+    <t>aplikasi perbaikan citra digital untuk mengidentifikasi kerusakancacat film radiografi sambungan las</t>
   </si>
   <si>
     <t xml:space="preserve">aplikasi perangkat lunak perawatan kendaraan pomaju lancar yogyakarta pemrograman delphi </t>
@@ -11890,13 +11890,13 @@
     <t>aplikasi perangkat lunak penggajian karyawan mirota gejayan</t>
   </si>
   <si>
-    <t>aplikasi penterjemah bahasa indonesia bahasa cirebon sebaliknya</t>
-  </si>
-  <si>
-    <t>aplikasi penterjemah bahasa indonesiabahasa sunda sebaliknya berbasis sms</t>
-  </si>
-  <si>
-    <t>aplikasi penterjemah bahasa cirebon  bahasa indonesia sebaliknya dilengkapi pengecekan kata ambigu</t>
+    <t>aplikasi penterjemah untuk bahasa indonesia bahasa cirebon</t>
+  </si>
+  <si>
+    <t>aplikasi penterjemah bahasa indonesiabahasa sunda berbasis sms</t>
+  </si>
+  <si>
+    <t>aplikasi penterjemah bahasa cirebon  bahasa indonesia dilengkapi pengecekan kata ambigu</t>
   </si>
   <si>
     <t>aplikasi penjualan voucher elektronik via komputer</t>
@@ -11908,19 +11908,19 @@
     <t>aplikasi pengolahan data tes try out spmb berbasis web</t>
   </si>
   <si>
-    <t>aplikasi pengolahan citra mendeteksi mutu buah jeruk berdasarkan kerusakan kulit jeruk menggunakan metode thresholding</t>
+    <t>aplikasi pengolahan citra untuk mendeteksi mutu buah jeruk berdasarkan kerusakan kulit jeruk menggunakan metode thresholding</t>
   </si>
   <si>
     <t>aplikasi pengolahan citra mendeteksi kualitas cabai berdasarkan tingkat kematangan menggunakan transformasi warna ycbcr</t>
   </si>
   <si>
-    <t>aplikasi pengolahan citra digital meningkatkan kecerahan citra menggunakan metode retinex</t>
-  </si>
-  <si>
-    <t>aplikasi pengolahan citra digital menentukan tingkat mutu buah menggunakan metode thresholding</t>
-  </si>
-  <si>
-    <t>aplikasi pengolahan bahasa alami bahasa indonesia bahasa karo sebaliknya</t>
+    <t>aplikasi pengolahan citra digital untuk meningkatkan kecerahan citra menggunakan metode retinex</t>
+  </si>
+  <si>
+    <t>aplikasi pengolahan citra digital untuk menentukan tingkat mutu buah menggunakan metode thresholding</t>
+  </si>
+  <si>
+    <t>aplikasi pengolahan bahasa alami untuk bahasa indonesia bahasa karo</t>
   </si>
   <si>
     <t>aplikasi pengkonversi file teks rtf txt file suara wav</t>
@@ -11932,10 +11932,10 @@
     <t>aplikasi pengenalan penyakit hipertensi hipotensi berbasis multimedia</t>
   </si>
   <si>
-    <t>aplikasi pengenalan citra rambu lalu lintas berbentuk lingkaran menggunakan metode jarak cityblock</t>
-  </si>
-  <si>
-    <t>aplikasi pengembangan bahan ajar mata pelajaran tik siswa smp materi pemrograman menggunakan pascal</t>
+    <t>aplikasi pengenalan citra rambu lintas berbentuk lingkaran menggunakan metode jarak cityblock</t>
+  </si>
+  <si>
+    <t>aplikasi pengembangan bahan ajar mata pelajaran tik untuk siswa smp materi pemrograman menggunakan pascal</t>
   </si>
   <si>
     <t>aplikasi pengelola keuangan pribadi berbasis android</t>
@@ -11950,10 +11950,10 @@
     <t>aplikasi penerjemah bahasa indonesiabanjar banjarindonesia</t>
   </si>
   <si>
-    <t>aplikasi penerjemah bahasa indonesiabahasa melayu sambas kalimantan barat sebaliknya</t>
-  </si>
-  <si>
-    <t>aplikasi penerjemah bahasa indonesia melayu rokan sebaliknya</t>
+    <t>aplikasi penerjemah bahasa indonesiabahasa melayu sambas kalimantan barat</t>
+  </si>
+  <si>
+    <t>aplikasi penerjemah bahasa indonesia melayu rokan</t>
   </si>
   <si>
     <t>aplikasi penentuan tingkat stres mahasiswa menggunakan metode fuzzzy logic</t>
@@ -11989,16 +11989,16 @@
     <t>aplikasi pembelajaran sql mata kuliah basis data berbasis multimedia</t>
   </si>
   <si>
-    <t>aplikasi pembelajaran permainan edukatif anak prasekolah berbasis multimedia</t>
-  </si>
-  <si>
-    <t>aplikasi pembelajaran matematika satuan waktu panjang berat sekolah dasar sd kelas  studi kasus sd it lukman alhakim yogyakarta</t>
-  </si>
-  <si>
-    <t>aplikasi pembelajaran matematika siswa kelas  sekolah dasar berbasis multimedia</t>
-  </si>
-  <si>
-    <t>aplikasi pembelajaran matematika pengukuran berat sekolah dasar sd kelas i studi kasus sdit lukman al hakim yogyakarta</t>
+    <t>aplikasi pembelajaran permainan edukatif untuk anak prasekolah berbasis multimedia</t>
+  </si>
+  <si>
+    <t>aplikasi pembelajaran matematika satuan waktu panjang berat untuk sekolah dasar sd kelas  studi kasus sd it lukman alhakim yogyakarta</t>
+  </si>
+  <si>
+    <t>aplikasi pembelajaran matematika untuk siswa kelas  sekolah dasar berbasis multimedia</t>
+  </si>
+  <si>
+    <t>aplikasi pembelajaran matematika pengukuran berat untuk sekolah dasar sd kelas i studi kasus sdit lukman al hakim yogyakarta</t>
   </si>
   <si>
     <t>aplikasi pembelajaran mahir bermain tenis meja berbasis multimedia</t>
@@ -12028,7 +12028,7 @@
     <t>aplikasi pembelajaran baca iqra berbasis multimedia</t>
   </si>
   <si>
-    <t>aplikasi pembelajaran aksara kaganga sekolah dasar berbasis multimedia</t>
+    <t>aplikasi pembelajaran aksara kaganga untuk sekolah dasar berbasis multimedia</t>
   </si>
   <si>
     <t>aplikasi pembelajaran aksara jawa berbasis web</t>
@@ -12043,16 +12043,16 @@
     <t>aplikasi multimedia media pembelajaran memori menggunakan adobe flash</t>
   </si>
   <si>
-    <t>aplikasi multimedia sarana informasi kepariwisataan kabupaten kotabaru kalimantan selatan</t>
-  </si>
-  <si>
-    <t>aplikasi multimedia penyajian informasi candi prambanan</t>
-  </si>
-  <si>
-    <t>aplikasi multimedia pengenalan objek pariwisata event kota palembang</t>
-  </si>
-  <si>
-    <t>aplikasi multimedia pembelajaran rock climbing</t>
+    <t>aplikasi multimedia untuk sarana informasi kepariwisataan kabupaten kotabaru kalimantan selatan</t>
+  </si>
+  <si>
+    <t>aplikasi multimedia untuk penyajian informasi candi prambanan</t>
+  </si>
+  <si>
+    <t>aplikasi multimedia untuk pengenalan objek pariwisata event kota palembang</t>
+  </si>
+  <si>
+    <t>aplikasi multimedia untuk pembelajaran rock climbing</t>
   </si>
   <si>
     <t>aplikasi multimedia sarana pemasaran perumahan</t>
@@ -12067,7 +12067,7 @@
     <t>aplikasi multimedia pengenalan tata surya menggunakan d max</t>
   </si>
   <si>
-    <t>aplikasi multimedia pembelajaran pembacaan not lagu daerah anak sekolah dasar</t>
+    <t>aplikasi multimedia pembelajaran pembacaan not lagu daerah untuk anak sekolah dasar</t>
   </si>
   <si>
     <t>aplikasi multimedia pembelajaran jaringan syaraf tiruan materi perceptron</t>
@@ -12088,10 +12088,10 @@
     <t>aplikasi multimedia pariwisata  kebudayaan kota brebes</t>
   </si>
   <si>
-    <t>aplikasi multimedia menggunakan dynamic content xml flash mx  profil kabupaten lombok timur</t>
-  </si>
-  <si>
-    <t>aplikasi multimedia interaktif pariwisata kabupaten pacitan menggunakan macromedia flash</t>
+    <t>aplikasi multimedia menggunakan dynamic content xml flash mx  untuk profil kabupaten lombok timur</t>
+  </si>
+  <si>
+    <t>aplikasi multimedia interaktif untuk pariwisata kabupaten pacitan menggunakan macromedia flash</t>
   </si>
   <si>
     <t>aplikasi multimedia interaktif sarana informasi pariwisata kabupaten magelang</t>
@@ -12100,10 +12100,10 @@
     <t>aplikasi multimedia interaktif sarana informasi pariwisata kabupaten bangka</t>
   </si>
   <si>
-    <t>aplikasi multimedia interaktif media pembelajaran teknologi informasi komunikasi siswa sekolah menengah atas sma</t>
-  </si>
-  <si>
-    <t>aplikasi multimedia interaktif media pembelajaran fisika bab tata surya sltp kelas  menyertakan referensi ayatayat alquran</t>
+    <t>aplikasi multimedia interaktif media pembelajaran teknologi informasi komunikasi untuk siswa sekolah menengah atas sma</t>
+  </si>
+  <si>
+    <t>aplikasi multimedia interaktif media pembelajaran fisika bab tata surya untuk sltp kelas  menyertakan referensi ayatayat alquran</t>
   </si>
   <si>
     <t>aplikasi multimedia interaktif media pemasaran perumahan alam citra yogyakarta</t>
@@ -12115,22 +12115,22 @@
     <t>aplikasi multimedia informasi pariwisata yogyakarta berbasis mobile</t>
   </si>
   <si>
-    <t>aplikasi multimedia gamelan jawa siswa smki sekolah menengah karawitan indonesia</t>
+    <t>aplikasi multimedia gamelan jawa untuk siswa smki sekolah menengah karawitan indonesia</t>
   </si>
   <si>
     <t>aplikasi multimedia coaching clinic teknikteknik dasar sepak bola handphone</t>
   </si>
   <si>
-    <t>aplikasi mobile media promosi iklan pemesanan iklan menggunakan java  micro edition studi kasus skb kedaulatan rakyat</t>
+    <t>aplikasi mobile untuk media promosi iklan pemesanan iklan menggunakan java  micro edition studi kasus skb kedaulatan rakyat</t>
   </si>
   <si>
     <t>aplikasi mobile sms gateway over gprs general packet radio service studi kasus swalayan madurejo piyungan yogyakarta</t>
   </si>
   <si>
-    <t>aplikasi mobile kumpulan doa harian islam mempermudah menghafal doa berbasis android</t>
-  </si>
-  <si>
-    <t>aplikasi mobile commerce sistem informasi pemesanan sepeda motor impor dealer hrc honda racing cbu</t>
+    <t>aplikasi mobile kumpulan doa harian islam untuk mempermudah menghafal doa berbasis android</t>
+  </si>
+  <si>
+    <t>aplikasi mobile commerce untuk sistem informasi pemesanan sepeda motor impor dealer hrc honda racing cbu</t>
   </si>
   <si>
     <t>aplikasi mobile commerce penjualan suplemen binaraga konsultasi berbasis wap studi kasus cakra sport center yogyakarta</t>
@@ -12139,10 +12139,10 @@
     <t>aplikasi mobile commerce penjualan handicraft berbasis wap</t>
   </si>
   <si>
-    <t>aplikasi metode eigenfaces pengenalan wajah</t>
-  </si>
-  <si>
-    <t>aplikasi metode discrete hartley transform dht pemampatan citra</t>
+    <t>aplikasi metode eigenfaces untuk pengenalan wajah</t>
+  </si>
+  <si>
+    <t>aplikasi metode discrete hartley transform dht untuk pemampatan citra</t>
   </si>
   <si>
     <t>aplikasi mengenal huruf angka anak prasekolah</t>
@@ -12163,16 +12163,16 @@
     <t>aplikasi manajemen keuangan pribadi berbasis web</t>
   </si>
   <si>
-    <t>aplikasi manajemen kegiatan organisasi nonprofit berbasis website</t>
+    <t>aplikasi manajemen kegiatan untuk organisasi nonprofit berbasis website</t>
   </si>
   <si>
     <t>aplikasi medukasi layanan berbasis lokasi kebun binatang gembira loka</t>
   </si>
   <si>
-    <t>aplikasi logika fuzzy pendukung keputusan penentuan keluarga miskin kota yogyakarta</t>
-  </si>
-  <si>
-    <t>aplikasi layanan melalui telepon berbasis voice xml penyandang tuna netra</t>
+    <t>aplikasi logika fuzzy untuk pendukung keputusan penentuan keluarga miskin kota yogyakarta</t>
+  </si>
+  <si>
+    <t>aplikasi layanan telepon berbasis voice xml penyandang tuna netra</t>
   </si>
   <si>
     <t>aplikasi layanan informasi tagihan pemesanan pasang baru telepon plasa telkom berbasis wireles aplication protocol</t>
@@ -12181,7 +12181,7 @@
     <t>aplikasi layanan informasi tagihan pemesanan pasang baru lisrik pt pln diy menggunakan wireless aplication protocol</t>
   </si>
   <si>
-    <t>aplikasi kriptografi keamanan file menggunakan algoritma twofish</t>
+    <t>aplikasi kriptografi untuk keamanan file menggunakan algoritma twofish</t>
   </si>
   <si>
     <t>aplikasi konsultasi siswa pendekatan sistem pakar studi kasus mtsn prambanansleman</t>
@@ -12202,40 +12202,40 @@
     <t>aplikasi kamus penterjemah bahasa indonesiabima</t>
   </si>
   <si>
-    <t>aplikasi kamus penerjemah bahasa indonesia bahasa inggris sebaliknya peralihan teks suara</t>
+    <t>aplikasi kamus penerjemah bahasa indonesia bahasa inggris peralihan teks suara</t>
   </si>
   <si>
     <t>aplikasi kamus bahasa inggrisindonesia berbasis wap</t>
   </si>
   <si>
-    <t>aplikasi kamus bahasa indonesiaminang sebaliknya menggunakan pendekatan metode rule based</t>
+    <t>aplikasi kamus bahasa indonesiaminang menggunakan pendekatan metode rule based</t>
   </si>
   <si>
     <t>aplikasi kamus bahasa indonesiabahasa sasak berbasis wap</t>
   </si>
   <si>
-    <t>aplikasi jaringan syraf tiruan backpropagation diagnosa medis penyakit sistem peredaran darah cardiovascular system</t>
-  </si>
-  <si>
-    <t>aplikasi jaringan syaraf tiruan pengenalan pola angka menggunakan metode hebb rule</t>
-  </si>
-  <si>
-    <t>aplikasi jaringan syaraf tiruan hopfield pengenalan nilai uang kertas</t>
-  </si>
-  <si>
-    <t>aplikasi jaringan syaraf tiruan hopfield diagnosa penyakit tanaman kelapa sawit</t>
+    <t>aplikasi jaringan syraf tiruan backpropagation untuk diagnosa medis penyakit sistem peredaran darah cardiovascular system</t>
+  </si>
+  <si>
+    <t>aplikasi jaringan syaraf tiruan untuk pengenalan pola angka menggunakan metode hebb rule</t>
+  </si>
+  <si>
+    <t>aplikasi jaringan syaraf tiruan hopfield untuk pengenalan nilai uang kertas</t>
+  </si>
+  <si>
+    <t>aplikasi jaringan syaraf tiruan hopfield untuk diagnosa penyakit tanaman kelapa sawit</t>
   </si>
   <si>
     <t>aplikasi jaringan syaraf tiruan berbasis web diagnosa penyakit tanaman cabai menggunakan metode backpropagation</t>
   </si>
   <si>
-    <t>aplikasi jaringan syaraf tiruan backpropagation deteksi kerusakan kendaraan sepeda motor</t>
+    <t>aplikasi jaringan syaraf tiruan backpropagation untuk deteksi kerusakan kendaraan sepeda motor</t>
   </si>
   <si>
     <t>aplikasi inventori obat studi kasus pt budi makmur jayamurti</t>
   </si>
   <si>
-    <t>aplikasi informasi geografis pemetaan lokasi atm automated teller machine berdasarkan lokasi obyek wisata berbasis web kota yogyakarta</t>
+    <t>aplikasi informasi geografis untuk pemetaan lokasi atm automated teller machine berdasarkan lokasi obyek wisata berbasis web kota yogyakarta</t>
   </si>
   <si>
     <t>aplikasi informasi geografis kawasan pertumbuhan ekonomi berbasis web studi kasus wilayah kota yogyakarta</t>
@@ -12244,7 +12244,7 @@
     <t>aplikasi image morphing citra  dimensi menggunakan metode field morphing</t>
   </si>
   <si>
-    <t>aplikasi general ledger perusahaan multi company studi kasus pt cube computer indonesia</t>
+    <t>aplikasi general ledger untuk perusahaan multi company studi kasus pt cube computer indonesia</t>
   </si>
   <si>
     <t>aplikasi game tradisional berbasis desktop permainan congklak</t>
@@ -12259,10 +12259,10 @@
     <t>aplikasi game pewayangan gatot kaca</t>
   </si>
   <si>
-    <t>aplikasi fast fourier transform fft mendeteksi cacat citra tekstur kain batik</t>
-  </si>
-  <si>
-    <t>aplikasi expert system mendiagnosa penyakit kelainan darah menggunakan metode teorema bayes</t>
+    <t>aplikasi fast fourier transform fft untuk mendeteksi cacat citra tekstur kain batik</t>
+  </si>
+  <si>
+    <t>aplikasi expert system untuk mendiagnosa penyakit kelainan darah menggunakan metode teorema bayes</t>
   </si>
   <si>
     <t>aplikasi expert system diagnosa penyakit kandungan menggunakan theorema bayes</t>
@@ -12283,7 +12283,7 @@
     <t>aplikasi encoding protocol data unit pdu short message service sms pengembangan pengendalian pc menggunakan mobile</t>
   </si>
   <si>
-    <t>aplikasi email tuna netra</t>
+    <t>aplikasi email untuk tuna netra</t>
   </si>
   <si>
     <t>aplikasi email berbasis wap message service</t>
@@ -12292,7 +12292,7 @@
     <t>aplikasi electronic government gc government to citizen pelayanan kartu tanda penduduk berbasis web</t>
   </si>
   <si>
-    <t>aplikasi elearning berbasis web smk studi kasus smk muhammadiyah  moyudan</t>
+    <t>aplikasi elearning berbasis web untuk smk studi kasus smk muhammadiyah  moyudan</t>
   </si>
   <si>
     <t>aplikasi edakwah berbasis ponsel menggunakan wap</t>
@@ -12301,10 +12301,10 @@
     <t>aplikasi ecomerce pemasaran buku online cv diandra primamitra media php mysql</t>
   </si>
   <si>
-    <t>aplikasi deteksi tepi pengenalan bentuk daun menggunakan operator prewitt</t>
-  </si>
-  <si>
-    <t>aplikasi deteksi tepi menggunakan operator prewitt klasifikasi bentuk wajah manusia</t>
+    <t>aplikasi deteksi tepi untuk pengenalan bentuk daun menggunakan operator prewitt</t>
+  </si>
+  <si>
+    <t>aplikasi deteksi tepi menggunakan operator prewitt untuk klasifikasi bentuk wajah manusia</t>
   </si>
   <si>
     <t>aplikasi menentukan kerusakan jalan studi kasus bappeda kota yogyakarta</t>
@@ -12313,7 +12313,7 @@
     <t>aplikasi cuti online pt gunung bayan pratama coal balikpapan</t>
   </si>
   <si>
-    <t>aplikasi customer relationship management pemesanan tiket bus berbasis short message service studi kasus agen bus cepat budiman yogyakarta</t>
+    <t>aplikasi customer relationship management untuk pemesanan tiket bus berbasis short message service studi kasus agen bus cepat budiman yogyakarta</t>
   </si>
   <si>
     <t>aplikasi customer relationship management jenis customer support berbasis web studi kasus po sumber alam kutoarjo purworejo</t>
@@ -12325,19 +12325,19 @@
     <t xml:space="preserve">aplikasi billing warnet berbasis client server menggunakan microsoft winsock control </t>
   </si>
   <si>
-    <t>aplikasi big book berbasis multimedia metode story telling meningkatkan minat baca anak</t>
+    <t>aplikasi big book berbasis multimedia metode story telling untuk meningkatkan minat baca anak</t>
   </si>
   <si>
     <t>aplikasi berbasis multimedia sarana informasi museum affandi yogyakarta</t>
   </si>
   <si>
-    <t>aplikasi berbasis multimedia jaringan client server pembelajaran doa anak</t>
-  </si>
-  <si>
-    <t>aplikasi bantu menentukan nilai eigen vektor eigen berbasis multimedia</t>
-  </si>
-  <si>
-    <t>aplikasi bantu penyimpan data pada perangkat mobile aplikasi pengelola keuangan komputer</t>
+    <t>aplikasi berbasis multimedia jaringan client server pembelajaran doa untuk anak</t>
+  </si>
+  <si>
+    <t>aplikasi bantu untuk menentukan nilai eigen vektor eigen berbasis multimedia</t>
+  </si>
+  <si>
+    <t>aplikasi bantu penyimpan data perangkat mobile untuk aplikasi pengelola keuangan komputer</t>
   </si>
   <si>
     <t>aplikasi bantu penyelesaian akuntansi</t>
@@ -12364,7 +12364,7 @@
     <t>animasi penyuluhan pemilu</t>
   </si>
   <si>
-    <t>animasi penggunaan alat keselamatan bus akap meningkatkan pemahaman penggunaan alat keselamatan pemumpang menggunakan metode simulasi</t>
+    <t>animasi penggunaan alat keselamatan bus akap untuk meningkatkan pemahaman penggunaan alat keselamatan pemumpang menggunakan metode simulasi</t>
   </si>
   <si>
     <t>animasi demonstrasi cara menyikat gigi anakanak</t>
@@ -12376,7 +12376,7 @@
     <t>animasi prosedur pembuatan perpanjangan surat izin mengemudi</t>
   </si>
   <si>
-    <t>animasi d berbasis limited cut animation post planning animation meningkatkan pemahaman tokoh gatotkaca anakanak smp</t>
+    <t>animasi d berbasis limited cut animation post planning animation untuk meningkatkan pemahaman tokoh gatotkaca anakanak smp</t>
   </si>
   <si>
     <t>analisis perbandingan teknik segmentasi citra digital menggunakan metode levelset chan  vese lakton</t>
@@ -12385,7 +12385,7 @@
     <t>analisis perbandingan metode two dimensional median filte multi level median filter filtering citra digital</t>
   </si>
   <si>
-    <t>analisis perbandingan metode high pass intensisty filtering metode median filtering pengurangan derau citra digital</t>
+    <t>analisis perbandingan metode high pass intensisty filtering metode median filtering untuk pengurangan derau citra digital</t>
   </si>
   <si>
     <t>analisis perbandingan metode huffman run length encoding rlepada kompresi citra medik</t>
@@ -12394,7 +12394,7 @@
     <t>analisis perbandingan metode li chanvese proses segmentasi citra digital</t>
   </si>
   <si>
-    <t>analisis penerapan seo search engine optimizationdan smo social media optimization website fakultas universitas ahmad dahlan meningkatkan peringkat si search engine</t>
+    <t>analisis penerapan seo search engine optimizationdan smo social media optimization website fakultas universitas ahmad dahlan untuk meningkatkan peringkat si search engine</t>
   </si>
   <si>
     <t>analisis pembuatan model customer relationship management crm hotel citra</t>
@@ -12418,10 +12418,10 @@
     <t>analisis quality of service qos kinerja software video conference berbasis wireless</t>
   </si>
   <si>
-    <t>analisis perbandingan teknik watermarking menggunakan least significant bits lsb discrete wavelet transform dwt penyembunyian informasi citra digital</t>
-  </si>
-  <si>
-    <t>analisis perbandingan metode ekualisasi histogram kontras biasa peningkatan kualitas kecermelangan citra</t>
+    <t>analisis perbandingan teknik watermarking menggunakan least significant bits lsb discrete wavelet transform dwt untuk penyembunyian informasi citra digital</t>
+  </si>
+  <si>
+    <t>analisis perbandingan metode ekualisasi histogram kontras peningkatan kualitas kecermelangan citra</t>
   </si>
   <si>
     <t>analisis perbandingan kinerja server data center iix international menggunakan teknologi cloud server</t>
@@ -12442,7 +12442,7 @@
     <t>analisis pemodelan perencanaan architectur enterprise homestay venezia menggunakan metode zachman framework</t>
   </si>
   <si>
-    <t>analisis kualitas komunikasi data tower bersama</t>
+    <t>analisis kualitas komunikasi data tower</t>
   </si>
   <si>
     <t>analisis kinerja website universitas ahmad dahlan dng teknik seo search engine optimization off page</t>
@@ -12451,7 +12451,7 @@
     <t>analisis keamanan data sistem ecommerce kerangka kerja zachman</t>
   </si>
   <si>
-    <t>analisis empiris kerja algoritma kriptografi block cipher des data encryption standard gost</t>
+    <t>analisis empiris untuk kerja algoritma kriptografi block cipher des data encryption standard gost</t>
   </si>
   <si>
     <t>analisis empiris unjuk kerja algoritma kriptografi metode data encryption standard des rivest code  rc</t>
@@ -12475,7 +12475,7 @@
     <t>analisis perancangan sistem informasi simpan pinjam baitul maal watamwil bmt berorientasi objek</t>
   </si>
   <si>
-    <t>analisis implementasi emall pemesanan barang usaha kecil menengah studi kasus cv reza cv intan galery</t>
+    <t>analisis implementasi emall pemesanan barang usaha menengah studi kasus cv reza cv intan galery</t>
   </si>
   <si>
     <t>analisis bidang minat studi prodi teknik informatika uad metode naive bayes classifier</t>
@@ -12523,10 +12523,10 @@
     <t>aplikasi penerimaan siswa baru reguler psb online berbasis wweb mobile sms gateway</t>
   </si>
   <si>
-    <t>aplikasi pencarian pemesanan travelberbasis mobile androidmemanfaatkan google maps api pencarian lokasi travel</t>
-  </si>
-  <si>
-    <t>aplikasi android pengelolaan keuangan keluarga modul perencanaan keuangan masa depan berbasis web service</t>
+    <t>aplikasi pencarian pemesanan travelberbasis mobile androidmemanfaatkan google maps api untuk pencarian lokasi travel</t>
+  </si>
+  <si>
+    <t>aplikasi android pengelolaan keuangan keluarga modul perencanaan keuangan masa berbasis web service</t>
   </si>
   <si>
     <t>analisis perencanaan strategik sistem informasimenggunakan metode ward and peppardstudi kasus distro sideback yogyakarta</t>
@@ -12541,7 +12541,7 @@
     <t>sistem informasi pembayaran pengelompokan sumber biaya spp siswa berbasiss web smp muhammadiyah  berbah</t>
   </si>
   <si>
-    <t>pengembangan media komik panda kawankawan materi pengelompokan tumbuhan pelajaran ipa kelas  sd</t>
+    <t>pengembangan media komik panda kawankawan materi pengelompokan tumbuhan pelajaran ipa untuk kelas  sd</t>
   </si>
   <si>
     <t>pengelompokan stand vegetasi strata semak berdasarkan lingkungan abiotik sempadan sungai boyong yogyakarta sumber belajar biologi sma kelas x materi pembelajaran keanekaragaman hayati</t>
@@ -12556,10 +12556,10 @@
     <t>pengelompokkan data penyakit berdasarkan usia menggunakan metode fuzzy cmeans</t>
   </si>
   <si>
-    <t>text mining menggunakan metode single linkage manhattan distance similarity pengelompokkan trend topik kerja praktik</t>
-  </si>
-  <si>
-    <t>text mining menggunakan metode snn evclidean distance mengelompokan email</t>
+    <t>text mining menggunakan metode single linkage manhattan distance similarity untuk pengelompokkan trend topik kerja praktik</t>
+  </si>
+  <si>
+    <t>text mining menggunakan metode snn evclidean distance untuk mengelompokan email</t>
   </si>
   <si>
     <t>text mining klasifikasi judul skripsi teknik industri universitas ahmad dahlan berdasarkan bidang minat menggunakan metode naive bayes</t>
@@ -12568,16 +12568,16 @@
     <t>pengembangan analisis sentimen sistem indeks kinerja dosen menggunakan metode naive bayes</t>
   </si>
   <si>
-    <t>penerapan text mining pengelompokkan judul kerja praktek menggunakan metode kmeans clustering cosineâ  similarity</t>
-  </si>
-  <si>
-    <t>pemanfaatan text mining mengklasifikasi sms spam porno algoritma c</t>
+    <t>penerapan text mining pengelompokkan judul kerja praktek menggunakan metode kmeans clustering cosine similarity</t>
+  </si>
+  <si>
+    <t>pemanfaatan text mining untuk mengklasifikasi sms spam porno algoritma c</t>
   </si>
   <si>
     <t>implementasi text mining pengelompokkan judul penelitian dosen menggunakan metode kmedoids cosine similarity</t>
   </si>
   <si>
-    <t>aplikasi web text mining pengelompokkan judul jurnal publikasi metode snn  shared nearest neighbor</t>
+    <t>aplikasi web text mining untuk pengelompokkan judul jurnal publikasi metode snn  shared nearest neighbor</t>
   </si>
   <si>
     <t>analisis sentimen komentar tulisan blog menggunakan metode knearest neighbour</t>
@@ -12586,31 +12586,31 @@
     <t>analisis forensik whats app mesengger berbasis android menggunakan metode text mining</t>
   </si>
   <si>
-    <t>rancang bangun data mining mencari pola asosiasi data tracer studi metode foldarm fast online dynamic association rule mining</t>
-  </si>
-  <si>
-    <t>penerapan data mining algoritma apriori mendapatkan pola penjualan seblak cuz</t>
-  </si>
-  <si>
-    <t>penerapan data mining penentuan penerima beasiswa metode knearest neighbor knn bimawa uad</t>
-  </si>
-  <si>
-    <t>penerapan data mining menentukan kelayakan  kredit perumahan menggunakan metode c pt pmpp</t>
-  </si>
-  <si>
-    <t>penerapan data mining melakukan prediksi diagnosis breast cancer menggunakan metode naive bayes</t>
-  </si>
-  <si>
-    <t>penerapan data mining klasifikasi berat bayi lahir rendah metode c studi kasus  rsud panembahan senopati</t>
-  </si>
-  <si>
-    <t>penerapan data mining clustering status gizi bayi metode kmeans</t>
-  </si>
-  <si>
-    <t>penerapan data mining analisis pola asosiasi metode apriori suku cadang motor studi kasus bengkel motor yogyakarta</t>
-  </si>
-  <si>
-    <t>penerapan data mining menggunakan metode naive bayes menentukan jenis abortus rsud duta mulya</t>
+    <t>rancang bangun data mining untuk mencari pola asosiasi data tracer studi metode foldarm fast online dynamic association rule mining</t>
+  </si>
+  <si>
+    <t>penerapan data mining algoritma apriori untuk mendapatkan pola penjualan seblak cuz</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk penentuan penerima beasiswa metode knearest neighbor knn bimawa uad</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk menentukan kelayakan kredit perumahan menggunakan metode c pt pmpp</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk melakukan prediksi diagnosis breast cancer menggunakan metode naive bayes</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk klasifikasi berat bayi lahir rendah metode c studi kasus  rsud panembahan senopati</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk clustering status gizi bayi metode kmeans</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk analisis pola asosiasi metode apriori suku cadang motor studi kasus bengkel motor yogyakarta</t>
+  </si>
+  <si>
+    <t>penerapan data mining menggunakan metode naive bayes untuk menentukan jenis abortus rsud duta mulya</t>
   </si>
   <si>
     <t>penerapan data mining metode naive bayes memprediksi jenis latihan siswa pencak silat organisasi persaudaraan setia hati terate</t>
@@ -12628,7 +12628,7 @@
     <t>penentuan jenis produksi teh hitam menggunakan metode kmeans clustering berbasis web studi kasus produksi teh hitam ptpn vii pagaralam</t>
   </si>
   <si>
-    <t>pemanfaatan data mining segmentasi pelanggan customer relationship mangement fuzzy cmeans</t>
+    <t>pemanfaatan data mining segmentasi pelanggan untuk customer relationship mangement fuzzy cmeans</t>
   </si>
   <si>
     <t>pemanfaatan data mining monitoring evaluasi pelayanan kesehatan peserta akses sosial</t>
@@ -12637,19 +12637,19 @@
     <t>klasifikasi potensi zakat lazismu diy menggunakan metode knearest neighbour knn berbasis web framework</t>
   </si>
   <si>
-    <t>implementasi teknik data mining customer relationship management crm online shop tokodiaperscom metode clustering fuzzy cmeans</t>
+    <t>implementasi teknik data mining untuk customer relationship management crm online shop tokodiaperscom metode clustering fuzzy cmeans</t>
   </si>
   <si>
     <t>implementasi ecommerce data mining perekomendasian barang customer toko batik of java</t>
   </si>
   <si>
-    <t>implementasi data mining penentuan pola asosiasi menggunakan metode temporal asosiasi data obat</t>
-  </si>
-  <si>
-    <t>implementasi data mining mengelompokkan data alumni menggunakan metode fuzzy cmeanâ  universitas ahmad dahlan</t>
-  </si>
-  <si>
-    <t>implementasi data mining memprediksi lama masa tunggu mencari kerja menggunakan metode naive bayes</t>
+    <t>implementasi data mining untuk penentuan pola asosiasi menggunakan metode temporal asosiasi data obat</t>
+  </si>
+  <si>
+    <t>implementasi data mining untuk mengelompokkan data alumni menggunakan metode fuzzy cmean universitas ahmad dahlan</t>
+  </si>
+  <si>
+    <t>implementasi data mining untuk memprediksi masa tunggu mencari kerja menggunakan metode naive bayes</t>
   </si>
   <si>
     <t>implementasi data mining algoritma apriori kasus perekomendasian pelanggan rental vcd film</t>
@@ -12658,19 +12658,19 @@
     <t>implementasi data mining analisis pola asosiasi data alumni menggunakan metode fpgrowth</t>
   </si>
   <si>
-    <t>data mining pengambilan keputusan memprediksi fluktuasi valuta asing menggunakan metode pohon keputusan</t>
+    <t>data mining untuk pengambilan keputusan memprediksi fluktuasi valuta asing menggunakan metode pohon keputusan</t>
   </si>
   <si>
     <t>data mining analisa transaksi penjualan menggunakan metode asosiasi algoritma apriori</t>
   </si>
   <si>
-    <t>aplikasi data mining penerapan fuzzy madm perekomendasian oli terbaik kendaraan bermotor</t>
-  </si>
-  <si>
-    <t>aplikasi data mining mengklasifikasikan sekolah dasar layak mendapatkan akreditasi sangat baik a menggunakan algoritma c</t>
-  </si>
-  <si>
-    <t>aplikasi data mining mengklasifikasi penerima beasiswa miskin algoritma c smkn  tarano</t>
+    <t>aplikasi data mining penerapan fuzzy madm untuk perekomendasian oli terbaik kendaraan bermotor</t>
+  </si>
+  <si>
+    <t>aplikasi data mining untuk mengklasifikasikan sekolah dasar layak mendapatkan akreditasi baik a menggunakan algoritma c</t>
+  </si>
+  <si>
+    <t>aplikasi data mining untuk mengklasifikasi penerima beasiswa miskin algoritma c smkn  tarano</t>
   </si>
 </sst>
 </file>
